--- a/CrowdFunding.xlsx
+++ b/CrowdFunding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed\Desktop\Git\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD3EB04-C9DA-440A-812E-E602DDAD1E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34563507-FD23-4029-93E0-FCDD95AB6472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="5085" windowWidth="24600" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5085" windowWidth="16905" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId1"/>
@@ -6560,7 +6560,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6603,7 +6603,6 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6616,9 +6615,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -6658,12 +6657,67 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7010,7 +7064,7 @@
   <dimension ref="A1:O1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F1001"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7018,7 +7072,7 @@
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
@@ -7088,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <f>E2/D2</f>
+        <f>E2/D2*100</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -7136,8 +7190,8 @@
         <v>14560</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>10.4</v>
+        <f t="shared" ref="F3:F66" si="0">E3/D3*100</f>
+        <v>1040</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -7185,7 +7239,7 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>1.3147878228782288</v>
+        <v>131.4787822878229</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -7233,7 +7287,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>0.58976190476190471</v>
+        <v>58.976190476190467</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -7281,7 +7335,7 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>0.69276315789473686</v>
+        <v>69.276315789473685</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -7329,7 +7383,7 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>1.7361842105263159</v>
+        <v>173.61842105263159</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -7377,7 +7431,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.20961538461538462</v>
+        <v>20.961538461538463</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -7425,7 +7479,7 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>3.2757777777777779</v>
+        <v>327.57777777777778</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -7473,7 +7527,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0.19932788374205268</v>
+        <v>19.932788374205266</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -7521,7 +7575,7 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>0.51741935483870971</v>
+        <v>51.741935483870968</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -7569,7 +7623,7 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>2.6611538461538462</v>
+        <v>266.11538461538464</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -7617,7 +7671,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0.48095238095238096</v>
+        <v>48.095238095238095</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -7665,7 +7719,7 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0.89349206349206345</v>
+        <v>89.349206349206341</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -7713,7 +7767,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>2.4511904761904764</v>
+        <v>245.11904761904765</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -7761,7 +7815,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>0.66769503546099296</v>
+        <v>66.769503546099301</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -7809,7 +7863,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>0.47307881773399013</v>
+        <v>47.307881773399011</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -7857,7 +7911,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>6.4947058823529416</v>
+        <v>649.47058823529414</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
@@ -7905,7 +7959,7 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>1.5939125295508274</v>
+        <v>159.39125295508273</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
@@ -7953,7 +8007,7 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>0.66912087912087914</v>
+        <v>66.912087912087912</v>
       </c>
       <c r="G20" t="s">
         <v>74</v>
@@ -8001,7 +8055,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>0.48529600000000001</v>
+        <v>48.529600000000002</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -8049,7 +8103,7 @@
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>1.1224279210925645</v>
+        <v>112.24279210925646</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -8097,7 +8151,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>0.40992553191489361</v>
+        <v>40.992553191489364</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -8145,7 +8199,7 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
-        <v>1.2807106598984772</v>
+        <v>128.07106598984771</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -8193,7 +8247,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
-        <v>3.3204444444444445</v>
+        <v>332.04444444444448</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -8241,7 +8295,7 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
-        <v>1.1283225108225108</v>
+        <v>112.83225108225108</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -8289,7 +8343,7 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" si="0"/>
-        <v>2.1643636363636363</v>
+        <v>216.43636363636364</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -8337,7 +8391,7 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" si="0"/>
-        <v>0.4819906976744186</v>
+        <v>48.199069767441863</v>
       </c>
       <c r="G28" t="s">
         <v>74</v>
@@ -8385,7 +8439,7 @@
       </c>
       <c r="F29" s="4">
         <f t="shared" si="0"/>
-        <v>0.79949999999999999</v>
+        <v>79.95</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -8433,7 +8487,7 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" si="0"/>
-        <v>1.0522553516819573</v>
+        <v>105.22553516819573</v>
       </c>
       <c r="G30" t="s">
         <v>20</v>
@@ -8481,7 +8535,7 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" si="0"/>
-        <v>3.2889978213507627</v>
+        <v>328.89978213507629</v>
       </c>
       <c r="G31" t="s">
         <v>20</v>
@@ -8529,7 +8583,7 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" si="0"/>
-        <v>1.606111111111111</v>
+        <v>160.61111111111111</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -8577,7 +8631,7 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>310</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
@@ -8625,7 +8679,7 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" si="0"/>
-        <v>0.86807920792079207</v>
+        <v>86.807920792079202</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -8673,7 +8727,7 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" si="0"/>
-        <v>3.7782071713147412</v>
+        <v>377.82071713147411</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -8721,7 +8775,7 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" si="0"/>
-        <v>1.5080645161290323</v>
+        <v>150.80645161290323</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
@@ -8769,7 +8823,7 @@
       </c>
       <c r="F37" s="4">
         <f t="shared" si="0"/>
-        <v>1.5030119521912351</v>
+        <v>150.30119521912351</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
@@ -8817,7 +8871,7 @@
       </c>
       <c r="F38" s="4">
         <f t="shared" si="0"/>
-        <v>1.572857142857143</v>
+        <v>157.28571428571431</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
@@ -8865,7 +8919,7 @@
       </c>
       <c r="F39" s="4">
         <f t="shared" si="0"/>
-        <v>1.3998765432098765</v>
+        <v>139.98765432098764</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
@@ -8913,7 +8967,7 @@
       </c>
       <c r="F40" s="4">
         <f t="shared" si="0"/>
-        <v>3.2532258064516131</v>
+        <v>325.32258064516128</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -8961,7 +9015,7 @@
       </c>
       <c r="F41" s="4">
         <f t="shared" si="0"/>
-        <v>0.50777777777777777</v>
+        <v>50.777777777777779</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
@@ -9009,7 +9063,7 @@
       </c>
       <c r="F42" s="4">
         <f t="shared" si="0"/>
-        <v>1.6906818181818182</v>
+        <v>169.06818181818181</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -9057,7 +9111,7 @@
       </c>
       <c r="F43" s="4">
         <f t="shared" si="0"/>
-        <v>2.1292857142857144</v>
+        <v>212.92857142857144</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -9105,7 +9159,7 @@
       </c>
       <c r="F44" s="4">
         <f t="shared" si="0"/>
-        <v>4.4394444444444447</v>
+        <v>443.94444444444446</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -9153,7 +9207,7 @@
       </c>
       <c r="F45" s="4">
         <f t="shared" si="0"/>
-        <v>1.859390243902439</v>
+        <v>185.9390243902439</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -9201,7 +9255,7 @@
       </c>
       <c r="F46" s="4">
         <f t="shared" si="0"/>
-        <v>6.5881249999999998</v>
+        <v>658.8125</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -9249,7 +9303,7 @@
       </c>
       <c r="F47" s="4">
         <f t="shared" si="0"/>
-        <v>0.4768421052631579</v>
+        <v>47.684210526315788</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -9297,7 +9351,7 @@
       </c>
       <c r="F48" s="4">
         <f t="shared" si="0"/>
-        <v>1.1478378378378378</v>
+        <v>114.78378378378378</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -9345,7 +9399,7 @@
       </c>
       <c r="F49" s="4">
         <f t="shared" si="0"/>
-        <v>4.7526666666666664</v>
+        <v>475.26666666666665</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
@@ -9393,7 +9447,7 @@
       </c>
       <c r="F50" s="4">
         <f t="shared" si="0"/>
-        <v>3.86972972972973</v>
+        <v>386.97297297297297</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
@@ -9441,7 +9495,7 @@
       </c>
       <c r="F51" s="4">
         <f t="shared" si="0"/>
-        <v>1.89625</v>
+        <v>189.625</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -9489,7 +9543,7 @@
       </c>
       <c r="F52" s="4">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -9537,7 +9591,7 @@
       </c>
       <c r="F53" s="4">
         <f t="shared" si="0"/>
-        <v>0.91867805186590767</v>
+        <v>91.867805186590772</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -9585,7 +9639,7 @@
       </c>
       <c r="F54" s="4">
         <f t="shared" si="0"/>
-        <v>0.34152777777777776</v>
+        <v>34.152777777777779</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -9633,7 +9687,7 @@
       </c>
       <c r="F55" s="4">
         <f t="shared" si="0"/>
-        <v>1.4040909090909091</v>
+        <v>140.40909090909091</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -9681,7 +9735,7 @@
       </c>
       <c r="F56" s="4">
         <f t="shared" si="0"/>
-        <v>0.89866666666666661</v>
+        <v>89.86666666666666</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
@@ -9729,7 +9783,7 @@
       </c>
       <c r="F57" s="4">
         <f t="shared" si="0"/>
-        <v>1.7796969696969698</v>
+        <v>177.96969696969697</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
@@ -9777,7 +9831,7 @@
       </c>
       <c r="F58" s="4">
         <f t="shared" si="0"/>
-        <v>1.436625</v>
+        <v>143.66249999999999</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
@@ -9825,7 +9879,7 @@
       </c>
       <c r="F59" s="4">
         <f t="shared" si="0"/>
-        <v>2.1527586206896552</v>
+        <v>215.27586206896552</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -9873,7 +9927,7 @@
       </c>
       <c r="F60" s="4">
         <f t="shared" si="0"/>
-        <v>2.2711111111111113</v>
+        <v>227.11111111111114</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -9921,7 +9975,7 @@
       </c>
       <c r="F61" s="4">
         <f t="shared" si="0"/>
-        <v>2.7507142857142859</v>
+        <v>275.07142857142861</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
@@ -9969,7 +10023,7 @@
       </c>
       <c r="F62" s="4">
         <f t="shared" si="0"/>
-        <v>1.4437048832271762</v>
+        <v>144.37048832271762</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
@@ -10017,7 +10071,7 @@
       </c>
       <c r="F63" s="4">
         <f t="shared" si="0"/>
-        <v>0.92745983935742971</v>
+        <v>92.74598393574297</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
@@ -10065,7 +10119,7 @@
       </c>
       <c r="F64" s="4">
         <f t="shared" si="0"/>
-        <v>7.226</v>
+        <v>722.6</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
@@ -10113,7 +10167,7 @@
       </c>
       <c r="F65" s="4">
         <f t="shared" si="0"/>
-        <v>0.11851063829787234</v>
+        <v>11.851063829787234</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
@@ -10161,7 +10215,7 @@
       </c>
       <c r="F66" s="4">
         <f t="shared" si="0"/>
-        <v>0.97642857142857142</v>
+        <v>97.642857142857139</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
@@ -10208,8 +10262,8 @@
         <v>14405</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" ref="F67:F130" si="1">E67/D67</f>
-        <v>2.3614754098360655</v>
+        <f t="shared" ref="F67:F130" si="1">E67/D67*100</f>
+        <v>236.14754098360655</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
@@ -10257,7 +10311,7 @@
       </c>
       <c r="F68" s="4">
         <f t="shared" si="1"/>
-        <v>0.45068965517241377</v>
+        <v>45.068965517241381</v>
       </c>
       <c r="G68" t="s">
         <v>14</v>
@@ -10305,7 +10359,7 @@
       </c>
       <c r="F69" s="4">
         <f t="shared" si="1"/>
-        <v>1.6238567493112948</v>
+        <v>162.38567493112947</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -10353,7 +10407,7 @@
       </c>
       <c r="F70" s="4">
         <f t="shared" si="1"/>
-        <v>2.5452631578947367</v>
+        <v>254.52631578947367</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -10401,7 +10455,7 @@
       </c>
       <c r="F71" s="4">
         <f t="shared" si="1"/>
-        <v>0.24063291139240506</v>
+        <v>24.063291139240505</v>
       </c>
       <c r="G71" t="s">
         <v>74</v>
@@ -10449,7 +10503,7 @@
       </c>
       <c r="F72" s="4">
         <f t="shared" si="1"/>
-        <v>1.2374140625000001</v>
+        <v>123.74140625000001</v>
       </c>
       <c r="G72" t="s">
         <v>20</v>
@@ -10497,7 +10551,7 @@
       </c>
       <c r="F73" s="4">
         <f t="shared" si="1"/>
-        <v>1.0806666666666667</v>
+        <v>108.06666666666666</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
@@ -10545,7 +10599,7 @@
       </c>
       <c r="F74" s="4">
         <f t="shared" si="1"/>
-        <v>6.7033333333333331</v>
+        <v>670.33333333333326</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -10593,7 +10647,7 @@
       </c>
       <c r="F75" s="4">
         <f t="shared" si="1"/>
-        <v>6.609285714285714</v>
+        <v>660.92857142857144</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -10641,7 +10695,7 @@
       </c>
       <c r="F76" s="4">
         <f t="shared" si="1"/>
-        <v>1.2246153846153847</v>
+        <v>122.46153846153847</v>
       </c>
       <c r="G76" t="s">
         <v>20</v>
@@ -10689,7 +10743,7 @@
       </c>
       <c r="F77" s="4">
         <f t="shared" si="1"/>
-        <v>1.5057731958762886</v>
+        <v>150.57731958762886</v>
       </c>
       <c r="G77" t="s">
         <v>20</v>
@@ -10737,7 +10791,7 @@
       </c>
       <c r="F78" s="4">
         <f t="shared" si="1"/>
-        <v>0.78106590724165992</v>
+        <v>78.106590724165997</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
@@ -10785,7 +10839,7 @@
       </c>
       <c r="F79" s="4">
         <f t="shared" si="1"/>
-        <v>0.46947368421052632</v>
+        <v>46.94736842105263</v>
       </c>
       <c r="G79" t="s">
         <v>14</v>
@@ -10833,7 +10887,7 @@
       </c>
       <c r="F80" s="4">
         <f t="shared" si="1"/>
-        <v>3.008</v>
+        <v>300.8</v>
       </c>
       <c r="G80" t="s">
         <v>20</v>
@@ -10881,7 +10935,7 @@
       </c>
       <c r="F81" s="4">
         <f t="shared" si="1"/>
-        <v>0.6959861591695502</v>
+        <v>69.598615916955026</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
@@ -10929,7 +10983,7 @@
       </c>
       <c r="F82" s="4">
         <f t="shared" si="1"/>
-        <v>6.374545454545455</v>
+        <v>637.4545454545455</v>
       </c>
       <c r="G82" t="s">
         <v>20</v>
@@ -10977,7 +11031,7 @@
       </c>
       <c r="F83" s="4">
         <f t="shared" si="1"/>
-        <v>2.253392857142857</v>
+        <v>225.33928571428569</v>
       </c>
       <c r="G83" t="s">
         <v>20</v>
@@ -11025,7 +11079,7 @@
       </c>
       <c r="F84" s="4">
         <f t="shared" si="1"/>
-        <v>14.973000000000001</v>
+        <v>1497.3000000000002</v>
       </c>
       <c r="G84" t="s">
         <v>20</v>
@@ -11073,7 +11127,7 @@
       </c>
       <c r="F85" s="4">
         <f t="shared" si="1"/>
-        <v>0.37590225563909774</v>
+        <v>37.590225563909776</v>
       </c>
       <c r="G85" t="s">
         <v>14</v>
@@ -11121,7 +11175,7 @@
       </c>
       <c r="F86" s="4">
         <f t="shared" si="1"/>
-        <v>1.3236942675159236</v>
+        <v>132.36942675159236</v>
       </c>
       <c r="G86" t="s">
         <v>20</v>
@@ -11169,7 +11223,7 @@
       </c>
       <c r="F87" s="4">
         <f t="shared" si="1"/>
-        <v>1.3122448979591836</v>
+        <v>131.22448979591837</v>
       </c>
       <c r="G87" t="s">
         <v>20</v>
@@ -11217,7 +11271,7 @@
       </c>
       <c r="F88" s="4">
         <f t="shared" si="1"/>
-        <v>1.6763513513513513</v>
+        <v>167.63513513513513</v>
       </c>
       <c r="G88" t="s">
         <v>20</v>
@@ -11265,7 +11319,7 @@
       </c>
       <c r="F89" s="4">
         <f t="shared" si="1"/>
-        <v>0.6198488664987406</v>
+        <v>61.984886649874063</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -11313,7 +11367,7 @@
       </c>
       <c r="F90" s="4">
         <f t="shared" si="1"/>
-        <v>2.6074999999999999</v>
+        <v>260.75</v>
       </c>
       <c r="G90" t="s">
         <v>20</v>
@@ -11361,7 +11415,7 @@
       </c>
       <c r="F91" s="4">
         <f t="shared" si="1"/>
-        <v>2.5258823529411765</v>
+        <v>252.58823529411765</v>
       </c>
       <c r="G91" t="s">
         <v>20</v>
@@ -11409,7 +11463,7 @@
       </c>
       <c r="F92" s="4">
         <f t="shared" si="1"/>
-        <v>0.7861538461538462</v>
+        <v>78.615384615384613</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
@@ -11457,7 +11511,7 @@
       </c>
       <c r="F93" s="4">
         <f t="shared" si="1"/>
-        <v>0.48404406999351912</v>
+        <v>48.404406999351913</v>
       </c>
       <c r="G93" t="s">
         <v>14</v>
@@ -11505,7 +11559,7 @@
       </c>
       <c r="F94" s="4">
         <f t="shared" si="1"/>
-        <v>2.5887500000000001</v>
+        <v>258.875</v>
       </c>
       <c r="G94" t="s">
         <v>20</v>
@@ -11553,7 +11607,7 @@
       </c>
       <c r="F95" s="4">
         <f t="shared" si="1"/>
-        <v>0.60548713235294116</v>
+        <v>60.548713235294116</v>
       </c>
       <c r="G95" t="s">
         <v>74</v>
@@ -11601,7 +11655,7 @@
       </c>
       <c r="F96" s="4">
         <f t="shared" si="1"/>
-        <v>3.036896551724138</v>
+        <v>303.68965517241378</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
@@ -11649,7 +11703,7 @@
       </c>
       <c r="F97" s="4">
         <f t="shared" si="1"/>
-        <v>1.1299999999999999</v>
+        <v>112.99999999999999</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
@@ -11697,7 +11751,7 @@
       </c>
       <c r="F98" s="4">
         <f t="shared" si="1"/>
-        <v>2.1737876614060259</v>
+        <v>217.37876614060258</v>
       </c>
       <c r="G98" t="s">
         <v>20</v>
@@ -11745,7 +11799,7 @@
       </c>
       <c r="F99" s="4">
         <f t="shared" si="1"/>
-        <v>9.2669230769230762</v>
+        <v>926.69230769230762</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -11793,7 +11847,7 @@
       </c>
       <c r="F100" s="4">
         <f t="shared" si="1"/>
-        <v>0.33692229038854804</v>
+        <v>33.692229038854805</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
@@ -11841,7 +11895,7 @@
       </c>
       <c r="F101" s="4">
         <f t="shared" si="1"/>
-        <v>1.9672368421052631</v>
+        <v>196.7236842105263</v>
       </c>
       <c r="G101" t="s">
         <v>20</v>
@@ -11889,7 +11943,7 @@
       </c>
       <c r="F102" s="4">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
@@ -11937,7 +11991,7 @@
       </c>
       <c r="F103" s="4">
         <f t="shared" si="1"/>
-        <v>10.214444444444444</v>
+        <v>1021.4444444444445</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
@@ -11985,7 +12039,7 @@
       </c>
       <c r="F104" s="4">
         <f t="shared" si="1"/>
-        <v>2.8167567567567566</v>
+        <v>281.67567567567568</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
@@ -12033,7 +12087,7 @@
       </c>
       <c r="F105" s="4">
         <f t="shared" si="1"/>
-        <v>0.24610000000000001</v>
+        <v>24.610000000000003</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
@@ -12081,7 +12135,7 @@
       </c>
       <c r="F106" s="4">
         <f t="shared" si="1"/>
-        <v>1.4314010067114094</v>
+        <v>143.14010067114094</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -12129,7 +12183,7 @@
       </c>
       <c r="F107" s="4">
         <f t="shared" si="1"/>
-        <v>1.4454411764705883</v>
+        <v>144.54411764705884</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
@@ -12177,7 +12231,7 @@
       </c>
       <c r="F108" s="4">
         <f t="shared" si="1"/>
-        <v>3.5912820512820511</v>
+        <v>359.12820512820514</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
@@ -12225,7 +12279,7 @@
       </c>
       <c r="F109" s="4">
         <f t="shared" si="1"/>
-        <v>1.8648571428571428</v>
+        <v>186.48571428571427</v>
       </c>
       <c r="G109" t="s">
         <v>20</v>
@@ -12273,7 +12327,7 @@
       </c>
       <c r="F110" s="4">
         <f t="shared" si="1"/>
-        <v>5.9526666666666666</v>
+        <v>595.26666666666665</v>
       </c>
       <c r="G110" t="s">
         <v>20</v>
@@ -12321,7 +12375,7 @@
       </c>
       <c r="F111" s="4">
         <f t="shared" si="1"/>
-        <v>0.5921153846153846</v>
+        <v>59.21153846153846</v>
       </c>
       <c r="G111" t="s">
         <v>14</v>
@@ -12369,7 +12423,7 @@
       </c>
       <c r="F112" s="4">
         <f t="shared" si="1"/>
-        <v>0.14962780898876404</v>
+        <v>14.962780898876405</v>
       </c>
       <c r="G112" t="s">
         <v>14</v>
@@ -12417,7 +12471,7 @@
       </c>
       <c r="F113" s="4">
         <f t="shared" si="1"/>
-        <v>1.1995602605863191</v>
+        <v>119.95602605863192</v>
       </c>
       <c r="G113" t="s">
         <v>20</v>
@@ -12465,7 +12519,7 @@
       </c>
       <c r="F114" s="4">
         <f t="shared" si="1"/>
-        <v>2.6882978723404256</v>
+        <v>268.82978723404256</v>
       </c>
       <c r="G114" t="s">
         <v>20</v>
@@ -12513,7 +12567,7 @@
       </c>
       <c r="F115" s="4">
         <f t="shared" si="1"/>
-        <v>3.7687878787878786</v>
+        <v>376.87878787878788</v>
       </c>
       <c r="G115" t="s">
         <v>20</v>
@@ -12561,7 +12615,7 @@
       </c>
       <c r="F116" s="4">
         <f t="shared" si="1"/>
-        <v>7.2715789473684209</v>
+        <v>727.15789473684208</v>
       </c>
       <c r="G116" t="s">
         <v>20</v>
@@ -12609,7 +12663,7 @@
       </c>
       <c r="F117" s="4">
         <f t="shared" si="1"/>
-        <v>0.87211757648470301</v>
+        <v>87.211757648470297</v>
       </c>
       <c r="G117" t="s">
         <v>14</v>
@@ -12657,7 +12711,7 @@
       </c>
       <c r="F118" s="4">
         <f t="shared" si="1"/>
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
@@ -12705,7 +12759,7 @@
       </c>
       <c r="F119" s="4">
         <f t="shared" si="1"/>
-        <v>1.7393877551020409</v>
+        <v>173.9387755102041</v>
       </c>
       <c r="G119" t="s">
         <v>20</v>
@@ -12753,7 +12807,7 @@
       </c>
       <c r="F120" s="4">
         <f t="shared" si="1"/>
-        <v>1.1761111111111111</v>
+        <v>117.61111111111111</v>
       </c>
       <c r="G120" t="s">
         <v>20</v>
@@ -12801,7 +12855,7 @@
       </c>
       <c r="F121" s="4">
         <f t="shared" si="1"/>
-        <v>2.1496</v>
+        <v>214.96</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
@@ -12849,7 +12903,7 @@
       </c>
       <c r="F122" s="4">
         <f t="shared" si="1"/>
-        <v>1.4949667110519307</v>
+        <v>149.49667110519306</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
@@ -12897,7 +12951,7 @@
       </c>
       <c r="F123" s="4">
         <f t="shared" si="1"/>
-        <v>2.1933995584988963</v>
+        <v>219.33995584988963</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
@@ -12945,7 +12999,7 @@
       </c>
       <c r="F124" s="4">
         <f t="shared" si="1"/>
-        <v>0.64367690058479532</v>
+        <v>64.367690058479525</v>
       </c>
       <c r="G124" t="s">
         <v>14</v>
@@ -12993,7 +13047,7 @@
       </c>
       <c r="F125" s="4">
         <f t="shared" si="1"/>
-        <v>0.18622397298818233</v>
+        <v>18.622397298818232</v>
       </c>
       <c r="G125" t="s">
         <v>14</v>
@@ -13041,7 +13095,7 @@
       </c>
       <c r="F126" s="4">
         <f t="shared" si="1"/>
-        <v>3.6776923076923076</v>
+        <v>367.76923076923077</v>
       </c>
       <c r="G126" t="s">
         <v>20</v>
@@ -13089,7 +13143,7 @@
       </c>
       <c r="F127" s="4">
         <f t="shared" si="1"/>
-        <v>1.5990566037735849</v>
+        <v>159.90566037735849</v>
       </c>
       <c r="G127" t="s">
         <v>20</v>
@@ -13137,7 +13191,7 @@
       </c>
       <c r="F128" s="4">
         <f t="shared" si="1"/>
-        <v>0.38633185349611543</v>
+        <v>38.633185349611544</v>
       </c>
       <c r="G128" t="s">
         <v>14</v>
@@ -13185,7 +13239,7 @@
       </c>
       <c r="F129" s="4">
         <f t="shared" si="1"/>
-        <v>0.51421511627906979</v>
+        <v>51.42151162790698</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
@@ -13233,7 +13287,7 @@
       </c>
       <c r="F130" s="4">
         <f t="shared" si="1"/>
-        <v>0.60334277620396604</v>
+        <v>60.334277620396605</v>
       </c>
       <c r="G130" t="s">
         <v>74</v>
@@ -13280,8 +13334,8 @@
         <v>4756</v>
       </c>
       <c r="F131" s="4">
-        <f t="shared" ref="F131:F194" si="2">E131/D131</f>
-        <v>3.2026936026936029E-2</v>
+        <f t="shared" ref="F131:F194" si="2">E131/D131*100</f>
+        <v>3.202693602693603</v>
       </c>
       <c r="G131" t="s">
         <v>74</v>
@@ -13329,7 +13383,7 @@
       </c>
       <c r="F132" s="4">
         <f t="shared" si="2"/>
-        <v>1.5546875</v>
+        <v>155.46875</v>
       </c>
       <c r="G132" t="s">
         <v>20</v>
@@ -13377,7 +13431,7 @@
       </c>
       <c r="F133" s="4">
         <f t="shared" si="2"/>
-        <v>1.0085974499089254</v>
+        <v>100.85974499089254</v>
       </c>
       <c r="G133" t="s">
         <v>20</v>
@@ -13425,7 +13479,7 @@
       </c>
       <c r="F134" s="4">
         <f t="shared" si="2"/>
-        <v>1.1618181818181819</v>
+        <v>116.18181818181819</v>
       </c>
       <c r="G134" t="s">
         <v>20</v>
@@ -13473,7 +13527,7 @@
       </c>
       <c r="F135" s="4">
         <f t="shared" si="2"/>
-        <v>3.1077777777777778</v>
+        <v>310.77777777777777</v>
       </c>
       <c r="G135" t="s">
         <v>20</v>
@@ -13521,7 +13575,7 @@
       </c>
       <c r="F136" s="4">
         <f t="shared" si="2"/>
-        <v>0.89736683417085428</v>
+        <v>89.73668341708543</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
@@ -13569,7 +13623,7 @@
       </c>
       <c r="F137" s="4">
         <f t="shared" si="2"/>
-        <v>0.71272727272727276</v>
+        <v>71.27272727272728</v>
       </c>
       <c r="G137" t="s">
         <v>14</v>
@@ -13617,7 +13671,7 @@
       </c>
       <c r="F138" s="4">
         <f t="shared" si="2"/>
-        <v>3.2862318840579711E-2</v>
+        <v>3.2862318840579712</v>
       </c>
       <c r="G138" t="s">
         <v>74</v>
@@ -13665,7 +13719,7 @@
       </c>
       <c r="F139" s="4">
         <f t="shared" si="2"/>
-        <v>2.617777777777778</v>
+        <v>261.77777777777777</v>
       </c>
       <c r="G139" t="s">
         <v>20</v>
@@ -13713,7 +13767,7 @@
       </c>
       <c r="F140" s="4">
         <f t="shared" si="2"/>
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="G140" t="s">
         <v>14</v>
@@ -13761,7 +13815,7 @@
       </c>
       <c r="F141" s="4">
         <f t="shared" si="2"/>
-        <v>0.20896851248642778</v>
+        <v>20.896851248642779</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
@@ -13809,7 +13863,7 @@
       </c>
       <c r="F142" s="4">
         <f t="shared" si="2"/>
-        <v>2.2316363636363636</v>
+        <v>223.16363636363636</v>
       </c>
       <c r="G142" t="s">
         <v>20</v>
@@ -13857,7 +13911,7 @@
       </c>
       <c r="F143" s="4">
         <f t="shared" si="2"/>
-        <v>1.0159097978227061</v>
+        <v>101.59097978227061</v>
       </c>
       <c r="G143" t="s">
         <v>20</v>
@@ -13905,7 +13959,7 @@
       </c>
       <c r="F144" s="4">
         <f t="shared" si="2"/>
-        <v>2.3003999999999998</v>
+        <v>230.03999999999996</v>
       </c>
       <c r="G144" t="s">
         <v>20</v>
@@ -13953,7 +14007,7 @@
       </c>
       <c r="F145" s="4">
         <f t="shared" si="2"/>
-        <v>1.355925925925926</v>
+        <v>135.59259259259261</v>
       </c>
       <c r="G145" t="s">
         <v>20</v>
@@ -14001,7 +14055,7 @@
       </c>
       <c r="F146" s="4">
         <f t="shared" si="2"/>
-        <v>1.2909999999999999</v>
+        <v>129.1</v>
       </c>
       <c r="G146" t="s">
         <v>20</v>
@@ -14049,7 +14103,7 @@
       </c>
       <c r="F147" s="4">
         <f t="shared" si="2"/>
-        <v>2.3651200000000001</v>
+        <v>236.512</v>
       </c>
       <c r="G147" t="s">
         <v>20</v>
@@ -14097,7 +14151,7 @@
       </c>
       <c r="F148" s="4">
         <f t="shared" si="2"/>
-        <v>0.17249999999999999</v>
+        <v>17.25</v>
       </c>
       <c r="G148" t="s">
         <v>74</v>
@@ -14145,7 +14199,7 @@
       </c>
       <c r="F149" s="4">
         <f t="shared" si="2"/>
-        <v>1.1249397590361445</v>
+        <v>112.49397590361446</v>
       </c>
       <c r="G149" t="s">
         <v>20</v>
@@ -14193,7 +14247,7 @@
       </c>
       <c r="F150" s="4">
         <f t="shared" si="2"/>
-        <v>1.2102150537634409</v>
+        <v>121.02150537634408</v>
       </c>
       <c r="G150" t="s">
         <v>20</v>
@@ -14241,7 +14295,7 @@
       </c>
       <c r="F151" s="4">
         <f t="shared" si="2"/>
-        <v>2.1987096774193549</v>
+        <v>219.87096774193549</v>
       </c>
       <c r="G151" t="s">
         <v>20</v>
@@ -14289,7 +14343,7 @@
       </c>
       <c r="F152" s="4">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G152" t="s">
         <v>14</v>
@@ -14337,7 +14391,7 @@
       </c>
       <c r="F153" s="4">
         <f t="shared" si="2"/>
-        <v>0.64166909620991253</v>
+        <v>64.166909620991248</v>
       </c>
       <c r="G153" t="s">
         <v>14</v>
@@ -14385,7 +14439,7 @@
       </c>
       <c r="F154" s="4">
         <f t="shared" si="2"/>
-        <v>4.2306746987951804</v>
+        <v>423.06746987951806</v>
       </c>
       <c r="G154" t="s">
         <v>20</v>
@@ -14433,7 +14487,7 @@
       </c>
       <c r="F155" s="4">
         <f t="shared" si="2"/>
-        <v>0.92984160506863778</v>
+        <v>92.984160506863773</v>
       </c>
       <c r="G155" t="s">
         <v>14</v>
@@ -14481,7 +14535,7 @@
       </c>
       <c r="F156" s="4">
         <f t="shared" si="2"/>
-        <v>0.58756567425569173</v>
+        <v>58.756567425569173</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
@@ -14529,7 +14583,7 @@
       </c>
       <c r="F157" s="4">
         <f t="shared" si="2"/>
-        <v>0.65022222222222226</v>
+        <v>65.022222222222226</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
@@ -14577,7 +14631,7 @@
       </c>
       <c r="F158" s="4">
         <f t="shared" si="2"/>
-        <v>0.73939560439560437</v>
+        <v>73.939560439560438</v>
       </c>
       <c r="G158" t="s">
         <v>74</v>
@@ -14625,7 +14679,7 @@
       </c>
       <c r="F159" s="4">
         <f t="shared" si="2"/>
-        <v>0.52666666666666662</v>
+        <v>52.666666666666664</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
@@ -14673,7 +14727,7 @@
       </c>
       <c r="F160" s="4">
         <f t="shared" si="2"/>
-        <v>2.2095238095238097</v>
+        <v>220.95238095238096</v>
       </c>
       <c r="G160" t="s">
         <v>20</v>
@@ -14721,7 +14775,7 @@
       </c>
       <c r="F161" s="4">
         <f t="shared" si="2"/>
-        <v>1.0001150627615063</v>
+        <v>100.01150627615063</v>
       </c>
       <c r="G161" t="s">
         <v>20</v>
@@ -14769,7 +14823,7 @@
       </c>
       <c r="F162" s="4">
         <f t="shared" si="2"/>
-        <v>1.6231249999999999</v>
+        <v>162.3125</v>
       </c>
       <c r="G162" t="s">
         <v>20</v>
@@ -14817,7 +14871,7 @@
       </c>
       <c r="F163" s="4">
         <f t="shared" si="2"/>
-        <v>0.78181818181818186</v>
+        <v>78.181818181818187</v>
       </c>
       <c r="G163" t="s">
         <v>14</v>
@@ -14865,7 +14919,7 @@
       </c>
       <c r="F164" s="4">
         <f t="shared" si="2"/>
-        <v>1.4973770491803278</v>
+        <v>149.73770491803279</v>
       </c>
       <c r="G164" t="s">
         <v>20</v>
@@ -14913,7 +14967,7 @@
       </c>
       <c r="F165" s="4">
         <f t="shared" si="2"/>
-        <v>2.5325714285714285</v>
+        <v>253.25714285714284</v>
       </c>
       <c r="G165" t="s">
         <v>20</v>
@@ -14961,7 +15015,7 @@
       </c>
       <c r="F166" s="4">
         <f t="shared" si="2"/>
-        <v>1.0016943521594683</v>
+        <v>100.16943521594683</v>
       </c>
       <c r="G166" t="s">
         <v>20</v>
@@ -15009,7 +15063,7 @@
       </c>
       <c r="F167" s="4">
         <f t="shared" si="2"/>
-        <v>1.2199004424778761</v>
+        <v>121.99004424778761</v>
       </c>
       <c r="G167" t="s">
         <v>20</v>
@@ -15057,7 +15111,7 @@
       </c>
       <c r="F168" s="4">
         <f t="shared" si="2"/>
-        <v>1.3713265306122449</v>
+        <v>137.13265306122449</v>
       </c>
       <c r="G168" t="s">
         <v>20</v>
@@ -15105,7 +15159,7 @@
       </c>
       <c r="F169" s="4">
         <f t="shared" si="2"/>
-        <v>4.155384615384615</v>
+        <v>415.53846153846149</v>
       </c>
       <c r="G169" t="s">
         <v>20</v>
@@ -15153,7 +15207,7 @@
       </c>
       <c r="F170" s="4">
         <f t="shared" si="2"/>
-        <v>0.3130913348946136</v>
+        <v>31.30913348946136</v>
       </c>
       <c r="G170" t="s">
         <v>14</v>
@@ -15201,7 +15255,7 @@
       </c>
       <c r="F171" s="4">
         <f t="shared" si="2"/>
-        <v>4.240815450643777</v>
+        <v>424.08154506437768</v>
       </c>
       <c r="G171" t="s">
         <v>20</v>
@@ -15249,7 +15303,7 @@
       </c>
       <c r="F172" s="4">
         <f t="shared" si="2"/>
-        <v>2.9388623072833599E-2</v>
+        <v>2.93886230728336</v>
       </c>
       <c r="G172" t="s">
         <v>14</v>
@@ -15297,7 +15351,7 @@
       </c>
       <c r="F173" s="4">
         <f t="shared" si="2"/>
-        <v>0.1063265306122449</v>
+        <v>10.63265306122449</v>
       </c>
       <c r="G173" t="s">
         <v>14</v>
@@ -15345,7 +15399,7 @@
       </c>
       <c r="F174" s="4">
         <f t="shared" si="2"/>
-        <v>0.82874999999999999</v>
+        <v>82.875</v>
       </c>
       <c r="G174" t="s">
         <v>14</v>
@@ -15393,7 +15447,7 @@
       </c>
       <c r="F175" s="4">
         <f t="shared" si="2"/>
-        <v>1.6301447776628748</v>
+        <v>163.01447776628748</v>
       </c>
       <c r="G175" t="s">
         <v>20</v>
@@ -15441,7 +15495,7 @@
       </c>
       <c r="F176" s="4">
         <f t="shared" si="2"/>
-        <v>8.9466666666666672</v>
+        <v>894.66666666666674</v>
       </c>
       <c r="G176" t="s">
         <v>20</v>
@@ -15489,7 +15543,7 @@
       </c>
       <c r="F177" s="4">
         <f t="shared" si="2"/>
-        <v>0.26191501103752757</v>
+        <v>26.191501103752756</v>
       </c>
       <c r="G177" t="s">
         <v>14</v>
@@ -15537,7 +15591,7 @@
       </c>
       <c r="F178" s="4">
         <f t="shared" si="2"/>
-        <v>0.74834782608695649</v>
+        <v>74.834782608695647</v>
       </c>
       <c r="G178" t="s">
         <v>14</v>
@@ -15585,7 +15639,7 @@
       </c>
       <c r="F179" s="4">
         <f t="shared" si="2"/>
-        <v>4.1647680412371137</v>
+        <v>416.47680412371136</v>
       </c>
       <c r="G179" t="s">
         <v>20</v>
@@ -15633,7 +15687,7 @@
       </c>
       <c r="F180" s="4">
         <f t="shared" si="2"/>
-        <v>0.96208333333333329</v>
+        <v>96.208333333333329</v>
       </c>
       <c r="G180" t="s">
         <v>14</v>
@@ -15681,7 +15735,7 @@
       </c>
       <c r="F181" s="4">
         <f t="shared" si="2"/>
-        <v>3.5771910112359548</v>
+        <v>357.71910112359546</v>
       </c>
       <c r="G181" t="s">
         <v>20</v>
@@ -15729,7 +15783,7 @@
       </c>
       <c r="F182" s="4">
         <f t="shared" si="2"/>
-        <v>3.0845714285714285</v>
+        <v>308.45714285714286</v>
       </c>
       <c r="G182" t="s">
         <v>20</v>
@@ -15777,7 +15831,7 @@
       </c>
       <c r="F183" s="4">
         <f t="shared" si="2"/>
-        <v>0.61802325581395345</v>
+        <v>61.802325581395344</v>
       </c>
       <c r="G183" t="s">
         <v>14</v>
@@ -15825,7 +15879,7 @@
       </c>
       <c r="F184" s="4">
         <f t="shared" si="2"/>
-        <v>7.2232472324723247</v>
+        <v>722.32472324723244</v>
       </c>
       <c r="G184" t="s">
         <v>20</v>
@@ -15873,7 +15927,7 @@
       </c>
       <c r="F185" s="4">
         <f t="shared" si="2"/>
-        <v>0.69117647058823528</v>
+        <v>69.117647058823522</v>
       </c>
       <c r="G185" t="s">
         <v>14</v>
@@ -15921,7 +15975,7 @@
       </c>
       <c r="F186" s="4">
         <f t="shared" si="2"/>
-        <v>2.9305555555555554</v>
+        <v>293.05555555555554</v>
       </c>
       <c r="G186" t="s">
         <v>20</v>
@@ -15969,7 +16023,7 @@
       </c>
       <c r="F187" s="4">
         <f t="shared" si="2"/>
-        <v>0.71799999999999997</v>
+        <v>71.8</v>
       </c>
       <c r="G187" t="s">
         <v>14</v>
@@ -16017,7 +16071,7 @@
       </c>
       <c r="F188" s="4">
         <f t="shared" si="2"/>
-        <v>0.31934684684684683</v>
+        <v>31.934684684684683</v>
       </c>
       <c r="G188" t="s">
         <v>14</v>
@@ -16065,7 +16119,7 @@
       </c>
       <c r="F189" s="4">
         <f t="shared" si="2"/>
-        <v>2.2987375415282392</v>
+        <v>229.87375415282392</v>
       </c>
       <c r="G189" t="s">
         <v>20</v>
@@ -16113,7 +16167,7 @@
       </c>
       <c r="F190" s="4">
         <f t="shared" si="2"/>
-        <v>0.3201219512195122</v>
+        <v>32.012195121951223</v>
       </c>
       <c r="G190" t="s">
         <v>14</v>
@@ -16161,7 +16215,7 @@
       </c>
       <c r="F191" s="4">
         <f t="shared" si="2"/>
-        <v>0.23525352848928385</v>
+        <v>23.525352848928385</v>
       </c>
       <c r="G191" t="s">
         <v>74</v>
@@ -16209,7 +16263,7 @@
       </c>
       <c r="F192" s="4">
         <f t="shared" si="2"/>
-        <v>0.68594594594594593</v>
+        <v>68.594594594594597</v>
       </c>
       <c r="G192" t="s">
         <v>14</v>
@@ -16257,7 +16311,7 @@
       </c>
       <c r="F193" s="4">
         <f t="shared" si="2"/>
-        <v>0.37952380952380954</v>
+        <v>37.952380952380956</v>
       </c>
       <c r="G193" t="s">
         <v>14</v>
@@ -16305,7 +16359,7 @@
       </c>
       <c r="F194" s="4">
         <f t="shared" si="2"/>
-        <v>0.19992957746478873</v>
+        <v>19.992957746478872</v>
       </c>
       <c r="G194" t="s">
         <v>14</v>
@@ -16352,8 +16406,8 @@
         <v>3012</v>
       </c>
       <c r="F195" s="4">
-        <f t="shared" ref="F195:F258" si="3">E195/D195</f>
-        <v>0.45636363636363636</v>
+        <f t="shared" ref="F195:F258" si="3">E195/D195*100</f>
+        <v>45.636363636363633</v>
       </c>
       <c r="G195" t="s">
         <v>14</v>
@@ -16401,7 +16455,7 @@
       </c>
       <c r="F196" s="4">
         <f t="shared" si="3"/>
-        <v>1.227605633802817</v>
+        <v>122.7605633802817</v>
       </c>
       <c r="G196" t="s">
         <v>20</v>
@@ -16449,7 +16503,7 @@
       </c>
       <c r="F197" s="4">
         <f t="shared" si="3"/>
-        <v>3.61753164556962</v>
+        <v>361.75316455696202</v>
       </c>
       <c r="G197" t="s">
         <v>20</v>
@@ -16497,7 +16551,7 @@
       </c>
       <c r="F198" s="4">
         <f t="shared" si="3"/>
-        <v>0.63146341463414635</v>
+        <v>63.146341463414636</v>
       </c>
       <c r="G198" t="s">
         <v>14</v>
@@ -16545,7 +16599,7 @@
       </c>
       <c r="F199" s="4">
         <f t="shared" si="3"/>
-        <v>2.9820475319926874</v>
+        <v>298.20475319926874</v>
       </c>
       <c r="G199" t="s">
         <v>20</v>
@@ -16593,7 +16647,7 @@
       </c>
       <c r="F200" s="4">
         <f t="shared" si="3"/>
-        <v>9.5585443037974685E-2</v>
+        <v>9.5585443037974684</v>
       </c>
       <c r="G200" t="s">
         <v>14</v>
@@ -16641,7 +16695,7 @@
       </c>
       <c r="F201" s="4">
         <f t="shared" si="3"/>
-        <v>0.5377777777777778</v>
+        <v>53.777777777777779</v>
       </c>
       <c r="G201" t="s">
         <v>14</v>
@@ -16689,7 +16743,7 @@
       </c>
       <c r="F202" s="4">
         <f t="shared" si="3"/>
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="G202" t="s">
         <v>14</v>
@@ -16737,7 +16791,7 @@
       </c>
       <c r="F203" s="4">
         <f t="shared" si="3"/>
-        <v>6.8119047619047617</v>
+        <v>681.19047619047615</v>
       </c>
       <c r="G203" t="s">
         <v>20</v>
@@ -16785,7 +16839,7 @@
       </c>
       <c r="F204" s="4">
         <f t="shared" si="3"/>
-        <v>0.78831325301204824</v>
+        <v>78.831325301204828</v>
       </c>
       <c r="G204" t="s">
         <v>74</v>
@@ -16833,7 +16887,7 @@
       </c>
       <c r="F205" s="4">
         <f t="shared" si="3"/>
-        <v>1.3440792216817234</v>
+        <v>134.40792216817235</v>
       </c>
       <c r="G205" t="s">
         <v>20</v>
@@ -16881,7 +16935,7 @@
       </c>
       <c r="F206" s="4">
         <f t="shared" si="3"/>
-        <v>3.372E-2</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="G206" t="s">
         <v>14</v>
@@ -16929,7 +16983,7 @@
       </c>
       <c r="F207" s="4">
         <f t="shared" si="3"/>
-        <v>4.3184615384615386</v>
+        <v>431.84615384615387</v>
       </c>
       <c r="G207" t="s">
         <v>20</v>
@@ -16977,7 +17031,7 @@
       </c>
       <c r="F208" s="4">
         <f t="shared" si="3"/>
-        <v>0.38844444444444443</v>
+        <v>38.844444444444441</v>
       </c>
       <c r="G208" t="s">
         <v>74</v>
@@ -17025,7 +17079,7 @@
       </c>
       <c r="F209" s="4">
         <f t="shared" si="3"/>
-        <v>4.2569999999999997</v>
+        <v>425.7</v>
       </c>
       <c r="G209" t="s">
         <v>20</v>
@@ -17073,7 +17127,7 @@
       </c>
       <c r="F210" s="4">
         <f t="shared" si="3"/>
-        <v>1.0112239715591671</v>
+        <v>101.12239715591672</v>
       </c>
       <c r="G210" t="s">
         <v>20</v>
@@ -17121,7 +17175,7 @@
       </c>
       <c r="F211" s="4">
         <f t="shared" si="3"/>
-        <v>0.21188688946015424</v>
+        <v>21.188688946015425</v>
       </c>
       <c r="G211" t="s">
         <v>47</v>
@@ -17169,7 +17223,7 @@
       </c>
       <c r="F212" s="4">
         <f t="shared" si="3"/>
-        <v>0.67425531914893622</v>
+        <v>67.425531914893625</v>
       </c>
       <c r="G212" t="s">
         <v>14</v>
@@ -17217,7 +17271,7 @@
       </c>
       <c r="F213" s="4">
         <f t="shared" si="3"/>
-        <v>0.9492337164750958</v>
+        <v>94.923371647509583</v>
       </c>
       <c r="G213" t="s">
         <v>14</v>
@@ -17265,7 +17319,7 @@
       </c>
       <c r="F214" s="4">
         <f t="shared" si="3"/>
-        <v>1.5185185185185186</v>
+        <v>151.85185185185185</v>
       </c>
       <c r="G214" t="s">
         <v>20</v>
@@ -17313,7 +17367,7 @@
       </c>
       <c r="F215" s="4">
         <f t="shared" si="3"/>
-        <v>1.9516382252559727</v>
+        <v>195.16382252559728</v>
       </c>
       <c r="G215" t="s">
         <v>20</v>
@@ -17361,7 +17415,7 @@
       </c>
       <c r="F216" s="4">
         <f t="shared" si="3"/>
-        <v>10.231428571428571</v>
+        <v>1023.1428571428571</v>
       </c>
       <c r="G216" t="s">
         <v>20</v>
@@ -17409,7 +17463,7 @@
       </c>
       <c r="F217" s="4">
         <f t="shared" si="3"/>
-        <v>3.8418367346938778E-2</v>
+        <v>3.841836734693878</v>
       </c>
       <c r="G217" t="s">
         <v>14</v>
@@ -17457,7 +17511,7 @@
       </c>
       <c r="F218" s="4">
         <f t="shared" si="3"/>
-        <v>1.5507066557107643</v>
+        <v>155.07066557107643</v>
       </c>
       <c r="G218" t="s">
         <v>20</v>
@@ -17505,7 +17559,7 @@
       </c>
       <c r="F219" s="4">
         <f t="shared" si="3"/>
-        <v>0.44753477588871715</v>
+        <v>44.753477588871718</v>
       </c>
       <c r="G219" t="s">
         <v>14</v>
@@ -17553,7 +17607,7 @@
       </c>
       <c r="F220" s="4">
         <f t="shared" si="3"/>
-        <v>2.1594736842105262</v>
+        <v>215.94736842105263</v>
       </c>
       <c r="G220" t="s">
         <v>20</v>
@@ -17601,7 +17655,7 @@
       </c>
       <c r="F221" s="4">
         <f t="shared" si="3"/>
-        <v>3.3212709832134291</v>
+        <v>332.12709832134288</v>
       </c>
       <c r="G221" t="s">
         <v>20</v>
@@ -17649,7 +17703,7 @@
       </c>
       <c r="F222" s="4">
         <f t="shared" si="3"/>
-        <v>8.4430379746835441E-2</v>
+        <v>8.4430379746835449</v>
       </c>
       <c r="G222" t="s">
         <v>14</v>
@@ -17697,7 +17751,7 @@
       </c>
       <c r="F223" s="4">
         <f t="shared" si="3"/>
-        <v>0.9862551440329218</v>
+        <v>98.625514403292186</v>
       </c>
       <c r="G223" t="s">
         <v>14</v>
@@ -17745,7 +17799,7 @@
       </c>
       <c r="F224" s="4">
         <f t="shared" si="3"/>
-        <v>1.3797916666666667</v>
+        <v>137.97916666666669</v>
       </c>
       <c r="G224" t="s">
         <v>20</v>
@@ -17793,7 +17847,7 @@
       </c>
       <c r="F225" s="4">
         <f t="shared" si="3"/>
-        <v>0.93810996563573879</v>
+        <v>93.81099656357388</v>
       </c>
       <c r="G225" t="s">
         <v>14</v>
@@ -17841,7 +17895,7 @@
       </c>
       <c r="F226" s="4">
         <f t="shared" si="3"/>
-        <v>4.0363930885529156</v>
+        <v>403.63930885529157</v>
       </c>
       <c r="G226" t="s">
         <v>20</v>
@@ -17889,7 +17943,7 @@
       </c>
       <c r="F227" s="4">
         <f t="shared" si="3"/>
-        <v>2.6017404129793511</v>
+        <v>260.1740412979351</v>
       </c>
       <c r="G227" t="s">
         <v>20</v>
@@ -17937,7 +17991,7 @@
       </c>
       <c r="F228" s="4">
         <f t="shared" si="3"/>
-        <v>3.6663333333333332</v>
+        <v>366.63333333333333</v>
       </c>
       <c r="G228" t="s">
         <v>20</v>
@@ -17985,7 +18039,7 @@
       </c>
       <c r="F229" s="4">
         <f t="shared" si="3"/>
-        <v>1.687208538587849</v>
+        <v>168.72085385878489</v>
       </c>
       <c r="G229" t="s">
         <v>20</v>
@@ -18033,7 +18087,7 @@
       </c>
       <c r="F230" s="4">
         <f t="shared" si="3"/>
-        <v>1.1990717911530093</v>
+        <v>119.90717911530093</v>
       </c>
       <c r="G230" t="s">
         <v>20</v>
@@ -18081,7 +18135,7 @@
       </c>
       <c r="F231" s="4">
         <f t="shared" si="3"/>
-        <v>1.936892523364486</v>
+        <v>193.68925233644859</v>
       </c>
       <c r="G231" t="s">
         <v>20</v>
@@ -18129,7 +18183,7 @@
       </c>
       <c r="F232" s="4">
         <f t="shared" si="3"/>
-        <v>4.2016666666666671</v>
+        <v>420.16666666666669</v>
       </c>
       <c r="G232" t="s">
         <v>20</v>
@@ -18177,7 +18231,7 @@
       </c>
       <c r="F233" s="4">
         <f t="shared" si="3"/>
-        <v>0.76708333333333334</v>
+        <v>76.708333333333329</v>
       </c>
       <c r="G233" t="s">
         <v>74</v>
@@ -18225,7 +18279,7 @@
       </c>
       <c r="F234" s="4">
         <f t="shared" si="3"/>
-        <v>1.7126470588235294</v>
+        <v>171.26470588235293</v>
       </c>
       <c r="G234" t="s">
         <v>20</v>
@@ -18273,7 +18327,7 @@
       </c>
       <c r="F235" s="4">
         <f t="shared" si="3"/>
-        <v>1.5789473684210527</v>
+        <v>157.89473684210526</v>
       </c>
       <c r="G235" t="s">
         <v>20</v>
@@ -18321,7 +18375,7 @@
       </c>
       <c r="F236" s="4">
         <f t="shared" si="3"/>
-        <v>1.0908</v>
+        <v>109.08</v>
       </c>
       <c r="G236" t="s">
         <v>20</v>
@@ -18369,7 +18423,7 @@
       </c>
       <c r="F237" s="4">
         <f t="shared" si="3"/>
-        <v>0.41732558139534881</v>
+        <v>41.732558139534881</v>
       </c>
       <c r="G237" t="s">
         <v>14</v>
@@ -18417,7 +18471,7 @@
       </c>
       <c r="F238" s="4">
         <f t="shared" si="3"/>
-        <v>0.10944303797468355</v>
+        <v>10.944303797468354</v>
       </c>
       <c r="G238" t="s">
         <v>14</v>
@@ -18465,7 +18519,7 @@
       </c>
       <c r="F239" s="4">
         <f t="shared" si="3"/>
-        <v>1.593763440860215</v>
+        <v>159.3763440860215</v>
       </c>
       <c r="G239" t="s">
         <v>20</v>
@@ -18513,7 +18567,7 @@
       </c>
       <c r="F240" s="4">
         <f t="shared" si="3"/>
-        <v>4.2241666666666671</v>
+        <v>422.41666666666669</v>
       </c>
       <c r="G240" t="s">
         <v>20</v>
@@ -18561,7 +18615,7 @@
       </c>
       <c r="F241" s="4">
         <f t="shared" si="3"/>
-        <v>0.97718749999999999</v>
+        <v>97.71875</v>
       </c>
       <c r="G241" t="s">
         <v>14</v>
@@ -18609,7 +18663,7 @@
       </c>
       <c r="F242" s="4">
         <f t="shared" si="3"/>
-        <v>4.1878911564625847</v>
+        <v>418.78911564625849</v>
       </c>
       <c r="G242" t="s">
         <v>20</v>
@@ -18657,7 +18711,7 @@
       </c>
       <c r="F243" s="4">
         <f t="shared" si="3"/>
-        <v>1.0191632047477746</v>
+        <v>101.91632047477745</v>
       </c>
       <c r="G243" t="s">
         <v>20</v>
@@ -18705,7 +18759,7 @@
       </c>
       <c r="F244" s="4">
         <f t="shared" si="3"/>
-        <v>1.2772619047619047</v>
+        <v>127.72619047619047</v>
       </c>
       <c r="G244" t="s">
         <v>20</v>
@@ -18753,7 +18807,7 @@
       </c>
       <c r="F245" s="4">
         <f t="shared" si="3"/>
-        <v>4.4521739130434783</v>
+        <v>445.21739130434781</v>
       </c>
       <c r="G245" t="s">
         <v>20</v>
@@ -18801,7 +18855,7 @@
       </c>
       <c r="F246" s="4">
         <f t="shared" si="3"/>
-        <v>5.6971428571428575</v>
+        <v>569.71428571428578</v>
       </c>
       <c r="G246" t="s">
         <v>20</v>
@@ -18849,7 +18903,7 @@
       </c>
       <c r="F247" s="4">
         <f t="shared" si="3"/>
-        <v>5.0934482758620687</v>
+        <v>509.34482758620686</v>
       </c>
       <c r="G247" t="s">
         <v>20</v>
@@ -18897,7 +18951,7 @@
       </c>
       <c r="F248" s="4">
         <f t="shared" si="3"/>
-        <v>3.2553333333333332</v>
+        <v>325.5333333333333</v>
       </c>
       <c r="G248" t="s">
         <v>20</v>
@@ -18945,7 +18999,7 @@
       </c>
       <c r="F249" s="4">
         <f t="shared" si="3"/>
-        <v>9.3261616161616168</v>
+        <v>932.61616161616166</v>
       </c>
       <c r="G249" t="s">
         <v>20</v>
@@ -18993,7 +19047,7 @@
       </c>
       <c r="F250" s="4">
         <f t="shared" si="3"/>
-        <v>2.1133870967741935</v>
+        <v>211.33870967741933</v>
       </c>
       <c r="G250" t="s">
         <v>20</v>
@@ -19041,7 +19095,7 @@
       </c>
       <c r="F251" s="4">
         <f t="shared" si="3"/>
-        <v>2.7332520325203253</v>
+        <v>273.32520325203251</v>
       </c>
       <c r="G251" t="s">
         <v>20</v>
@@ -19089,7 +19143,7 @@
       </c>
       <c r="F252" s="4">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="G252" t="s">
         <v>14</v>
@@ -19137,7 +19191,7 @@
       </c>
       <c r="F253" s="4">
         <f t="shared" si="3"/>
-        <v>0.54084507042253516</v>
+        <v>54.084507042253513</v>
       </c>
       <c r="G253" t="s">
         <v>14</v>
@@ -19185,7 +19239,7 @@
       </c>
       <c r="F254" s="4">
         <f t="shared" si="3"/>
-        <v>6.2629999999999999</v>
+        <v>626.29999999999995</v>
       </c>
       <c r="G254" t="s">
         <v>20</v>
@@ -19233,7 +19287,7 @@
       </c>
       <c r="F255" s="4">
         <f t="shared" si="3"/>
-        <v>0.8902139917695473</v>
+        <v>89.021399176954731</v>
       </c>
       <c r="G255" t="s">
         <v>14</v>
@@ -19281,7 +19335,7 @@
       </c>
       <c r="F256" s="4">
         <f t="shared" si="3"/>
-        <v>1.8489130434782608</v>
+        <v>184.89130434782609</v>
       </c>
       <c r="G256" t="s">
         <v>20</v>
@@ -19329,7 +19383,7 @@
       </c>
       <c r="F257" s="4">
         <f t="shared" si="3"/>
-        <v>1.2016770186335404</v>
+        <v>120.16770186335404</v>
       </c>
       <c r="G257" t="s">
         <v>20</v>
@@ -19377,7 +19431,7 @@
       </c>
       <c r="F258" s="4">
         <f t="shared" si="3"/>
-        <v>0.23390243902439026</v>
+        <v>23.390243902439025</v>
       </c>
       <c r="G258" t="s">
         <v>14</v>
@@ -19424,8 +19478,8 @@
         <v>8322</v>
       </c>
       <c r="F259" s="4">
-        <f t="shared" ref="F259:F322" si="4">E259/D259</f>
-        <v>1.46</v>
+        <f t="shared" ref="F259:F322" si="4">E259/D259*100</f>
+        <v>146</v>
       </c>
       <c r="G259" t="s">
         <v>20</v>
@@ -19473,7 +19527,7 @@
       </c>
       <c r="F260" s="4">
         <f t="shared" si="4"/>
-        <v>2.6848000000000001</v>
+        <v>268.48</v>
       </c>
       <c r="G260" t="s">
         <v>20</v>
@@ -19521,7 +19575,7 @@
       </c>
       <c r="F261" s="4">
         <f t="shared" si="4"/>
-        <v>5.9749999999999996</v>
+        <v>597.5</v>
       </c>
       <c r="G261" t="s">
         <v>20</v>
@@ -19569,7 +19623,7 @@
       </c>
       <c r="F262" s="4">
         <f t="shared" si="4"/>
-        <v>1.5769841269841269</v>
+        <v>157.69841269841268</v>
       </c>
       <c r="G262" t="s">
         <v>20</v>
@@ -19617,7 +19671,7 @@
       </c>
       <c r="F263" s="4">
         <f t="shared" si="4"/>
-        <v>0.31201660735468567</v>
+        <v>31.201660735468568</v>
       </c>
       <c r="G263" t="s">
         <v>14</v>
@@ -19665,7 +19719,7 @@
       </c>
       <c r="F264" s="4">
         <f t="shared" si="4"/>
-        <v>3.1341176470588237</v>
+        <v>313.41176470588238</v>
       </c>
       <c r="G264" t="s">
         <v>20</v>
@@ -19713,7 +19767,7 @@
       </c>
       <c r="F265" s="4">
         <f t="shared" si="4"/>
-        <v>3.7089655172413791</v>
+        <v>370.89655172413791</v>
       </c>
       <c r="G265" t="s">
         <v>20</v>
@@ -19761,7 +19815,7 @@
       </c>
       <c r="F266" s="4">
         <f t="shared" si="4"/>
-        <v>3.6266447368421053</v>
+        <v>362.66447368421052</v>
       </c>
       <c r="G266" t="s">
         <v>20</v>
@@ -19809,7 +19863,7 @@
       </c>
       <c r="F267" s="4">
         <f t="shared" si="4"/>
-        <v>1.2308163265306122</v>
+        <v>123.08163265306122</v>
       </c>
       <c r="G267" t="s">
         <v>20</v>
@@ -19857,7 +19911,7 @@
       </c>
       <c r="F268" s="4">
         <f t="shared" si="4"/>
-        <v>0.76766756032171579</v>
+        <v>76.766756032171585</v>
       </c>
       <c r="G268" t="s">
         <v>14</v>
@@ -19905,7 +19959,7 @@
       </c>
       <c r="F269" s="4">
         <f t="shared" si="4"/>
-        <v>2.3362012987012988</v>
+        <v>233.62012987012989</v>
       </c>
       <c r="G269" t="s">
         <v>20</v>
@@ -19953,7 +20007,7 @@
       </c>
       <c r="F270" s="4">
         <f t="shared" si="4"/>
-        <v>1.8053333333333332</v>
+        <v>180.53333333333333</v>
       </c>
       <c r="G270" t="s">
         <v>20</v>
@@ -20001,7 +20055,7 @@
       </c>
       <c r="F271" s="4">
         <f t="shared" si="4"/>
-        <v>2.5262857142857142</v>
+        <v>252.62857142857143</v>
       </c>
       <c r="G271" t="s">
         <v>20</v>
@@ -20049,7 +20103,7 @@
       </c>
       <c r="F272" s="4">
         <f t="shared" si="4"/>
-        <v>0.27176538240368026</v>
+        <v>27.176538240368025</v>
       </c>
       <c r="G272" t="s">
         <v>74</v>
@@ -20097,7 +20151,7 @@
       </c>
       <c r="F273" s="4">
         <f t="shared" si="4"/>
-        <v>1.2706571242680547E-2</v>
+        <v>1.2706571242680547</v>
       </c>
       <c r="G273" t="s">
         <v>47</v>
@@ -20145,7 +20199,7 @@
       </c>
       <c r="F274" s="4">
         <f t="shared" si="4"/>
-        <v>3.0400978473581213</v>
+        <v>304.0097847358121</v>
       </c>
       <c r="G274" t="s">
         <v>20</v>
@@ -20193,7 +20247,7 @@
       </c>
       <c r="F275" s="4">
         <f t="shared" si="4"/>
-        <v>1.3723076923076922</v>
+        <v>137.23076923076923</v>
       </c>
       <c r="G275" t="s">
         <v>20</v>
@@ -20241,7 +20295,7 @@
       </c>
       <c r="F276" s="4">
         <f t="shared" si="4"/>
-        <v>0.32208333333333333</v>
+        <v>32.208333333333336</v>
       </c>
       <c r="G276" t="s">
         <v>14</v>
@@ -20289,7 +20343,7 @@
       </c>
       <c r="F277" s="4">
         <f t="shared" si="4"/>
-        <v>2.4151282051282053</v>
+        <v>241.51282051282053</v>
       </c>
       <c r="G277" t="s">
         <v>20</v>
@@ -20337,7 +20391,7 @@
       </c>
       <c r="F278" s="4">
         <f t="shared" si="4"/>
-        <v>0.96799999999999997</v>
+        <v>96.8</v>
       </c>
       <c r="G278" t="s">
         <v>14</v>
@@ -20385,7 +20439,7 @@
       </c>
       <c r="F279" s="4">
         <f t="shared" si="4"/>
-        <v>10.664285714285715</v>
+        <v>1066.4285714285716</v>
       </c>
       <c r="G279" t="s">
         <v>20</v>
@@ -20433,7 +20487,7 @@
       </c>
       <c r="F280" s="4">
         <f t="shared" si="4"/>
-        <v>3.2588888888888889</v>
+        <v>325.88888888888891</v>
       </c>
       <c r="G280" t="s">
         <v>20</v>
@@ -20481,7 +20535,7 @@
       </c>
       <c r="F281" s="4">
         <f t="shared" si="4"/>
-        <v>1.7070000000000001</v>
+        <v>170.70000000000002</v>
       </c>
       <c r="G281" t="s">
         <v>20</v>
@@ -20529,7 +20583,7 @@
       </c>
       <c r="F282" s="4">
         <f t="shared" si="4"/>
-        <v>5.8144</v>
+        <v>581.44000000000005</v>
       </c>
       <c r="G282" t="s">
         <v>20</v>
@@ -20577,7 +20631,7 @@
       </c>
       <c r="F283" s="4">
         <f t="shared" si="4"/>
-        <v>0.91520972644376897</v>
+        <v>91.520972644376897</v>
       </c>
       <c r="G283" t="s">
         <v>14</v>
@@ -20625,7 +20679,7 @@
       </c>
       <c r="F284" s="4">
         <f t="shared" si="4"/>
-        <v>1.0804761904761904</v>
+        <v>108.04761904761904</v>
       </c>
       <c r="G284" t="s">
         <v>20</v>
@@ -20673,7 +20727,7 @@
       </c>
       <c r="F285" s="4">
         <f t="shared" si="4"/>
-        <v>0.18728395061728395</v>
+        <v>18.728395061728396</v>
       </c>
       <c r="G285" t="s">
         <v>14</v>
@@ -20721,7 +20775,7 @@
       </c>
       <c r="F286" s="4">
         <f t="shared" si="4"/>
-        <v>0.83193877551020412</v>
+        <v>83.193877551020407</v>
       </c>
       <c r="G286" t="s">
         <v>14</v>
@@ -20769,7 +20823,7 @@
       </c>
       <c r="F287" s="4">
         <f t="shared" si="4"/>
-        <v>7.0633333333333335</v>
+        <v>706.33333333333337</v>
       </c>
       <c r="G287" t="s">
         <v>20</v>
@@ -20817,7 +20871,7 @@
       </c>
       <c r="F288" s="4">
         <f t="shared" si="4"/>
-        <v>0.17446030330062445</v>
+        <v>17.446030330062445</v>
       </c>
       <c r="G288" t="s">
         <v>74</v>
@@ -20865,7 +20919,7 @@
       </c>
       <c r="F289" s="4">
         <f t="shared" si="4"/>
-        <v>2.0973015873015872</v>
+        <v>209.73015873015873</v>
       </c>
       <c r="G289" t="s">
         <v>20</v>
@@ -20913,7 +20967,7 @@
       </c>
       <c r="F290" s="4">
         <f t="shared" si="4"/>
-        <v>0.97785714285714287</v>
+        <v>97.785714285714292</v>
       </c>
       <c r="G290" t="s">
         <v>14</v>
@@ -20961,7 +21015,7 @@
       </c>
       <c r="F291" s="4">
         <f t="shared" si="4"/>
-        <v>16.842500000000001</v>
+        <v>1684.25</v>
       </c>
       <c r="G291" t="s">
         <v>20</v>
@@ -21009,7 +21063,7 @@
       </c>
       <c r="F292" s="4">
         <f t="shared" si="4"/>
-        <v>0.54402135231316728</v>
+        <v>54.402135231316727</v>
       </c>
       <c r="G292" t="s">
         <v>14</v>
@@ -21057,7 +21111,7 @@
       </c>
       <c r="F293" s="4">
         <f t="shared" si="4"/>
-        <v>4.5661111111111108</v>
+        <v>456.61111111111109</v>
       </c>
       <c r="G293" t="s">
         <v>20</v>
@@ -21105,7 +21159,7 @@
       </c>
       <c r="F294" s="4">
         <f t="shared" si="4"/>
-        <v>9.8219178082191785E-2</v>
+        <v>9.8219178082191778</v>
       </c>
       <c r="G294" t="s">
         <v>14</v>
@@ -21153,7 +21207,7 @@
       </c>
       <c r="F295" s="4">
         <f t="shared" si="4"/>
-        <v>0.16384615384615384</v>
+        <v>16.384615384615383</v>
       </c>
       <c r="G295" t="s">
         <v>74</v>
@@ -21201,7 +21255,7 @@
       </c>
       <c r="F296" s="4">
         <f t="shared" si="4"/>
-        <v>13.396666666666667</v>
+        <v>1339.6666666666667</v>
       </c>
       <c r="G296" t="s">
         <v>20</v>
@@ -21249,7 +21303,7 @@
       </c>
       <c r="F297" s="4">
         <f t="shared" si="4"/>
-        <v>0.35650077760497667</v>
+        <v>35.650077760497666</v>
       </c>
       <c r="G297" t="s">
         <v>14</v>
@@ -21297,7 +21351,7 @@
       </c>
       <c r="F298" s="4">
         <f t="shared" si="4"/>
-        <v>0.54950819672131146</v>
+        <v>54.950819672131146</v>
       </c>
       <c r="G298" t="s">
         <v>14</v>
@@ -21345,7 +21399,7 @@
       </c>
       <c r="F299" s="4">
         <f t="shared" si="4"/>
-        <v>0.94236111111111109</v>
+        <v>94.236111111111114</v>
       </c>
       <c r="G299" t="s">
         <v>14</v>
@@ -21393,7 +21447,7 @@
       </c>
       <c r="F300" s="4">
         <f t="shared" si="4"/>
-        <v>1.4391428571428571</v>
+        <v>143.91428571428571</v>
       </c>
       <c r="G300" t="s">
         <v>20</v>
@@ -21441,7 +21495,7 @@
       </c>
       <c r="F301" s="4">
         <f t="shared" si="4"/>
-        <v>0.51421052631578945</v>
+        <v>51.421052631578945</v>
       </c>
       <c r="G301" t="s">
         <v>14</v>
@@ -21489,7 +21543,7 @@
       </c>
       <c r="F302" s="4">
         <f t="shared" si="4"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="G302" t="s">
         <v>14</v>
@@ -21537,7 +21591,7 @@
       </c>
       <c r="F303" s="4">
         <f t="shared" si="4"/>
-        <v>13.446666666666667</v>
+        <v>1344.6666666666667</v>
       </c>
       <c r="G303" t="s">
         <v>20</v>
@@ -21585,7 +21639,7 @@
       </c>
       <c r="F304" s="4">
         <f t="shared" si="4"/>
-        <v>0.31844940867279897</v>
+        <v>31.844940867279899</v>
       </c>
       <c r="G304" t="s">
         <v>14</v>
@@ -21633,7 +21687,7 @@
       </c>
       <c r="F305" s="4">
         <f t="shared" si="4"/>
-        <v>0.82617647058823529</v>
+        <v>82.617647058823536</v>
       </c>
       <c r="G305" t="s">
         <v>14</v>
@@ -21681,7 +21735,7 @@
       </c>
       <c r="F306" s="4">
         <f t="shared" si="4"/>
-        <v>5.4614285714285717</v>
+        <v>546.14285714285722</v>
       </c>
       <c r="G306" t="s">
         <v>20</v>
@@ -21729,7 +21783,7 @@
       </c>
       <c r="F307" s="4">
         <f t="shared" si="4"/>
-        <v>2.8621428571428571</v>
+        <v>286.21428571428572</v>
       </c>
       <c r="G307" t="s">
         <v>20</v>
@@ -21777,7 +21831,7 @@
       </c>
       <c r="F308" s="4">
         <f t="shared" si="4"/>
-        <v>7.9076923076923072E-2</v>
+        <v>7.9076923076923071</v>
       </c>
       <c r="G308" t="s">
         <v>14</v>
@@ -21825,7 +21879,7 @@
       </c>
       <c r="F309" s="4">
         <f t="shared" si="4"/>
-        <v>1.3213677811550153</v>
+        <v>132.13677811550153</v>
       </c>
       <c r="G309" t="s">
         <v>20</v>
@@ -21873,7 +21927,7 @@
       </c>
       <c r="F310" s="4">
         <f t="shared" si="4"/>
-        <v>0.74077834179357027</v>
+        <v>74.077834179357026</v>
       </c>
       <c r="G310" t="s">
         <v>14</v>
@@ -21921,7 +21975,7 @@
       </c>
       <c r="F311" s="4">
         <f t="shared" si="4"/>
-        <v>0.75292682926829269</v>
+        <v>75.292682926829272</v>
       </c>
       <c r="G311" t="s">
         <v>74</v>
@@ -21969,7 +22023,7 @@
       </c>
       <c r="F312" s="4">
         <f t="shared" si="4"/>
-        <v>0.20333333333333334</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="G312" t="s">
         <v>14</v>
@@ -22017,7 +22071,7 @@
       </c>
       <c r="F313" s="4">
         <f t="shared" si="4"/>
-        <v>2.0336507936507937</v>
+        <v>203.36507936507937</v>
       </c>
       <c r="G313" t="s">
         <v>20</v>
@@ -22065,7 +22119,7 @@
       </c>
       <c r="F314" s="4">
         <f t="shared" si="4"/>
-        <v>3.1022842639593908</v>
+        <v>310.2284263959391</v>
       </c>
       <c r="G314" t="s">
         <v>20</v>
@@ -22113,7 +22167,7 @@
       </c>
       <c r="F315" s="4">
         <f t="shared" si="4"/>
-        <v>3.9531818181818181</v>
+        <v>395.31818181818181</v>
       </c>
       <c r="G315" t="s">
         <v>20</v>
@@ -22161,7 +22215,7 @@
       </c>
       <c r="F316" s="4">
         <f t="shared" si="4"/>
-        <v>2.9471428571428571</v>
+        <v>294.71428571428572</v>
       </c>
       <c r="G316" t="s">
         <v>20</v>
@@ -22209,7 +22263,7 @@
       </c>
       <c r="F317" s="4">
         <f t="shared" si="4"/>
-        <v>0.33894736842105261</v>
+        <v>33.89473684210526</v>
       </c>
       <c r="G317" t="s">
         <v>14</v>
@@ -22257,7 +22311,7 @@
       </c>
       <c r="F318" s="4">
         <f t="shared" si="4"/>
-        <v>0.66677083333333331</v>
+        <v>66.677083333333329</v>
       </c>
       <c r="G318" t="s">
         <v>14</v>
@@ -22305,7 +22359,7 @@
       </c>
       <c r="F319" s="4">
         <f t="shared" si="4"/>
-        <v>0.19227272727272726</v>
+        <v>19.227272727272727</v>
       </c>
       <c r="G319" t="s">
         <v>14</v>
@@ -22353,7 +22407,7 @@
       </c>
       <c r="F320" s="4">
         <f t="shared" si="4"/>
-        <v>0.15842105263157893</v>
+        <v>15.842105263157894</v>
       </c>
       <c r="G320" t="s">
         <v>14</v>
@@ -22401,7 +22455,7 @@
       </c>
       <c r="F321" s="4">
         <f t="shared" si="4"/>
-        <v>0.38702380952380955</v>
+        <v>38.702380952380956</v>
       </c>
       <c r="G321" t="s">
         <v>74</v>
@@ -22449,7 +22503,7 @@
       </c>
       <c r="F322" s="4">
         <f t="shared" si="4"/>
-        <v>9.5876777251184833E-2</v>
+        <v>9.5876777251184837</v>
       </c>
       <c r="G322" t="s">
         <v>14</v>
@@ -22496,8 +22550,8 @@
         <v>160422</v>
       </c>
       <c r="F323" s="4">
-        <f t="shared" ref="F323:F386" si="5">E323/D323</f>
-        <v>0.94144366197183094</v>
+        <f t="shared" ref="F323:F386" si="5">E323/D323*100</f>
+        <v>94.144366197183089</v>
       </c>
       <c r="G323" t="s">
         <v>14</v>
@@ -22545,7 +22599,7 @@
       </c>
       <c r="F324" s="4">
         <f t="shared" si="5"/>
-        <v>1.6656234096692113</v>
+        <v>166.56234096692114</v>
       </c>
       <c r="G324" t="s">
         <v>20</v>
@@ -22593,7 +22647,7 @@
       </c>
       <c r="F325" s="4">
         <f t="shared" si="5"/>
-        <v>0.24134831460674158</v>
+        <v>24.134831460674157</v>
       </c>
       <c r="G325" t="s">
         <v>14</v>
@@ -22641,7 +22695,7 @@
       </c>
       <c r="F326" s="4">
         <f t="shared" si="5"/>
-        <v>1.6405633802816901</v>
+        <v>164.05633802816902</v>
       </c>
       <c r="G326" t="s">
         <v>20</v>
@@ -22689,7 +22743,7 @@
       </c>
       <c r="F327" s="4">
         <f t="shared" si="5"/>
-        <v>0.90723076923076929</v>
+        <v>90.723076923076931</v>
       </c>
       <c r="G327" t="s">
         <v>14</v>
@@ -22737,7 +22791,7 @@
       </c>
       <c r="F328" s="4">
         <f t="shared" si="5"/>
-        <v>0.46194444444444444</v>
+        <v>46.194444444444443</v>
       </c>
       <c r="G328" t="s">
         <v>14</v>
@@ -22785,7 +22839,7 @@
       </c>
       <c r="F329" s="4">
         <f t="shared" si="5"/>
-        <v>0.38538461538461538</v>
+        <v>38.53846153846154</v>
       </c>
       <c r="G329" t="s">
         <v>14</v>
@@ -22833,7 +22887,7 @@
       </c>
       <c r="F330" s="4">
         <f t="shared" si="5"/>
-        <v>1.3356231003039514</v>
+        <v>133.56231003039514</v>
       </c>
       <c r="G330" t="s">
         <v>20</v>
@@ -22881,7 +22935,7 @@
       </c>
       <c r="F331" s="4">
         <f t="shared" si="5"/>
-        <v>0.22896588486140726</v>
+        <v>22.896588486140725</v>
       </c>
       <c r="G331" t="s">
         <v>47</v>
@@ -22929,7 +22983,7 @@
       </c>
       <c r="F332" s="4">
         <f t="shared" si="5"/>
-        <v>1.8495548961424333</v>
+        <v>184.95548961424333</v>
       </c>
       <c r="G332" t="s">
         <v>20</v>
@@ -22977,7 +23031,7 @@
       </c>
       <c r="F333" s="4">
         <f t="shared" si="5"/>
-        <v>4.4372727272727275</v>
+        <v>443.72727272727275</v>
       </c>
       <c r="G333" t="s">
         <v>20</v>
@@ -23025,7 +23079,7 @@
       </c>
       <c r="F334" s="4">
         <f t="shared" si="5"/>
-        <v>1.999806763285024</v>
+        <v>199.9806763285024</v>
       </c>
       <c r="G334" t="s">
         <v>20</v>
@@ -23073,7 +23127,7 @@
       </c>
       <c r="F335" s="4">
         <f t="shared" si="5"/>
-        <v>1.2395833333333333</v>
+        <v>123.95833333333333</v>
       </c>
       <c r="G335" t="s">
         <v>20</v>
@@ -23121,7 +23175,7 @@
       </c>
       <c r="F336" s="4">
         <f t="shared" si="5"/>
-        <v>1.8661329305135952</v>
+        <v>186.61329305135951</v>
       </c>
       <c r="G336" t="s">
         <v>20</v>
@@ -23169,7 +23223,7 @@
       </c>
       <c r="F337" s="4">
         <f t="shared" si="5"/>
-        <v>1.1428538550057536</v>
+        <v>114.28538550057536</v>
       </c>
       <c r="G337" t="s">
         <v>20</v>
@@ -23217,7 +23271,7 @@
       </c>
       <c r="F338" s="4">
         <f t="shared" si="5"/>
-        <v>0.97032531824611035</v>
+        <v>97.032531824611041</v>
       </c>
       <c r="G338" t="s">
         <v>14</v>
@@ -23265,7 +23319,7 @@
       </c>
       <c r="F339" s="4">
         <f t="shared" si="5"/>
-        <v>1.2281904761904763</v>
+        <v>122.81904761904762</v>
       </c>
       <c r="G339" t="s">
         <v>20</v>
@@ -23313,7 +23367,7 @@
       </c>
       <c r="F340" s="4">
         <f t="shared" si="5"/>
-        <v>1.7914326647564469</v>
+        <v>179.14326647564468</v>
       </c>
       <c r="G340" t="s">
         <v>20</v>
@@ -23361,7 +23415,7 @@
       </c>
       <c r="F341" s="4">
         <f t="shared" si="5"/>
-        <v>0.79951577402787966</v>
+        <v>79.951577402787962</v>
       </c>
       <c r="G341" t="s">
         <v>74</v>
@@ -23409,7 +23463,7 @@
       </c>
       <c r="F342" s="4">
         <f t="shared" si="5"/>
-        <v>0.94242587601078165</v>
+        <v>94.242587601078171</v>
       </c>
       <c r="G342" t="s">
         <v>14</v>
@@ -23457,7 +23511,7 @@
       </c>
       <c r="F343" s="4">
         <f t="shared" si="5"/>
-        <v>0.84669291338582675</v>
+        <v>84.669291338582681</v>
       </c>
       <c r="G343" t="s">
         <v>14</v>
@@ -23505,7 +23559,7 @@
       </c>
       <c r="F344" s="4">
         <f t="shared" si="5"/>
-        <v>0.66521920668058454</v>
+        <v>66.521920668058456</v>
       </c>
       <c r="G344" t="s">
         <v>14</v>
@@ -23553,7 +23607,7 @@
       </c>
       <c r="F345" s="4">
         <f t="shared" si="5"/>
-        <v>0.53922222222222227</v>
+        <v>53.922222222222224</v>
       </c>
       <c r="G345" t="s">
         <v>14</v>
@@ -23601,7 +23655,7 @@
       </c>
       <c r="F346" s="4">
         <f t="shared" si="5"/>
-        <v>0.41983299595141699</v>
+        <v>41.983299595141702</v>
       </c>
       <c r="G346" t="s">
         <v>14</v>
@@ -23649,7 +23703,7 @@
       </c>
       <c r="F347" s="4">
         <f t="shared" si="5"/>
-        <v>0.14694796954314721</v>
+        <v>14.69479695431472</v>
       </c>
       <c r="G347" t="s">
         <v>14</v>
@@ -23697,7 +23751,7 @@
       </c>
       <c r="F348" s="4">
         <f t="shared" si="5"/>
-        <v>0.34475</v>
+        <v>34.475000000000001</v>
       </c>
       <c r="G348" t="s">
         <v>14</v>
@@ -23745,7 +23799,7 @@
       </c>
       <c r="F349" s="4">
         <f t="shared" si="5"/>
-        <v>14.007777777777777</v>
+        <v>1400.7777777777778</v>
       </c>
       <c r="G349" t="s">
         <v>20</v>
@@ -23793,7 +23847,7 @@
       </c>
       <c r="F350" s="4">
         <f t="shared" si="5"/>
-        <v>0.71770351758793971</v>
+        <v>71.770351758793964</v>
       </c>
       <c r="G350" t="s">
         <v>14</v>
@@ -23841,7 +23895,7 @@
       </c>
       <c r="F351" s="4">
         <f t="shared" si="5"/>
-        <v>0.53074115044247783</v>
+        <v>53.074115044247783</v>
       </c>
       <c r="G351" t="s">
         <v>14</v>
@@ -23889,7 +23943,7 @@
       </c>
       <c r="F352" s="4">
         <f t="shared" si="5"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="G352" t="s">
         <v>14</v>
@@ -23937,7 +23991,7 @@
       </c>
       <c r="F353" s="4">
         <f t="shared" si="5"/>
-        <v>1.2770715249662619</v>
+        <v>127.70715249662618</v>
       </c>
       <c r="G353" t="s">
         <v>20</v>
@@ -23985,7 +24039,7 @@
       </c>
       <c r="F354" s="4">
         <f t="shared" si="5"/>
-        <v>0.34892857142857142</v>
+        <v>34.892857142857139</v>
       </c>
       <c r="G354" t="s">
         <v>14</v>
@@ -24033,7 +24087,7 @@
       </c>
       <c r="F355" s="4">
         <f t="shared" si="5"/>
-        <v>4.105982142857143</v>
+        <v>410.59821428571428</v>
       </c>
       <c r="G355" t="s">
         <v>20</v>
@@ -24081,7 +24135,7 @@
       </c>
       <c r="F356" s="4">
         <f t="shared" si="5"/>
-        <v>1.2373770491803278</v>
+        <v>123.73770491803278</v>
       </c>
       <c r="G356" t="s">
         <v>20</v>
@@ -24129,7 +24183,7 @@
       </c>
       <c r="F357" s="4">
         <f t="shared" si="5"/>
-        <v>0.58973684210526311</v>
+        <v>58.973684210526315</v>
       </c>
       <c r="G357" t="s">
         <v>47</v>
@@ -24177,7 +24231,7 @@
       </c>
       <c r="F358" s="4">
         <f t="shared" si="5"/>
-        <v>0.36892473118279567</v>
+        <v>36.892473118279568</v>
       </c>
       <c r="G358" t="s">
         <v>14</v>
@@ -24225,7 +24279,7 @@
       </c>
       <c r="F359" s="4">
         <f t="shared" si="5"/>
-        <v>1.8491304347826087</v>
+        <v>184.91304347826087</v>
       </c>
       <c r="G359" t="s">
         <v>20</v>
@@ -24273,7 +24327,7 @@
       </c>
       <c r="F360" s="4">
         <f t="shared" si="5"/>
-        <v>0.11814432989690722</v>
+        <v>11.814432989690722</v>
       </c>
       <c r="G360" t="s">
         <v>14</v>
@@ -24321,7 +24375,7 @@
       </c>
       <c r="F361" s="4">
         <f t="shared" si="5"/>
-        <v>2.9870000000000001</v>
+        <v>298.7</v>
       </c>
       <c r="G361" t="s">
         <v>20</v>
@@ -24369,7 +24423,7 @@
       </c>
       <c r="F362" s="4">
         <f t="shared" si="5"/>
-        <v>2.2635175879396985</v>
+        <v>226.35175879396985</v>
       </c>
       <c r="G362" t="s">
         <v>20</v>
@@ -24417,7 +24471,7 @@
       </c>
       <c r="F363" s="4">
         <f t="shared" si="5"/>
-        <v>1.7356363636363636</v>
+        <v>173.56363636363636</v>
       </c>
       <c r="G363" t="s">
         <v>20</v>
@@ -24465,7 +24519,7 @@
       </c>
       <c r="F364" s="4">
         <f t="shared" si="5"/>
-        <v>3.7175675675675675</v>
+        <v>371.75675675675677</v>
       </c>
       <c r="G364" t="s">
         <v>20</v>
@@ -24513,7 +24567,7 @@
       </c>
       <c r="F365" s="4">
         <f t="shared" si="5"/>
-        <v>1.601923076923077</v>
+        <v>160.19230769230771</v>
       </c>
       <c r="G365" t="s">
         <v>20</v>
@@ -24561,7 +24615,7 @@
       </c>
       <c r="F366" s="4">
         <f t="shared" si="5"/>
-        <v>16.163333333333334</v>
+        <v>1616.3333333333335</v>
       </c>
       <c r="G366" t="s">
         <v>20</v>
@@ -24609,7 +24663,7 @@
       </c>
       <c r="F367" s="4">
         <f t="shared" si="5"/>
-        <v>7.3343749999999996</v>
+        <v>733.4375</v>
       </c>
       <c r="G367" t="s">
         <v>20</v>
@@ -24657,7 +24711,7 @@
       </c>
       <c r="F368" s="4">
         <f t="shared" si="5"/>
-        <v>5.9211111111111112</v>
+        <v>592.11111111111109</v>
       </c>
       <c r="G368" t="s">
         <v>20</v>
@@ -24705,7 +24759,7 @@
       </c>
       <c r="F369" s="4">
         <f t="shared" si="5"/>
-        <v>0.18888888888888888</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G369" t="s">
         <v>14</v>
@@ -24753,7 +24807,7 @@
       </c>
       <c r="F370" s="4">
         <f t="shared" si="5"/>
-        <v>2.7680769230769231</v>
+        <v>276.80769230769232</v>
       </c>
       <c r="G370" t="s">
         <v>20</v>
@@ -24801,7 +24855,7 @@
       </c>
       <c r="F371" s="4">
         <f t="shared" si="5"/>
-        <v>2.730185185185185</v>
+        <v>273.01851851851848</v>
       </c>
       <c r="G371" t="s">
         <v>20</v>
@@ -24849,7 +24903,7 @@
       </c>
       <c r="F372" s="4">
         <f t="shared" si="5"/>
-        <v>1.593633125556545</v>
+        <v>159.36331255565449</v>
       </c>
       <c r="G372" t="s">
         <v>20</v>
@@ -24897,7 +24951,7 @@
       </c>
       <c r="F373" s="4">
         <f t="shared" si="5"/>
-        <v>0.67869978858350954</v>
+        <v>67.869978858350947</v>
       </c>
       <c r="G373" t="s">
         <v>14</v>
@@ -24945,7 +24999,7 @@
       </c>
       <c r="F374" s="4">
         <f t="shared" si="5"/>
-        <v>15.915555555555555</v>
+        <v>1591.5555555555554</v>
       </c>
       <c r="G374" t="s">
         <v>20</v>
@@ -24993,7 +25047,7 @@
       </c>
       <c r="F375" s="4">
         <f t="shared" si="5"/>
-        <v>7.3018222222222224</v>
+        <v>730.18222222222221</v>
       </c>
       <c r="G375" t="s">
         <v>20</v>
@@ -25041,7 +25095,7 @@
       </c>
       <c r="F376" s="4">
         <f t="shared" si="5"/>
-        <v>0.13185782556750297</v>
+        <v>13.185782556750297</v>
       </c>
       <c r="G376" t="s">
         <v>14</v>
@@ -25089,7 +25143,7 @@
       </c>
       <c r="F377" s="4">
         <f t="shared" si="5"/>
-        <v>0.54777777777777781</v>
+        <v>54.777777777777779</v>
       </c>
       <c r="G377" t="s">
         <v>14</v>
@@ -25137,7 +25191,7 @@
       </c>
       <c r="F378" s="4">
         <f t="shared" si="5"/>
-        <v>3.6102941176470589</v>
+        <v>361.02941176470591</v>
       </c>
       <c r="G378" t="s">
         <v>20</v>
@@ -25185,7 +25239,7 @@
       </c>
       <c r="F379" s="4">
         <f t="shared" si="5"/>
-        <v>0.10257545271629778</v>
+        <v>10.257545271629779</v>
       </c>
       <c r="G379" t="s">
         <v>14</v>
@@ -25233,7 +25287,7 @@
       </c>
       <c r="F380" s="4">
         <f t="shared" si="5"/>
-        <v>0.13962962962962963</v>
+        <v>13.962962962962964</v>
       </c>
       <c r="G380" t="s">
         <v>14</v>
@@ -25281,7 +25335,7 @@
       </c>
       <c r="F381" s="4">
         <f t="shared" si="5"/>
-        <v>0.40444444444444444</v>
+        <v>40.444444444444443</v>
       </c>
       <c r="G381" t="s">
         <v>14</v>
@@ -25329,7 +25383,7 @@
       </c>
       <c r="F382" s="4">
         <f t="shared" si="5"/>
-        <v>1.6032</v>
+        <v>160.32</v>
       </c>
       <c r="G382" t="s">
         <v>20</v>
@@ -25377,7 +25431,7 @@
       </c>
       <c r="F383" s="4">
         <f t="shared" si="5"/>
-        <v>1.8394339622641509</v>
+        <v>183.9433962264151</v>
       </c>
       <c r="G383" t="s">
         <v>20</v>
@@ -25425,7 +25479,7 @@
       </c>
       <c r="F384" s="4">
         <f t="shared" si="5"/>
-        <v>0.63769230769230767</v>
+        <v>63.769230769230766</v>
       </c>
       <c r="G384" t="s">
         <v>14</v>
@@ -25473,7 +25527,7 @@
       </c>
       <c r="F385" s="4">
         <f t="shared" si="5"/>
-        <v>2.2538095238095237</v>
+        <v>225.38095238095238</v>
       </c>
       <c r="G385" t="s">
         <v>20</v>
@@ -25521,7 +25575,7 @@
       </c>
       <c r="F386" s="4">
         <f t="shared" si="5"/>
-        <v>1.7200961538461539</v>
+        <v>172.00961538461539</v>
       </c>
       <c r="G386" t="s">
         <v>20</v>
@@ -25568,8 +25622,8 @@
         <v>56859</v>
       </c>
       <c r="F387" s="4">
-        <f t="shared" ref="F387:F450" si="6">E387/D387</f>
-        <v>1.4616709511568124</v>
+        <f t="shared" ref="F387:F450" si="6">E387/D387*100</f>
+        <v>146.16709511568124</v>
       </c>
       <c r="G387" t="s">
         <v>20</v>
@@ -25617,7 +25671,7 @@
       </c>
       <c r="F388" s="4">
         <f t="shared" si="6"/>
-        <v>0.76423616236162362</v>
+        <v>76.42361623616236</v>
       </c>
       <c r="G388" t="s">
         <v>14</v>
@@ -25665,7 +25719,7 @@
       </c>
       <c r="F389" s="4">
         <f t="shared" si="6"/>
-        <v>0.39261467889908258</v>
+        <v>39.261467889908261</v>
       </c>
       <c r="G389" t="s">
         <v>14</v>
@@ -25713,7 +25767,7 @@
       </c>
       <c r="F390" s="4">
         <f t="shared" si="6"/>
-        <v>0.11270034843205574</v>
+        <v>11.270034843205574</v>
       </c>
       <c r="G390" t="s">
         <v>74</v>
@@ -25761,7 +25815,7 @@
       </c>
       <c r="F391" s="4">
         <f t="shared" si="6"/>
-        <v>1.2211084337349398</v>
+        <v>122.11084337349398</v>
       </c>
       <c r="G391" t="s">
         <v>20</v>
@@ -25809,7 +25863,7 @@
       </c>
       <c r="F392" s="4">
         <f t="shared" si="6"/>
-        <v>1.8654166666666667</v>
+        <v>186.54166666666669</v>
       </c>
       <c r="G392" t="s">
         <v>20</v>
@@ -25857,7 +25911,7 @@
       </c>
       <c r="F393" s="4">
         <f t="shared" si="6"/>
-        <v>7.27317880794702E-2</v>
+        <v>7.2731788079470201</v>
       </c>
       <c r="G393" t="s">
         <v>14</v>
@@ -25905,7 +25959,7 @@
       </c>
       <c r="F394" s="4">
         <f t="shared" si="6"/>
-        <v>0.65642371234207963</v>
+        <v>65.642371234207957</v>
       </c>
       <c r="G394" t="s">
         <v>14</v>
@@ -25953,7 +26007,7 @@
       </c>
       <c r="F395" s="4">
         <f t="shared" si="6"/>
-        <v>2.2896178343949045</v>
+        <v>228.96178343949046</v>
       </c>
       <c r="G395" t="s">
         <v>20</v>
@@ -26001,7 +26055,7 @@
       </c>
       <c r="F396" s="4">
         <f t="shared" si="6"/>
-        <v>4.6937499999999996</v>
+        <v>469.37499999999994</v>
       </c>
       <c r="G396" t="s">
         <v>20</v>
@@ -26049,7 +26103,7 @@
       </c>
       <c r="F397" s="4">
         <f t="shared" si="6"/>
-        <v>1.3011267605633803</v>
+        <v>130.11267605633802</v>
       </c>
       <c r="G397" t="s">
         <v>20</v>
@@ -26097,7 +26151,7 @@
       </c>
       <c r="F398" s="4">
         <f t="shared" si="6"/>
-        <v>1.6705422993492407</v>
+        <v>167.05422993492408</v>
       </c>
       <c r="G398" t="s">
         <v>20</v>
@@ -26145,7 +26199,7 @@
       </c>
       <c r="F399" s="4">
         <f t="shared" si="6"/>
-        <v>1.738641975308642</v>
+        <v>173.8641975308642</v>
       </c>
       <c r="G399" t="s">
         <v>20</v>
@@ -26193,7 +26247,7 @@
       </c>
       <c r="F400" s="4">
         <f t="shared" si="6"/>
-        <v>7.1776470588235295</v>
+        <v>717.76470588235293</v>
       </c>
       <c r="G400" t="s">
         <v>20</v>
@@ -26241,7 +26295,7 @@
       </c>
       <c r="F401" s="4">
         <f t="shared" si="6"/>
-        <v>0.63850976361767731</v>
+        <v>63.850976361767728</v>
       </c>
       <c r="G401" t="s">
         <v>14</v>
@@ -26289,7 +26343,7 @@
       </c>
       <c r="F402" s="4">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="G402" t="s">
         <v>14</v>
@@ -26337,7 +26391,7 @@
       </c>
       <c r="F403" s="4">
         <f t="shared" si="6"/>
-        <v>15.302222222222222</v>
+        <v>1530.2222222222222</v>
       </c>
       <c r="G403" t="s">
         <v>20</v>
@@ -26385,7 +26439,7 @@
       </c>
       <c r="F404" s="4">
         <f t="shared" si="6"/>
-        <v>0.40356164383561643</v>
+        <v>40.356164383561641</v>
       </c>
       <c r="G404" t="s">
         <v>14</v>
@@ -26433,7 +26487,7 @@
       </c>
       <c r="F405" s="4">
         <f t="shared" si="6"/>
-        <v>0.86220633299284988</v>
+        <v>86.220633299284984</v>
       </c>
       <c r="G405" t="s">
         <v>14</v>
@@ -26481,7 +26535,7 @@
       </c>
       <c r="F406" s="4">
         <f t="shared" si="6"/>
-        <v>3.1558486707566464</v>
+        <v>315.58486707566465</v>
       </c>
       <c r="G406" t="s">
         <v>20</v>
@@ -26529,7 +26583,7 @@
       </c>
       <c r="F407" s="4">
         <f t="shared" si="6"/>
-        <v>0.89618243243243245</v>
+        <v>89.618243243243242</v>
       </c>
       <c r="G407" t="s">
         <v>14</v>
@@ -26577,7 +26631,7 @@
       </c>
       <c r="F408" s="4">
         <f t="shared" si="6"/>
-        <v>1.8214503816793892</v>
+        <v>182.14503816793894</v>
       </c>
       <c r="G408" t="s">
         <v>20</v>
@@ -26625,7 +26679,7 @@
       </c>
       <c r="F409" s="4">
         <f t="shared" si="6"/>
-        <v>3.5588235294117645</v>
+        <v>355.88235294117646</v>
       </c>
       <c r="G409" t="s">
         <v>20</v>
@@ -26673,7 +26727,7 @@
       </c>
       <c r="F410" s="4">
         <f t="shared" si="6"/>
-        <v>1.3183695652173912</v>
+        <v>131.83695652173913</v>
       </c>
       <c r="G410" t="s">
         <v>20</v>
@@ -26721,7 +26775,7 @@
       </c>
       <c r="F411" s="4">
         <f t="shared" si="6"/>
-        <v>0.46315634218289087</v>
+        <v>46.315634218289084</v>
       </c>
       <c r="G411" t="s">
         <v>14</v>
@@ -26769,7 +26823,7 @@
       </c>
       <c r="F412" s="4">
         <f t="shared" si="6"/>
-        <v>0.36132726089785294</v>
+        <v>36.132726089785294</v>
       </c>
       <c r="G412" t="s">
         <v>47</v>
@@ -26817,7 +26871,7 @@
       </c>
       <c r="F413" s="4">
         <f t="shared" si="6"/>
-        <v>1.0462820512820512</v>
+        <v>104.62820512820512</v>
       </c>
       <c r="G413" t="s">
         <v>20</v>
@@ -26865,7 +26919,7 @@
       </c>
       <c r="F414" s="4">
         <f t="shared" si="6"/>
-        <v>6.6885714285714286</v>
+        <v>668.85714285714289</v>
       </c>
       <c r="G414" t="s">
         <v>20</v>
@@ -26913,7 +26967,7 @@
       </c>
       <c r="F415" s="4">
         <f t="shared" si="6"/>
-        <v>0.62072823218997364</v>
+        <v>62.072823218997364</v>
       </c>
       <c r="G415" t="s">
         <v>47</v>
@@ -26961,7 +27015,7 @@
       </c>
       <c r="F416" s="4">
         <f t="shared" si="6"/>
-        <v>0.84699787460148779</v>
+        <v>84.699787460148784</v>
       </c>
       <c r="G416" t="s">
         <v>14</v>
@@ -27009,7 +27063,7 @@
       </c>
       <c r="F417" s="4">
         <f t="shared" si="6"/>
-        <v>0.11059030837004405</v>
+        <v>11.059030837004405</v>
       </c>
       <c r="G417" t="s">
         <v>14</v>
@@ -27057,7 +27111,7 @@
       </c>
       <c r="F418" s="4">
         <f t="shared" si="6"/>
-        <v>0.43838781575037145</v>
+        <v>43.838781575037146</v>
       </c>
       <c r="G418" t="s">
         <v>14</v>
@@ -27105,7 +27159,7 @@
       </c>
       <c r="F419" s="4">
         <f t="shared" si="6"/>
-        <v>0.55470588235294116</v>
+        <v>55.470588235294116</v>
       </c>
       <c r="G419" t="s">
         <v>14</v>
@@ -27153,7 +27207,7 @@
       </c>
       <c r="F420" s="4">
         <f t="shared" si="6"/>
-        <v>0.57399511301160655</v>
+        <v>57.399511301160658</v>
       </c>
       <c r="G420" t="s">
         <v>14</v>
@@ -27201,7 +27255,7 @@
       </c>
       <c r="F421" s="4">
         <f t="shared" si="6"/>
-        <v>1.2343497363796134</v>
+        <v>123.43497363796135</v>
       </c>
       <c r="G421" t="s">
         <v>20</v>
@@ -27249,7 +27303,7 @@
       </c>
       <c r="F422" s="4">
         <f t="shared" si="6"/>
-        <v>1.2846</v>
+        <v>128.46</v>
       </c>
       <c r="G422" t="s">
         <v>20</v>
@@ -27297,7 +27351,7 @@
       </c>
       <c r="F423" s="4">
         <f t="shared" si="6"/>
-        <v>0.63989361702127656</v>
+        <v>63.989361702127653</v>
       </c>
       <c r="G423" t="s">
         <v>14</v>
@@ -27345,7 +27399,7 @@
       </c>
       <c r="F424" s="4">
         <f t="shared" si="6"/>
-        <v>1.2729885057471264</v>
+        <v>127.29885057471265</v>
       </c>
       <c r="G424" t="s">
         <v>20</v>
@@ -27393,7 +27447,7 @@
       </c>
       <c r="F425" s="4">
         <f t="shared" si="6"/>
-        <v>0.10638024357239513</v>
+        <v>10.638024357239512</v>
       </c>
       <c r="G425" t="s">
         <v>14</v>
@@ -27441,7 +27495,7 @@
       </c>
       <c r="F426" s="4">
         <f t="shared" si="6"/>
-        <v>0.40470588235294119</v>
+        <v>40.470588235294116</v>
       </c>
       <c r="G426" t="s">
         <v>14</v>
@@ -27489,7 +27543,7 @@
       </c>
       <c r="F427" s="4">
         <f t="shared" si="6"/>
-        <v>2.8766666666666665</v>
+        <v>287.66666666666663</v>
       </c>
       <c r="G427" t="s">
         <v>20</v>
@@ -27537,7 +27591,7 @@
       </c>
       <c r="F428" s="4">
         <f t="shared" si="6"/>
-        <v>5.7294444444444448</v>
+        <v>572.94444444444446</v>
       </c>
       <c r="G428" t="s">
         <v>20</v>
@@ -27585,7 +27639,7 @@
       </c>
       <c r="F429" s="4">
         <f t="shared" si="6"/>
-        <v>1.1290429799426933</v>
+        <v>112.90429799426933</v>
       </c>
       <c r="G429" t="s">
         <v>20</v>
@@ -27633,7 +27687,7 @@
       </c>
       <c r="F430" s="4">
         <f t="shared" si="6"/>
-        <v>0.46387573964497042</v>
+        <v>46.387573964497044</v>
       </c>
       <c r="G430" t="s">
         <v>14</v>
@@ -27681,7 +27735,7 @@
       </c>
       <c r="F431" s="4">
         <f t="shared" si="6"/>
-        <v>0.90675916230366493</v>
+        <v>90.675916230366497</v>
       </c>
       <c r="G431" t="s">
         <v>74</v>
@@ -27729,7 +27783,7 @@
       </c>
       <c r="F432" s="4">
         <f t="shared" si="6"/>
-        <v>0.67740740740740746</v>
+        <v>67.740740740740748</v>
       </c>
       <c r="G432" t="s">
         <v>14</v>
@@ -27777,7 +27831,7 @@
       </c>
       <c r="F433" s="4">
         <f t="shared" si="6"/>
-        <v>1.9249019607843136</v>
+        <v>192.49019607843135</v>
       </c>
       <c r="G433" t="s">
         <v>20</v>
@@ -27825,7 +27879,7 @@
       </c>
       <c r="F434" s="4">
         <f t="shared" si="6"/>
-        <v>0.82714285714285718</v>
+        <v>82.714285714285722</v>
       </c>
       <c r="G434" t="s">
         <v>14</v>
@@ -27873,7 +27927,7 @@
       </c>
       <c r="F435" s="4">
         <f t="shared" si="6"/>
-        <v>0.54163920922570019</v>
+        <v>54.163920922570021</v>
       </c>
       <c r="G435" t="s">
         <v>14</v>
@@ -27921,7 +27975,7 @@
       </c>
       <c r="F436" s="4">
         <f t="shared" si="6"/>
-        <v>0.16722222222222222</v>
+        <v>16.722222222222221</v>
       </c>
       <c r="G436" t="s">
         <v>74</v>
@@ -27969,7 +28023,7 @@
       </c>
       <c r="F437" s="4">
         <f t="shared" si="6"/>
-        <v>1.168766404199475</v>
+        <v>116.87664041994749</v>
       </c>
       <c r="G437" t="s">
         <v>20</v>
@@ -28017,7 +28071,7 @@
       </c>
       <c r="F438" s="4">
         <f t="shared" si="6"/>
-        <v>10.521538461538462</v>
+        <v>1052.1538461538462</v>
       </c>
       <c r="G438" t="s">
         <v>20</v>
@@ -28065,7 +28119,7 @@
       </c>
       <c r="F439" s="4">
         <f t="shared" si="6"/>
-        <v>1.2307407407407407</v>
+        <v>123.07407407407408</v>
       </c>
       <c r="G439" t="s">
         <v>20</v>
@@ -28113,7 +28167,7 @@
       </c>
       <c r="F440" s="4">
         <f t="shared" si="6"/>
-        <v>1.7863855421686747</v>
+        <v>178.63855421686748</v>
       </c>
       <c r="G440" t="s">
         <v>20</v>
@@ -28161,7 +28215,7 @@
       </c>
       <c r="F441" s="4">
         <f t="shared" si="6"/>
-        <v>3.5528169014084505</v>
+        <v>355.28169014084506</v>
       </c>
       <c r="G441" t="s">
         <v>20</v>
@@ -28209,7 +28263,7 @@
       </c>
       <c r="F442" s="4">
         <f t="shared" si="6"/>
-        <v>1.6190634146341463</v>
+        <v>161.90634146341463</v>
       </c>
       <c r="G442" t="s">
         <v>20</v>
@@ -28257,7 +28311,7 @@
       </c>
       <c r="F443" s="4">
         <f t="shared" si="6"/>
-        <v>0.24914285714285714</v>
+        <v>24.914285714285715</v>
       </c>
       <c r="G443" t="s">
         <v>14</v>
@@ -28305,7 +28359,7 @@
       </c>
       <c r="F444" s="4">
         <f t="shared" si="6"/>
-        <v>1.9872222222222222</v>
+        <v>198.72222222222223</v>
       </c>
       <c r="G444" t="s">
         <v>20</v>
@@ -28353,7 +28407,7 @@
       </c>
       <c r="F445" s="4">
         <f t="shared" si="6"/>
-        <v>0.34752688172043011</v>
+        <v>34.752688172043008</v>
       </c>
       <c r="G445" t="s">
         <v>74</v>
@@ -28401,7 +28455,7 @@
       </c>
       <c r="F446" s="4">
         <f t="shared" si="6"/>
-        <v>1.7641935483870967</v>
+        <v>176.41935483870967</v>
       </c>
       <c r="G446" t="s">
         <v>20</v>
@@ -28449,7 +28503,7 @@
       </c>
       <c r="F447" s="4">
         <f t="shared" si="6"/>
-        <v>5.1138095238095236</v>
+        <v>511.38095238095235</v>
       </c>
       <c r="G447" t="s">
         <v>20</v>
@@ -28497,7 +28551,7 @@
       </c>
       <c r="F448" s="4">
         <f t="shared" si="6"/>
-        <v>0.82044117647058823</v>
+        <v>82.044117647058826</v>
       </c>
       <c r="G448" t="s">
         <v>14</v>
@@ -28545,7 +28599,7 @@
       </c>
       <c r="F449" s="4">
         <f t="shared" si="6"/>
-        <v>0.24326030927835052</v>
+        <v>24.326030927835053</v>
       </c>
       <c r="G449" t="s">
         <v>74</v>
@@ -28593,7 +28647,7 @@
       </c>
       <c r="F450" s="4">
         <f t="shared" si="6"/>
-        <v>0.50482758620689661</v>
+        <v>50.482758620689658</v>
       </c>
       <c r="G450" t="s">
         <v>14</v>
@@ -28640,8 +28694,8 @@
         <v>8703</v>
       </c>
       <c r="F451" s="4">
-        <f t="shared" ref="F451:F514" si="7">E451/D451</f>
-        <v>9.67</v>
+        <f t="shared" ref="F451:F514" si="7">E451/D451*100</f>
+        <v>967</v>
       </c>
       <c r="G451" t="s">
         <v>20</v>
@@ -28689,7 +28743,7 @@
       </c>
       <c r="F452" s="4">
         <f t="shared" si="7"/>
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="G452" t="s">
         <v>14</v>
@@ -28737,7 +28791,7 @@
       </c>
       <c r="F453" s="4">
         <f t="shared" si="7"/>
-        <v>1.2284501347708894</v>
+        <v>122.84501347708894</v>
       </c>
       <c r="G453" t="s">
         <v>20</v>
@@ -28785,7 +28839,7 @@
       </c>
       <c r="F454" s="4">
         <f t="shared" si="7"/>
-        <v>0.63437500000000002</v>
+        <v>63.4375</v>
       </c>
       <c r="G454" t="s">
         <v>14</v>
@@ -28833,7 +28887,7 @@
       </c>
       <c r="F455" s="4">
         <f t="shared" si="7"/>
-        <v>0.56331688596491225</v>
+        <v>56.331688596491226</v>
       </c>
       <c r="G455" t="s">
         <v>14</v>
@@ -28881,7 +28935,7 @@
       </c>
       <c r="F456" s="4">
         <f t="shared" si="7"/>
-        <v>0.44074999999999998</v>
+        <v>44.074999999999996</v>
       </c>
       <c r="G456" t="s">
         <v>14</v>
@@ -28929,7 +28983,7 @@
       </c>
       <c r="F457" s="4">
         <f t="shared" si="7"/>
-        <v>1.1837253218884121</v>
+        <v>118.37253218884121</v>
       </c>
       <c r="G457" t="s">
         <v>20</v>
@@ -28977,7 +29031,7 @@
       </c>
       <c r="F458" s="4">
         <f t="shared" si="7"/>
-        <v>1.041243169398907</v>
+        <v>104.1243169398907</v>
       </c>
       <c r="G458" t="s">
         <v>20</v>
@@ -29025,7 +29079,7 @@
       </c>
       <c r="F459" s="4">
         <f t="shared" si="7"/>
-        <v>0.26640000000000003</v>
+        <v>26.640000000000004</v>
       </c>
       <c r="G459" t="s">
         <v>14</v>
@@ -29073,7 +29127,7 @@
       </c>
       <c r="F460" s="4">
         <f t="shared" si="7"/>
-        <v>3.5120118343195266</v>
+        <v>351.20118343195264</v>
       </c>
       <c r="G460" t="s">
         <v>20</v>
@@ -29121,7 +29175,7 @@
       </c>
       <c r="F461" s="4">
         <f t="shared" si="7"/>
-        <v>0.90063492063492068</v>
+        <v>90.063492063492063</v>
       </c>
       <c r="G461" t="s">
         <v>14</v>
@@ -29169,7 +29223,7 @@
       </c>
       <c r="F462" s="4">
         <f t="shared" si="7"/>
-        <v>1.7162500000000001</v>
+        <v>171.625</v>
       </c>
       <c r="G462" t="s">
         <v>20</v>
@@ -29217,7 +29271,7 @@
       </c>
       <c r="F463" s="4">
         <f t="shared" si="7"/>
-        <v>1.4104655870445344</v>
+        <v>141.04655870445345</v>
       </c>
       <c r="G463" t="s">
         <v>20</v>
@@ -29265,7 +29319,7 @@
       </c>
       <c r="F464" s="4">
         <f t="shared" si="7"/>
-        <v>0.30579449152542371</v>
+        <v>30.57944915254237</v>
       </c>
       <c r="G464" t="s">
         <v>14</v>
@@ -29313,7 +29367,7 @@
       </c>
       <c r="F465" s="4">
         <f t="shared" si="7"/>
-        <v>1.0816455696202532</v>
+        <v>108.16455696202532</v>
       </c>
       <c r="G465" t="s">
         <v>20</v>
@@ -29361,7 +29415,7 @@
       </c>
       <c r="F466" s="4">
         <f t="shared" si="7"/>
-        <v>1.3345505617977529</v>
+        <v>133.45505617977528</v>
       </c>
       <c r="G466" t="s">
         <v>20</v>
@@ -29409,7 +29463,7 @@
       </c>
       <c r="F467" s="4">
         <f t="shared" si="7"/>
-        <v>1.8785106382978722</v>
+        <v>187.85106382978722</v>
       </c>
       <c r="G467" t="s">
         <v>20</v>
@@ -29457,7 +29511,7 @@
       </c>
       <c r="F468" s="4">
         <f t="shared" si="7"/>
-        <v>3.32</v>
+        <v>332</v>
       </c>
       <c r="G468" t="s">
         <v>20</v>
@@ -29505,7 +29559,7 @@
       </c>
       <c r="F469" s="4">
         <f t="shared" si="7"/>
-        <v>5.7521428571428572</v>
+        <v>575.21428571428578</v>
       </c>
       <c r="G469" t="s">
         <v>20</v>
@@ -29553,7 +29607,7 @@
       </c>
       <c r="F470" s="4">
         <f t="shared" si="7"/>
-        <v>0.40500000000000003</v>
+        <v>40.5</v>
       </c>
       <c r="G470" t="s">
         <v>14</v>
@@ -29601,7 +29655,7 @@
       </c>
       <c r="F471" s="4">
         <f t="shared" si="7"/>
-        <v>1.8442857142857143</v>
+        <v>184.42857142857144</v>
       </c>
       <c r="G471" t="s">
         <v>20</v>
@@ -29649,7 +29703,7 @@
       </c>
       <c r="F472" s="4">
         <f t="shared" si="7"/>
-        <v>2.8580555555555556</v>
+        <v>285.80555555555554</v>
       </c>
       <c r="G472" t="s">
         <v>20</v>
@@ -29697,7 +29751,7 @@
       </c>
       <c r="F473" s="4">
         <f t="shared" si="7"/>
-        <v>3.19</v>
+        <v>319</v>
       </c>
       <c r="G473" t="s">
         <v>20</v>
@@ -29745,7 +29799,7 @@
       </c>
       <c r="F474" s="4">
         <f t="shared" si="7"/>
-        <v>0.39234070221066319</v>
+        <v>39.234070221066318</v>
       </c>
       <c r="G474" t="s">
         <v>14</v>
@@ -29793,7 +29847,7 @@
       </c>
       <c r="F475" s="4">
         <f t="shared" si="7"/>
-        <v>1.7814000000000001</v>
+        <v>178.14000000000001</v>
       </c>
       <c r="G475" t="s">
         <v>20</v>
@@ -29841,7 +29895,7 @@
       </c>
       <c r="F476" s="4">
         <f t="shared" si="7"/>
-        <v>3.6515</v>
+        <v>365.15</v>
       </c>
       <c r="G476" t="s">
         <v>20</v>
@@ -29889,7 +29943,7 @@
       </c>
       <c r="F477" s="4">
         <f t="shared" si="7"/>
-        <v>1.1394594594594594</v>
+        <v>113.94594594594594</v>
       </c>
       <c r="G477" t="s">
         <v>20</v>
@@ -29937,7 +29991,7 @@
       </c>
       <c r="F478" s="4">
         <f t="shared" si="7"/>
-        <v>0.29828720626631855</v>
+        <v>29.828720626631856</v>
       </c>
       <c r="G478" t="s">
         <v>14</v>
@@ -29985,7 +30039,7 @@
       </c>
       <c r="F479" s="4">
         <f t="shared" si="7"/>
-        <v>0.54270588235294115</v>
+        <v>54.270588235294113</v>
       </c>
       <c r="G479" t="s">
         <v>14</v>
@@ -30033,7 +30087,7 @@
       </c>
       <c r="F480" s="4">
         <f t="shared" si="7"/>
-        <v>2.3634156976744185</v>
+        <v>236.34156976744185</v>
       </c>
       <c r="G480" t="s">
         <v>20</v>
@@ -30081,7 +30135,7 @@
       </c>
       <c r="F481" s="4">
         <f t="shared" si="7"/>
-        <v>5.1291666666666664</v>
+        <v>512.91666666666663</v>
       </c>
       <c r="G481" t="s">
         <v>20</v>
@@ -30129,7 +30183,7 @@
       </c>
       <c r="F482" s="4">
         <f t="shared" si="7"/>
-        <v>1.0065116279069768</v>
+        <v>100.65116279069768</v>
       </c>
       <c r="G482" t="s">
         <v>20</v>
@@ -30177,7 +30231,7 @@
       </c>
       <c r="F483" s="4">
         <f t="shared" si="7"/>
-        <v>0.81348423194303154</v>
+        <v>81.348423194303152</v>
       </c>
       <c r="G483" t="s">
         <v>14</v>
@@ -30225,7 +30279,7 @@
       </c>
       <c r="F484" s="4">
         <f t="shared" si="7"/>
-        <v>0.16404761904761905</v>
+        <v>16.404761904761905</v>
       </c>
       <c r="G484" t="s">
         <v>14</v>
@@ -30273,7 +30327,7 @@
       </c>
       <c r="F485" s="4">
         <f t="shared" si="7"/>
-        <v>0.52774617067833696</v>
+        <v>52.774617067833695</v>
       </c>
       <c r="G485" t="s">
         <v>14</v>
@@ -30321,7 +30375,7 @@
       </c>
       <c r="F486" s="4">
         <f t="shared" si="7"/>
-        <v>2.6020608108108108</v>
+        <v>260.20608108108109</v>
       </c>
       <c r="G486" t="s">
         <v>20</v>
@@ -30369,7 +30423,7 @@
       </c>
       <c r="F487" s="4">
         <f t="shared" si="7"/>
-        <v>0.30732891832229581</v>
+        <v>30.73289183222958</v>
       </c>
       <c r="G487" t="s">
         <v>14</v>
@@ -30417,7 +30471,7 @@
       </c>
       <c r="F488" s="4">
         <f t="shared" si="7"/>
-        <v>0.13500000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="G488" t="s">
         <v>14</v>
@@ -30465,7 +30519,7 @@
       </c>
       <c r="F489" s="4">
         <f t="shared" si="7"/>
-        <v>1.7862556663644606</v>
+        <v>178.62556663644605</v>
       </c>
       <c r="G489" t="s">
         <v>20</v>
@@ -30513,7 +30567,7 @@
       </c>
       <c r="F490" s="4">
         <f t="shared" si="7"/>
-        <v>2.2005660377358489</v>
+        <v>220.0566037735849</v>
       </c>
       <c r="G490" t="s">
         <v>20</v>
@@ -30561,7 +30615,7 @@
       </c>
       <c r="F491" s="4">
         <f t="shared" si="7"/>
-        <v>1.015108695652174</v>
+        <v>101.5108695652174</v>
       </c>
       <c r="G491" t="s">
         <v>20</v>
@@ -30609,7 +30663,7 @@
       </c>
       <c r="F492" s="4">
         <f t="shared" si="7"/>
-        <v>1.915</v>
+        <v>191.5</v>
       </c>
       <c r="G492" t="s">
         <v>20</v>
@@ -30657,7 +30711,7 @@
       </c>
       <c r="F493" s="4">
         <f t="shared" si="7"/>
-        <v>3.0534683098591549</v>
+        <v>305.34683098591546</v>
       </c>
       <c r="G493" t="s">
         <v>20</v>
@@ -30705,7 +30759,7 @@
       </c>
       <c r="F494" s="4">
         <f t="shared" si="7"/>
-        <v>0.23995287958115183</v>
+        <v>23.995287958115181</v>
       </c>
       <c r="G494" t="s">
         <v>74</v>
@@ -30753,7 +30807,7 @@
       </c>
       <c r="F495" s="4">
         <f t="shared" si="7"/>
-        <v>7.2377777777777776</v>
+        <v>723.77777777777771</v>
       </c>
       <c r="G495" t="s">
         <v>20</v>
@@ -30801,7 +30855,7 @@
       </c>
       <c r="F496" s="4">
         <f t="shared" si="7"/>
-        <v>5.4736000000000002</v>
+        <v>547.36</v>
       </c>
       <c r="G496" t="s">
         <v>20</v>
@@ -30849,7 +30903,7 @@
       </c>
       <c r="F497" s="4">
         <f t="shared" si="7"/>
-        <v>4.1449999999999996</v>
+        <v>414.49999999999994</v>
       </c>
       <c r="G497" t="s">
         <v>20</v>
@@ -30897,7 +30951,7 @@
       </c>
       <c r="F498" s="4">
         <f t="shared" si="7"/>
-        <v>9.0696409140369975E-3</v>
+        <v>0.90696409140369971</v>
       </c>
       <c r="G498" t="s">
         <v>14</v>
@@ -30945,7 +30999,7 @@
       </c>
       <c r="F499" s="4">
         <f t="shared" si="7"/>
-        <v>0.34173469387755101</v>
+        <v>34.173469387755098</v>
       </c>
       <c r="G499" t="s">
         <v>14</v>
@@ -30993,7 +31047,7 @@
       </c>
       <c r="F500" s="4">
         <f t="shared" si="7"/>
-        <v>0.239488107549121</v>
+        <v>23.948810754912099</v>
       </c>
       <c r="G500" t="s">
         <v>14</v>
@@ -31041,7 +31095,7 @@
       </c>
       <c r="F501" s="4">
         <f t="shared" si="7"/>
-        <v>0.48072649572649573</v>
+        <v>48.072649572649574</v>
       </c>
       <c r="G501" t="s">
         <v>14</v>
@@ -31137,7 +31191,7 @@
       </c>
       <c r="F503" s="4">
         <f t="shared" si="7"/>
-        <v>0.70145182291666663</v>
+        <v>70.145182291666657</v>
       </c>
       <c r="G503" t="s">
         <v>14</v>
@@ -31185,7 +31239,7 @@
       </c>
       <c r="F504" s="4">
         <f t="shared" si="7"/>
-        <v>5.2992307692307694</v>
+        <v>529.92307692307691</v>
       </c>
       <c r="G504" t="s">
         <v>20</v>
@@ -31233,7 +31287,7 @@
       </c>
       <c r="F505" s="4">
         <f t="shared" si="7"/>
-        <v>1.8032549019607844</v>
+        <v>180.32549019607845</v>
       </c>
       <c r="G505" t="s">
         <v>20</v>
@@ -31281,7 +31335,7 @@
       </c>
       <c r="F506" s="4">
         <f t="shared" si="7"/>
-        <v>0.92320000000000002</v>
+        <v>92.320000000000007</v>
       </c>
       <c r="G506" t="s">
         <v>14</v>
@@ -31329,7 +31383,7 @@
       </c>
       <c r="F507" s="4">
         <f t="shared" si="7"/>
-        <v>0.13901001112347053</v>
+        <v>13.901001112347053</v>
       </c>
       <c r="G507" t="s">
         <v>14</v>
@@ -31377,7 +31431,7 @@
       </c>
       <c r="F508" s="4">
         <f t="shared" si="7"/>
-        <v>9.2707777777777771</v>
+        <v>927.07777777777767</v>
       </c>
       <c r="G508" t="s">
         <v>20</v>
@@ -31425,7 +31479,7 @@
       </c>
       <c r="F509" s="4">
         <f t="shared" si="7"/>
-        <v>0.39857142857142858</v>
+        <v>39.857142857142861</v>
       </c>
       <c r="G509" t="s">
         <v>14</v>
@@ -31473,7 +31527,7 @@
       </c>
       <c r="F510" s="4">
         <f t="shared" si="7"/>
-        <v>1.1222929936305732</v>
+        <v>112.22929936305732</v>
       </c>
       <c r="G510" t="s">
         <v>20</v>
@@ -31521,7 +31575,7 @@
       </c>
       <c r="F511" s="4">
         <f t="shared" si="7"/>
-        <v>0.70925816023738875</v>
+        <v>70.925816023738875</v>
       </c>
       <c r="G511" t="s">
         <v>14</v>
@@ -31569,7 +31623,7 @@
       </c>
       <c r="F512" s="4">
         <f t="shared" si="7"/>
-        <v>1.1908974358974358</v>
+        <v>119.08974358974358</v>
       </c>
       <c r="G512" t="s">
         <v>20</v>
@@ -31617,7 +31671,7 @@
       </c>
       <c r="F513" s="4">
         <f t="shared" si="7"/>
-        <v>0.24017591339648173</v>
+        <v>24.017591339648174</v>
       </c>
       <c r="G513" t="s">
         <v>14</v>
@@ -31665,7 +31719,7 @@
       </c>
       <c r="F514" s="4">
         <f t="shared" si="7"/>
-        <v>1.3931868131868133</v>
+        <v>139.31868131868131</v>
       </c>
       <c r="G514" t="s">
         <v>20</v>
@@ -31712,8 +31766,8 @@
         <v>3260</v>
       </c>
       <c r="F515" s="4">
-        <f t="shared" ref="F515:F578" si="8">E515/D515</f>
-        <v>0.39277108433734942</v>
+        <f t="shared" ref="F515:F578" si="8">E515/D515*100</f>
+        <v>39.277108433734945</v>
       </c>
       <c r="G515" t="s">
         <v>74</v>
@@ -31761,7 +31815,7 @@
       </c>
       <c r="F516" s="4">
         <f t="shared" si="8"/>
-        <v>0.22439077144917088</v>
+        <v>22.439077144917089</v>
       </c>
       <c r="G516" t="s">
         <v>74</v>
@@ -31809,7 +31863,7 @@
       </c>
       <c r="F517" s="4">
         <f t="shared" si="8"/>
-        <v>0.55779069767441858</v>
+        <v>55.779069767441861</v>
       </c>
       <c r="G517" t="s">
         <v>14</v>
@@ -31857,7 +31911,7 @@
       </c>
       <c r="F518" s="4">
         <f t="shared" si="8"/>
-        <v>0.42523125996810207</v>
+        <v>42.523125996810208</v>
       </c>
       <c r="G518" t="s">
         <v>14</v>
@@ -31905,7 +31959,7 @@
       </c>
       <c r="F519" s="4">
         <f t="shared" si="8"/>
-        <v>1.1200000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="G519" t="s">
         <v>20</v>
@@ -31953,7 +32007,7 @@
       </c>
       <c r="F520" s="4">
         <f t="shared" si="8"/>
-        <v>7.0681818181818179E-2</v>
+        <v>7.0681818181818183</v>
       </c>
       <c r="G520" t="s">
         <v>14</v>
@@ -32001,7 +32055,7 @@
       </c>
       <c r="F521" s="4">
         <f t="shared" si="8"/>
-        <v>1.0174563871693867</v>
+        <v>101.74563871693867</v>
       </c>
       <c r="G521" t="s">
         <v>20</v>
@@ -32049,7 +32103,7 @@
       </c>
       <c r="F522" s="4">
         <f t="shared" si="8"/>
-        <v>4.2575000000000003</v>
+        <v>425.75</v>
       </c>
       <c r="G522" t="s">
         <v>20</v>
@@ -32097,7 +32151,7 @@
       </c>
       <c r="F523" s="4">
         <f t="shared" si="8"/>
-        <v>1.4553947368421052</v>
+        <v>145.53947368421052</v>
       </c>
       <c r="G523" t="s">
         <v>20</v>
@@ -32145,7 +32199,7 @@
       </c>
       <c r="F524" s="4">
         <f t="shared" si="8"/>
-        <v>0.32453465346534655</v>
+        <v>32.453465346534657</v>
       </c>
       <c r="G524" t="s">
         <v>14</v>
@@ -32193,7 +32247,7 @@
       </c>
       <c r="F525" s="4">
         <f t="shared" si="8"/>
-        <v>7.003333333333333</v>
+        <v>700.33333333333326</v>
       </c>
       <c r="G525" t="s">
         <v>20</v>
@@ -32241,7 +32295,7 @@
       </c>
       <c r="F526" s="4">
         <f t="shared" si="8"/>
-        <v>0.83904860392967939</v>
+        <v>83.904860392967933</v>
       </c>
       <c r="G526" t="s">
         <v>14</v>
@@ -32289,7 +32343,7 @@
       </c>
       <c r="F527" s="4">
         <f t="shared" si="8"/>
-        <v>0.84190476190476193</v>
+        <v>84.19047619047619</v>
       </c>
       <c r="G527" t="s">
         <v>14</v>
@@ -32337,7 +32391,7 @@
       </c>
       <c r="F528" s="4">
         <f t="shared" si="8"/>
-        <v>1.5595180722891566</v>
+        <v>155.95180722891567</v>
       </c>
       <c r="G528" t="s">
         <v>20</v>
@@ -32385,7 +32439,7 @@
       </c>
       <c r="F529" s="4">
         <f t="shared" si="8"/>
-        <v>0.99619450317124736</v>
+        <v>99.619450317124731</v>
       </c>
       <c r="G529" t="s">
         <v>14</v>
@@ -32433,7 +32487,7 @@
       </c>
       <c r="F530" s="4">
         <f t="shared" si="8"/>
-        <v>0.80300000000000005</v>
+        <v>80.300000000000011</v>
       </c>
       <c r="G530" t="s">
         <v>14</v>
@@ -32481,7 +32535,7 @@
       </c>
       <c r="F531" s="4">
         <f t="shared" si="8"/>
-        <v>0.11254901960784314</v>
+        <v>11.254901960784313</v>
       </c>
       <c r="G531" t="s">
         <v>14</v>
@@ -32529,7 +32583,7 @@
       </c>
       <c r="F532" s="4">
         <f t="shared" si="8"/>
-        <v>0.91740952380952379</v>
+        <v>91.740952380952379</v>
       </c>
       <c r="G532" t="s">
         <v>14</v>
@@ -32577,7 +32631,7 @@
       </c>
       <c r="F533" s="4">
         <f t="shared" si="8"/>
-        <v>0.95521156936261387</v>
+        <v>95.521156936261391</v>
       </c>
       <c r="G533" t="s">
         <v>47</v>
@@ -32625,7 +32679,7 @@
       </c>
       <c r="F534" s="4">
         <f t="shared" si="8"/>
-        <v>5.0287499999999996</v>
+        <v>502.87499999999994</v>
       </c>
       <c r="G534" t="s">
         <v>20</v>
@@ -32673,7 +32727,7 @@
       </c>
       <c r="F535" s="4">
         <f t="shared" si="8"/>
-        <v>1.5924394463667819</v>
+        <v>159.24394463667818</v>
       </c>
       <c r="G535" t="s">
         <v>20</v>
@@ -32721,7 +32775,7 @@
       </c>
       <c r="F536" s="4">
         <f t="shared" si="8"/>
-        <v>0.15022446689113356</v>
+        <v>15.022446689113355</v>
       </c>
       <c r="G536" t="s">
         <v>14</v>
@@ -32769,7 +32823,7 @@
       </c>
       <c r="F537" s="4">
         <f t="shared" si="8"/>
-        <v>4.820384615384615</v>
+        <v>482.03846153846149</v>
       </c>
       <c r="G537" t="s">
         <v>20</v>
@@ -32817,7 +32871,7 @@
       </c>
       <c r="F538" s="4">
         <f t="shared" si="8"/>
-        <v>1.4996938775510205</v>
+        <v>149.96938775510205</v>
       </c>
       <c r="G538" t="s">
         <v>20</v>
@@ -32865,7 +32919,7 @@
       </c>
       <c r="F539" s="4">
         <f t="shared" si="8"/>
-        <v>1.1722156398104266</v>
+        <v>117.22156398104266</v>
       </c>
       <c r="G539" t="s">
         <v>20</v>
@@ -32913,7 +32967,7 @@
       </c>
       <c r="F540" s="4">
         <f t="shared" si="8"/>
-        <v>0.37695968274950431</v>
+        <v>37.695968274950431</v>
       </c>
       <c r="G540" t="s">
         <v>14</v>
@@ -32961,7 +33015,7 @@
       </c>
       <c r="F541" s="4">
         <f t="shared" si="8"/>
-        <v>0.72653061224489801</v>
+        <v>72.653061224489804</v>
       </c>
       <c r="G541" t="s">
         <v>14</v>
@@ -33009,7 +33063,7 @@
       </c>
       <c r="F542" s="4">
         <f t="shared" si="8"/>
-        <v>2.6598113207547169</v>
+        <v>265.98113207547169</v>
       </c>
       <c r="G542" t="s">
         <v>20</v>
@@ -33057,7 +33111,7 @@
       </c>
       <c r="F543" s="4">
         <f t="shared" si="8"/>
-        <v>0.24205617977528091</v>
+        <v>24.205617977528089</v>
       </c>
       <c r="G543" t="s">
         <v>14</v>
@@ -33105,7 +33159,7 @@
       </c>
       <c r="F544" s="4">
         <f t="shared" si="8"/>
-        <v>2.5064935064935064E-2</v>
+        <v>2.5064935064935066</v>
       </c>
       <c r="G544" t="s">
         <v>14</v>
@@ -33153,7 +33207,7 @@
       </c>
       <c r="F545" s="4">
         <f t="shared" si="8"/>
-        <v>0.1632979976442874</v>
+        <v>16.329799764428738</v>
       </c>
       <c r="G545" t="s">
         <v>14</v>
@@ -33201,7 +33255,7 @@
       </c>
       <c r="F546" s="4">
         <f t="shared" si="8"/>
-        <v>2.7650000000000001</v>
+        <v>276.5</v>
       </c>
       <c r="G546" t="s">
         <v>20</v>
@@ -33249,7 +33303,7 @@
       </c>
       <c r="F547" s="4">
         <f t="shared" si="8"/>
-        <v>0.88803571428571426</v>
+        <v>88.803571428571431</v>
       </c>
       <c r="G547" t="s">
         <v>14</v>
@@ -33297,7 +33351,7 @@
       </c>
       <c r="F548" s="4">
         <f t="shared" si="8"/>
-        <v>1.6357142857142857</v>
+        <v>163.57142857142856</v>
       </c>
       <c r="G548" t="s">
         <v>20</v>
@@ -33345,7 +33399,7 @@
       </c>
       <c r="F549" s="4">
         <f t="shared" si="8"/>
-        <v>9.69</v>
+        <v>969</v>
       </c>
       <c r="G549" t="s">
         <v>20</v>
@@ -33393,7 +33447,7 @@
       </c>
       <c r="F550" s="4">
         <f t="shared" si="8"/>
-        <v>2.7091376701966716</v>
+        <v>270.91376701966715</v>
       </c>
       <c r="G550" t="s">
         <v>20</v>
@@ -33441,7 +33495,7 @@
       </c>
       <c r="F551" s="4">
         <f t="shared" si="8"/>
-        <v>2.8421355932203389</v>
+        <v>284.21355932203392</v>
       </c>
       <c r="G551" t="s">
         <v>20</v>
@@ -33489,7 +33543,7 @@
       </c>
       <c r="F552" s="4">
         <f t="shared" si="8"/>
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="G552" t="s">
         <v>74</v>
@@ -33537,7 +33591,7 @@
       </c>
       <c r="F553" s="4">
         <f t="shared" si="8"/>
-        <v>0.58632981676846196</v>
+        <v>58.6329816768462</v>
       </c>
       <c r="G553" t="s">
         <v>14</v>
@@ -33585,7 +33639,7 @@
       </c>
       <c r="F554" s="4">
         <f t="shared" si="8"/>
-        <v>0.98511111111111116</v>
+        <v>98.51111111111112</v>
       </c>
       <c r="G554" t="s">
         <v>14</v>
@@ -33633,7 +33687,7 @@
       </c>
       <c r="F555" s="4">
         <f t="shared" si="8"/>
-        <v>0.43975381008206332</v>
+        <v>43.975381008206334</v>
       </c>
       <c r="G555" t="s">
         <v>14</v>
@@ -33681,7 +33735,7 @@
       </c>
       <c r="F556" s="4">
         <f t="shared" si="8"/>
-        <v>1.5166315789473683</v>
+        <v>151.66315789473683</v>
       </c>
       <c r="G556" t="s">
         <v>20</v>
@@ -33729,7 +33783,7 @@
       </c>
       <c r="F557" s="4">
         <f t="shared" si="8"/>
-        <v>2.2363492063492063</v>
+        <v>223.63492063492063</v>
       </c>
       <c r="G557" t="s">
         <v>20</v>
@@ -33777,7 +33831,7 @@
       </c>
       <c r="F558" s="4">
         <f t="shared" si="8"/>
-        <v>2.3975</v>
+        <v>239.75</v>
       </c>
       <c r="G558" t="s">
         <v>20</v>
@@ -33825,7 +33879,7 @@
       </c>
       <c r="F559" s="4">
         <f t="shared" si="8"/>
-        <v>1.9933333333333334</v>
+        <v>199.33333333333334</v>
       </c>
       <c r="G559" t="s">
         <v>20</v>
@@ -33873,7 +33927,7 @@
       </c>
       <c r="F560" s="4">
         <f t="shared" si="8"/>
-        <v>1.373448275862069</v>
+        <v>137.34482758620689</v>
       </c>
       <c r="G560" t="s">
         <v>20</v>
@@ -33921,7 +33975,7 @@
       </c>
       <c r="F561" s="4">
         <f t="shared" si="8"/>
-        <v>1.009696106362773</v>
+        <v>100.9696106362773</v>
       </c>
       <c r="G561" t="s">
         <v>20</v>
@@ -33969,7 +34023,7 @@
       </c>
       <c r="F562" s="4">
         <f t="shared" si="8"/>
-        <v>7.9416000000000002</v>
+        <v>794.16</v>
       </c>
       <c r="G562" t="s">
         <v>20</v>
@@ -34017,7 +34071,7 @@
       </c>
       <c r="F563" s="4">
         <f t="shared" si="8"/>
-        <v>3.6970000000000001</v>
+        <v>369.7</v>
       </c>
       <c r="G563" t="s">
         <v>20</v>
@@ -34065,7 +34119,7 @@
       </c>
       <c r="F564" s="4">
         <f t="shared" si="8"/>
-        <v>0.12818181818181817</v>
+        <v>12.818181818181817</v>
       </c>
       <c r="G564" t="s">
         <v>14</v>
@@ -34113,7 +34167,7 @@
       </c>
       <c r="F565" s="4">
         <f t="shared" si="8"/>
-        <v>1.3802702702702703</v>
+        <v>138.02702702702703</v>
       </c>
       <c r="G565" t="s">
         <v>20</v>
@@ -34161,7 +34215,7 @@
       </c>
       <c r="F566" s="4">
         <f t="shared" si="8"/>
-        <v>0.83813278008298753</v>
+        <v>83.813278008298752</v>
       </c>
       <c r="G566" t="s">
         <v>14</v>
@@ -34209,7 +34263,7 @@
       </c>
       <c r="F567" s="4">
         <f t="shared" si="8"/>
-        <v>2.0460063224446787</v>
+        <v>204.60063224446787</v>
       </c>
       <c r="G567" t="s">
         <v>20</v>
@@ -34257,7 +34311,7 @@
       </c>
       <c r="F568" s="4">
         <f t="shared" si="8"/>
-        <v>0.44344086021505374</v>
+        <v>44.344086021505376</v>
       </c>
       <c r="G568" t="s">
         <v>14</v>
@@ -34305,7 +34359,7 @@
       </c>
       <c r="F569" s="4">
         <f t="shared" si="8"/>
-        <v>2.1860294117647059</v>
+        <v>218.60294117647058</v>
       </c>
       <c r="G569" t="s">
         <v>20</v>
@@ -34353,7 +34407,7 @@
       </c>
       <c r="F570" s="4">
         <f t="shared" si="8"/>
-        <v>1.8603314917127072</v>
+        <v>186.03314917127071</v>
       </c>
       <c r="G570" t="s">
         <v>20</v>
@@ -34401,7 +34455,7 @@
       </c>
       <c r="F571" s="4">
         <f t="shared" si="8"/>
-        <v>2.3733830845771142</v>
+        <v>237.33830845771143</v>
       </c>
       <c r="G571" t="s">
         <v>20</v>
@@ -34449,7 +34503,7 @@
       </c>
       <c r="F572" s="4">
         <f t="shared" si="8"/>
-        <v>3.0565384615384614</v>
+        <v>305.65384615384613</v>
       </c>
       <c r="G572" t="s">
         <v>20</v>
@@ -34497,7 +34551,7 @@
       </c>
       <c r="F573" s="4">
         <f t="shared" si="8"/>
-        <v>0.94142857142857139</v>
+        <v>94.142857142857139</v>
       </c>
       <c r="G573" t="s">
         <v>14</v>
@@ -34545,7 +34599,7 @@
       </c>
       <c r="F574" s="4">
         <f t="shared" si="8"/>
-        <v>0.54400000000000004</v>
+        <v>54.400000000000006</v>
       </c>
       <c r="G574" t="s">
         <v>74</v>
@@ -34593,7 +34647,7 @@
       </c>
       <c r="F575" s="4">
         <f t="shared" si="8"/>
-        <v>1.1188059701492536</v>
+        <v>111.88059701492537</v>
       </c>
       <c r="G575" t="s">
         <v>20</v>
@@ -34641,7 +34695,7 @@
       </c>
       <c r="F576" s="4">
         <f t="shared" si="8"/>
-        <v>3.6914814814814814</v>
+        <v>369.14814814814815</v>
       </c>
       <c r="G576" t="s">
         <v>20</v>
@@ -34689,7 +34743,7 @@
       </c>
       <c r="F577" s="4">
         <f t="shared" si="8"/>
-        <v>0.62930372148859548</v>
+        <v>62.930372148859547</v>
       </c>
       <c r="G577" t="s">
         <v>14</v>
@@ -34737,7 +34791,7 @@
       </c>
       <c r="F578" s="4">
         <f t="shared" si="8"/>
-        <v>0.6492783505154639</v>
+        <v>64.927835051546396</v>
       </c>
       <c r="G578" t="s">
         <v>14</v>
@@ -34784,8 +34838,8 @@
         <v>1546</v>
       </c>
       <c r="F579" s="4">
-        <f t="shared" ref="F579:F642" si="9">E579/D579</f>
-        <v>0.18853658536585366</v>
+        <f t="shared" ref="F579:F642" si="9">E579/D579*100</f>
+        <v>18.853658536585368</v>
       </c>
       <c r="G579" t="s">
         <v>74</v>
@@ -34833,7 +34887,7 @@
       </c>
       <c r="F580" s="4">
         <f t="shared" si="9"/>
-        <v>0.1675440414507772</v>
+        <v>16.754404145077721</v>
       </c>
       <c r="G580" t="s">
         <v>14</v>
@@ -34881,7 +34935,7 @@
       </c>
       <c r="F581" s="4">
         <f t="shared" si="9"/>
-        <v>1.0111290322580646</v>
+        <v>101.11290322580646</v>
       </c>
       <c r="G581" t="s">
         <v>20</v>
@@ -34929,7 +34983,7 @@
       </c>
       <c r="F582" s="4">
         <f t="shared" si="9"/>
-        <v>3.4150228310502282</v>
+        <v>341.5022831050228</v>
       </c>
       <c r="G582" t="s">
         <v>20</v>
@@ -34977,7 +35031,7 @@
       </c>
       <c r="F583" s="4">
         <f t="shared" si="9"/>
-        <v>0.64016666666666666</v>
+        <v>64.016666666666666</v>
       </c>
       <c r="G583" t="s">
         <v>14</v>
@@ -35025,7 +35079,7 @@
       </c>
       <c r="F584" s="4">
         <f t="shared" si="9"/>
-        <v>0.5208045977011494</v>
+        <v>52.080459770114942</v>
       </c>
       <c r="G584" t="s">
         <v>14</v>
@@ -35073,7 +35127,7 @@
       </c>
       <c r="F585" s="4">
         <f t="shared" si="9"/>
-        <v>3.2240211640211642</v>
+        <v>322.40211640211641</v>
       </c>
       <c r="G585" t="s">
         <v>20</v>
@@ -35121,7 +35175,7 @@
       </c>
       <c r="F586" s="4">
         <f t="shared" si="9"/>
-        <v>1.1950810185185186</v>
+        <v>119.50810185185186</v>
       </c>
       <c r="G586" t="s">
         <v>20</v>
@@ -35169,7 +35223,7 @@
       </c>
       <c r="F587" s="4">
         <f t="shared" si="9"/>
-        <v>1.4679775280898877</v>
+        <v>146.79775280898878</v>
       </c>
       <c r="G587" t="s">
         <v>20</v>
@@ -35217,7 +35271,7 @@
       </c>
       <c r="F588" s="4">
         <f t="shared" si="9"/>
-        <v>9.5057142857142853</v>
+        <v>950.57142857142856</v>
       </c>
       <c r="G588" t="s">
         <v>20</v>
@@ -35265,7 +35319,7 @@
       </c>
       <c r="F589" s="4">
         <f t="shared" si="9"/>
-        <v>0.72893617021276591</v>
+        <v>72.893617021276597</v>
       </c>
       <c r="G589" t="s">
         <v>14</v>
@@ -35313,7 +35367,7 @@
       </c>
       <c r="F590" s="4">
         <f t="shared" si="9"/>
-        <v>0.7900824873096447</v>
+        <v>79.008248730964468</v>
       </c>
       <c r="G590" t="s">
         <v>14</v>
@@ -35361,7 +35415,7 @@
       </c>
       <c r="F591" s="4">
         <f t="shared" si="9"/>
-        <v>0.64721518987341775</v>
+        <v>64.721518987341781</v>
       </c>
       <c r="G591" t="s">
         <v>14</v>
@@ -35409,7 +35463,7 @@
       </c>
       <c r="F592" s="4">
         <f t="shared" si="9"/>
-        <v>0.82028169014084507</v>
+        <v>82.028169014084511</v>
       </c>
       <c r="G592" t="s">
         <v>14</v>
@@ -35457,7 +35511,7 @@
       </c>
       <c r="F593" s="4">
         <f t="shared" si="9"/>
-        <v>10.376666666666667</v>
+        <v>1037.6666666666667</v>
       </c>
       <c r="G593" t="s">
         <v>20</v>
@@ -35505,7 +35559,7 @@
       </c>
       <c r="F594" s="4">
         <f t="shared" si="9"/>
-        <v>0.12910076530612244</v>
+        <v>12.910076530612244</v>
       </c>
       <c r="G594" t="s">
         <v>14</v>
@@ -35553,7 +35607,7 @@
       </c>
       <c r="F595" s="4">
         <f t="shared" si="9"/>
-        <v>1.5484210526315789</v>
+        <v>154.84210526315789</v>
       </c>
       <c r="G595" t="s">
         <v>20</v>
@@ -35601,7 +35655,7 @@
       </c>
       <c r="F596" s="4">
         <f t="shared" si="9"/>
-        <v>7.0991735537190084E-2</v>
+        <v>7.0991735537190088</v>
       </c>
       <c r="G596" t="s">
         <v>14</v>
@@ -35649,7 +35703,7 @@
       </c>
       <c r="F597" s="4">
         <f t="shared" si="9"/>
-        <v>2.0852773826458035</v>
+        <v>208.52773826458036</v>
       </c>
       <c r="G597" t="s">
         <v>20</v>
@@ -35697,7 +35751,7 @@
       </c>
       <c r="F598" s="4">
         <f t="shared" si="9"/>
-        <v>0.99683544303797467</v>
+        <v>99.683544303797461</v>
       </c>
       <c r="G598" t="s">
         <v>14</v>
@@ -35745,7 +35799,7 @@
       </c>
       <c r="F599" s="4">
         <f t="shared" si="9"/>
-        <v>2.0159756097560977</v>
+        <v>201.59756097560978</v>
       </c>
       <c r="G599" t="s">
         <v>20</v>
@@ -35793,7 +35847,7 @@
       </c>
       <c r="F600" s="4">
         <f t="shared" si="9"/>
-        <v>1.6209032258064515</v>
+        <v>162.09032258064516</v>
       </c>
       <c r="G600" t="s">
         <v>20</v>
@@ -35841,7 +35895,7 @@
       </c>
       <c r="F601" s="4">
         <f t="shared" si="9"/>
-        <v>3.6436208125445471E-2</v>
+        <v>3.6436208125445471</v>
       </c>
       <c r="G601" t="s">
         <v>14</v>
@@ -35889,7 +35943,7 @@
       </c>
       <c r="F602" s="4">
         <f t="shared" si="9"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="G602" t="s">
         <v>14</v>
@@ -35937,7 +35991,7 @@
       </c>
       <c r="F603" s="4">
         <f t="shared" si="9"/>
-        <v>2.0663492063492064</v>
+        <v>206.63492063492063</v>
       </c>
       <c r="G603" t="s">
         <v>20</v>
@@ -35985,7 +36039,7 @@
       </c>
       <c r="F604" s="4">
         <f t="shared" si="9"/>
-        <v>1.2823628691983122</v>
+        <v>128.23628691983123</v>
       </c>
       <c r="G604" t="s">
         <v>20</v>
@@ -36033,7 +36087,7 @@
       </c>
       <c r="F605" s="4">
         <f t="shared" si="9"/>
-        <v>1.1966037735849056</v>
+        <v>119.66037735849055</v>
       </c>
       <c r="G605" t="s">
         <v>20</v>
@@ -36081,7 +36135,7 @@
       </c>
       <c r="F606" s="4">
         <f t="shared" si="9"/>
-        <v>1.7073055242390078</v>
+        <v>170.73055242390078</v>
       </c>
       <c r="G606" t="s">
         <v>20</v>
@@ -36129,7 +36183,7 @@
       </c>
       <c r="F607" s="4">
         <f t="shared" si="9"/>
-        <v>1.8721212121212121</v>
+        <v>187.21212121212122</v>
       </c>
       <c r="G607" t="s">
         <v>20</v>
@@ -36177,7 +36231,7 @@
       </c>
       <c r="F608" s="4">
         <f t="shared" si="9"/>
-        <v>1.8838235294117647</v>
+        <v>188.38235294117646</v>
       </c>
       <c r="G608" t="s">
         <v>20</v>
@@ -36225,7 +36279,7 @@
       </c>
       <c r="F609" s="4">
         <f t="shared" si="9"/>
-        <v>1.3129869186046512</v>
+        <v>131.29869186046511</v>
       </c>
       <c r="G609" t="s">
         <v>20</v>
@@ -36273,7 +36327,7 @@
       </c>
       <c r="F610" s="4">
         <f t="shared" si="9"/>
-        <v>2.8397435897435899</v>
+        <v>283.97435897435901</v>
       </c>
       <c r="G610" t="s">
         <v>20</v>
@@ -36321,7 +36375,7 @@
       </c>
       <c r="F611" s="4">
         <f t="shared" si="9"/>
-        <v>1.2041999999999999</v>
+        <v>120.41999999999999</v>
       </c>
       <c r="G611" t="s">
         <v>20</v>
@@ -36369,7 +36423,7 @@
       </c>
       <c r="F612" s="4">
         <f t="shared" si="9"/>
-        <v>4.1905607476635511</v>
+        <v>419.0560747663551</v>
       </c>
       <c r="G612" t="s">
         <v>20</v>
@@ -36417,7 +36471,7 @@
       </c>
       <c r="F613" s="4">
         <f t="shared" si="9"/>
-        <v>0.13853658536585367</v>
+        <v>13.853658536585368</v>
       </c>
       <c r="G613" t="s">
         <v>74</v>
@@ -36465,7 +36519,7 @@
       </c>
       <c r="F614" s="4">
         <f t="shared" si="9"/>
-        <v>1.3943548387096774</v>
+        <v>139.43548387096774</v>
       </c>
       <c r="G614" t="s">
         <v>20</v>
@@ -36513,7 +36567,7 @@
       </c>
       <c r="F615" s="4">
         <f t="shared" si="9"/>
-        <v>1.74</v>
+        <v>174</v>
       </c>
       <c r="G615" t="s">
         <v>20</v>
@@ -36561,7 +36615,7 @@
       </c>
       <c r="F616" s="4">
         <f t="shared" si="9"/>
-        <v>1.5549056603773586</v>
+        <v>155.49056603773585</v>
       </c>
       <c r="G616" t="s">
         <v>20</v>
@@ -36609,7 +36663,7 @@
       </c>
       <c r="F617" s="4">
         <f t="shared" si="9"/>
-        <v>1.7044705882352942</v>
+        <v>170.44705882352943</v>
       </c>
       <c r="G617" t="s">
         <v>20</v>
@@ -36657,7 +36711,7 @@
       </c>
       <c r="F618" s="4">
         <f t="shared" si="9"/>
-        <v>1.8951562500000001</v>
+        <v>189.515625</v>
       </c>
       <c r="G618" t="s">
         <v>20</v>
@@ -36705,7 +36759,7 @@
       </c>
       <c r="F619" s="4">
         <f t="shared" si="9"/>
-        <v>2.4971428571428573</v>
+        <v>249.71428571428572</v>
       </c>
       <c r="G619" t="s">
         <v>20</v>
@@ -36753,7 +36807,7 @@
       </c>
       <c r="F620" s="4">
         <f t="shared" si="9"/>
-        <v>0.48860523665659616</v>
+        <v>48.860523665659613</v>
       </c>
       <c r="G620" t="s">
         <v>14</v>
@@ -36801,7 +36855,7 @@
       </c>
       <c r="F621" s="4">
         <f t="shared" si="9"/>
-        <v>0.28461970393057684</v>
+        <v>28.461970393057683</v>
       </c>
       <c r="G621" t="s">
         <v>14</v>
@@ -36849,7 +36903,7 @@
       </c>
       <c r="F622" s="4">
         <f t="shared" si="9"/>
-        <v>2.6802325581395348</v>
+        <v>268.02325581395348</v>
       </c>
       <c r="G622" t="s">
         <v>20</v>
@@ -36897,7 +36951,7 @@
       </c>
       <c r="F623" s="4">
         <f t="shared" si="9"/>
-        <v>6.1980078125000002</v>
+        <v>619.80078125</v>
       </c>
       <c r="G623" t="s">
         <v>20</v>
@@ -36945,7 +36999,7 @@
       </c>
       <c r="F624" s="4">
         <f t="shared" si="9"/>
-        <v>3.1301587301587303E-2</v>
+        <v>3.1301587301587301</v>
       </c>
       <c r="G624" t="s">
         <v>14</v>
@@ -36993,7 +37047,7 @@
       </c>
       <c r="F625" s="4">
         <f t="shared" si="9"/>
-        <v>1.5992152704135738</v>
+        <v>159.92152704135739</v>
       </c>
       <c r="G625" t="s">
         <v>20</v>
@@ -37041,7 +37095,7 @@
       </c>
       <c r="F626" s="4">
         <f t="shared" si="9"/>
-        <v>2.793921568627451</v>
+        <v>279.39215686274508</v>
       </c>
       <c r="G626" t="s">
         <v>20</v>
@@ -37089,7 +37143,7 @@
       </c>
       <c r="F627" s="4">
         <f t="shared" si="9"/>
-        <v>0.77373333333333338</v>
+        <v>77.373333333333335</v>
       </c>
       <c r="G627" t="s">
         <v>14</v>
@@ -37137,7 +37191,7 @@
       </c>
       <c r="F628" s="4">
         <f t="shared" si="9"/>
-        <v>2.0632812500000002</v>
+        <v>206.32812500000003</v>
       </c>
       <c r="G628" t="s">
         <v>20</v>
@@ -37185,7 +37239,7 @@
       </c>
       <c r="F629" s="4">
         <f t="shared" si="9"/>
-        <v>6.9424999999999999</v>
+        <v>694.25</v>
       </c>
       <c r="G629" t="s">
         <v>20</v>
@@ -37233,7 +37287,7 @@
       </c>
       <c r="F630" s="4">
         <f t="shared" si="9"/>
-        <v>1.5178947368421052</v>
+        <v>151.78947368421052</v>
       </c>
       <c r="G630" t="s">
         <v>20</v>
@@ -37281,7 +37335,7 @@
       </c>
       <c r="F631" s="4">
         <f t="shared" si="9"/>
-        <v>0.64582072176949945</v>
+        <v>64.58207217694995</v>
       </c>
       <c r="G631" t="s">
         <v>14</v>
@@ -37329,7 +37383,7 @@
       </c>
       <c r="F632" s="4">
         <f t="shared" si="9"/>
-        <v>0.62873684210526315</v>
+        <v>62.873684210526314</v>
       </c>
       <c r="G632" t="s">
         <v>74</v>
@@ -37377,7 +37431,7 @@
       </c>
       <c r="F633" s="4">
         <f t="shared" si="9"/>
-        <v>3.1039864864864866</v>
+        <v>310.39864864864865</v>
       </c>
       <c r="G633" t="s">
         <v>20</v>
@@ -37425,7 +37479,7 @@
       </c>
       <c r="F634" s="4">
         <f t="shared" si="9"/>
-        <v>0.42859916782246882</v>
+        <v>42.859916782246884</v>
       </c>
       <c r="G634" t="s">
         <v>47</v>
@@ -37473,7 +37527,7 @@
       </c>
       <c r="F635" s="4">
         <f t="shared" si="9"/>
-        <v>0.83119402985074631</v>
+        <v>83.119402985074629</v>
       </c>
       <c r="G635" t="s">
         <v>14</v>
@@ -37521,7 +37575,7 @@
       </c>
       <c r="F636" s="4">
         <f t="shared" si="9"/>
-        <v>0.78531302876480547</v>
+        <v>78.531302876480552</v>
       </c>
       <c r="G636" t="s">
         <v>74</v>
@@ -37569,7 +37623,7 @@
       </c>
       <c r="F637" s="4">
         <f t="shared" si="9"/>
-        <v>1.1409352517985611</v>
+        <v>114.09352517985612</v>
       </c>
       <c r="G637" t="s">
         <v>20</v>
@@ -37617,7 +37671,7 @@
       </c>
       <c r="F638" s="4">
         <f t="shared" si="9"/>
-        <v>0.64537683358624176</v>
+        <v>64.537683358624179</v>
       </c>
       <c r="G638" t="s">
         <v>14</v>
@@ -37665,7 +37719,7 @@
       </c>
       <c r="F639" s="4">
         <f t="shared" si="9"/>
-        <v>0.79411764705882348</v>
+        <v>79.411764705882348</v>
       </c>
       <c r="G639" t="s">
         <v>14</v>
@@ -37713,7 +37767,7 @@
       </c>
       <c r="F640" s="4">
         <f t="shared" si="9"/>
-        <v>0.11419117647058824</v>
+        <v>11.419117647058824</v>
       </c>
       <c r="G640" t="s">
         <v>14</v>
@@ -37761,7 +37815,7 @@
       </c>
       <c r="F641" s="4">
         <f t="shared" si="9"/>
-        <v>0.56186046511627907</v>
+        <v>56.186046511627907</v>
       </c>
       <c r="G641" t="s">
         <v>47</v>
@@ -37809,7 +37863,7 @@
       </c>
       <c r="F642" s="4">
         <f t="shared" si="9"/>
-        <v>0.16501669449081802</v>
+        <v>16.501669449081803</v>
       </c>
       <c r="G642" t="s">
         <v>14</v>
@@ -37856,8 +37910,8 @@
         <v>11277</v>
       </c>
       <c r="F643" s="4">
-        <f t="shared" ref="F643:F706" si="10">E643/D643</f>
-        <v>1.1996808510638297</v>
+        <f t="shared" ref="F643:F706" si="10">E643/D643*100</f>
+        <v>119.96808510638297</v>
       </c>
       <c r="G643" t="s">
         <v>20</v>
@@ -37905,7 +37959,7 @@
       </c>
       <c r="F644" s="4">
         <f t="shared" si="10"/>
-        <v>1.4545652173913044</v>
+        <v>145.45652173913044</v>
       </c>
       <c r="G644" t="s">
         <v>20</v>
@@ -37953,7 +38007,7 @@
       </c>
       <c r="F645" s="4">
         <f t="shared" si="10"/>
-        <v>2.2138255033557046</v>
+        <v>221.38255033557047</v>
       </c>
       <c r="G645" t="s">
         <v>20</v>
@@ -38001,7 +38055,7 @@
       </c>
       <c r="F646" s="4">
         <f t="shared" si="10"/>
-        <v>0.48396694214876035</v>
+        <v>48.396694214876035</v>
       </c>
       <c r="G646" t="s">
         <v>14</v>
@@ -38049,7 +38103,7 @@
       </c>
       <c r="F647" s="4">
         <f t="shared" si="10"/>
-        <v>0.92911504424778757</v>
+        <v>92.911504424778755</v>
       </c>
       <c r="G647" t="s">
         <v>14</v>
@@ -38097,7 +38151,7 @@
       </c>
       <c r="F648" s="4">
         <f t="shared" si="10"/>
-        <v>0.88599797365754818</v>
+        <v>88.599797365754824</v>
       </c>
       <c r="G648" t="s">
         <v>14</v>
@@ -38145,7 +38199,7 @@
       </c>
       <c r="F649" s="4">
         <f t="shared" si="10"/>
-        <v>0.41399999999999998</v>
+        <v>41.4</v>
       </c>
       <c r="G649" t="s">
         <v>14</v>
@@ -38193,7 +38247,7 @@
       </c>
       <c r="F650" s="4">
         <f t="shared" si="10"/>
-        <v>0.63056795131845844</v>
+        <v>63.056795131845846</v>
       </c>
       <c r="G650" t="s">
         <v>74</v>
@@ -38241,7 +38295,7 @@
       </c>
       <c r="F651" s="4">
         <f t="shared" si="10"/>
-        <v>0.48482333607230893</v>
+        <v>48.482333607230892</v>
       </c>
       <c r="G651" t="s">
         <v>14</v>
@@ -38289,7 +38343,7 @@
       </c>
       <c r="F652" s="4">
         <f t="shared" si="10"/>
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="G652" t="s">
         <v>14</v>
@@ -38337,7 +38391,7 @@
       </c>
       <c r="F653" s="4">
         <f t="shared" si="10"/>
-        <v>0.88479410269445857</v>
+        <v>88.47941026944585</v>
       </c>
       <c r="G653" t="s">
         <v>14</v>
@@ -38385,7 +38439,7 @@
       </c>
       <c r="F654" s="4">
         <f t="shared" si="10"/>
-        <v>1.2684</v>
+        <v>126.84</v>
       </c>
       <c r="G654" t="s">
         <v>20</v>
@@ -38433,7 +38487,7 @@
       </c>
       <c r="F655" s="4">
         <f t="shared" si="10"/>
-        <v>23.388333333333332</v>
+        <v>2338.833333333333</v>
       </c>
       <c r="G655" t="s">
         <v>20</v>
@@ -38481,7 +38535,7 @@
       </c>
       <c r="F656" s="4">
         <f t="shared" si="10"/>
-        <v>5.0838857142857146</v>
+        <v>508.38857142857148</v>
       </c>
       <c r="G656" t="s">
         <v>20</v>
@@ -38529,7 +38583,7 @@
       </c>
       <c r="F657" s="4">
         <f t="shared" si="10"/>
-        <v>1.9147826086956521</v>
+        <v>191.47826086956522</v>
       </c>
       <c r="G657" t="s">
         <v>20</v>
@@ -38577,7 +38631,7 @@
       </c>
       <c r="F658" s="4">
         <f t="shared" si="10"/>
-        <v>0.42127533783783783</v>
+        <v>42.127533783783782</v>
       </c>
       <c r="G658" t="s">
         <v>14</v>
@@ -38625,7 +38679,7 @@
       </c>
       <c r="F659" s="4">
         <f t="shared" si="10"/>
-        <v>8.2400000000000001E-2</v>
+        <v>8.24</v>
       </c>
       <c r="G659" t="s">
         <v>14</v>
@@ -38673,7 +38727,7 @@
       </c>
       <c r="F660" s="4">
         <f t="shared" si="10"/>
-        <v>0.60064638783269964</v>
+        <v>60.064638783269963</v>
       </c>
       <c r="G660" t="s">
         <v>74</v>
@@ -38721,7 +38775,7 @@
       </c>
       <c r="F661" s="4">
         <f t="shared" si="10"/>
-        <v>0.47232808616404309</v>
+        <v>47.232808616404313</v>
       </c>
       <c r="G661" t="s">
         <v>14</v>
@@ -38769,7 +38823,7 @@
       </c>
       <c r="F662" s="4">
         <f t="shared" si="10"/>
-        <v>0.81736263736263737</v>
+        <v>81.736263736263737</v>
       </c>
       <c r="G662" t="s">
         <v>14</v>
@@ -38817,7 +38871,7 @@
       </c>
       <c r="F663" s="4">
         <f t="shared" si="10"/>
-        <v>0.54187265917603</v>
+        <v>54.187265917603</v>
       </c>
       <c r="G663" t="s">
         <v>14</v>
@@ -38865,7 +38919,7 @@
       </c>
       <c r="F664" s="4">
         <f t="shared" si="10"/>
-        <v>0.97868131868131869</v>
+        <v>97.868131868131869</v>
       </c>
       <c r="G664" t="s">
         <v>14</v>
@@ -38913,7 +38967,7 @@
       </c>
       <c r="F665" s="4">
         <f t="shared" si="10"/>
-        <v>0.77239999999999998</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="G665" t="s">
         <v>14</v>
@@ -38961,7 +39015,7 @@
       </c>
       <c r="F666" s="4">
         <f t="shared" si="10"/>
-        <v>0.33464735516372796</v>
+        <v>33.464735516372798</v>
       </c>
       <c r="G666" t="s">
         <v>14</v>
@@ -39009,7 +39063,7 @@
       </c>
       <c r="F667" s="4">
         <f t="shared" si="10"/>
-        <v>2.3958823529411766</v>
+        <v>239.58823529411765</v>
       </c>
       <c r="G667" t="s">
         <v>20</v>
@@ -39057,7 +39111,7 @@
       </c>
       <c r="F668" s="4">
         <f t="shared" si="10"/>
-        <v>0.64032258064516134</v>
+        <v>64.032258064516128</v>
       </c>
       <c r="G668" t="s">
         <v>74</v>
@@ -39105,7 +39159,7 @@
       </c>
       <c r="F669" s="4">
         <f t="shared" si="10"/>
-        <v>1.7615942028985507</v>
+        <v>176.15942028985506</v>
       </c>
       <c r="G669" t="s">
         <v>20</v>
@@ -39153,7 +39207,7 @@
       </c>
       <c r="F670" s="4">
         <f t="shared" si="10"/>
-        <v>0.20338181818181819</v>
+        <v>20.33818181818182</v>
       </c>
       <c r="G670" t="s">
         <v>14</v>
@@ -39201,7 +39255,7 @@
       </c>
       <c r="F671" s="4">
         <f t="shared" si="10"/>
-        <v>3.5864754098360656</v>
+        <v>358.64754098360658</v>
       </c>
       <c r="G671" t="s">
         <v>20</v>
@@ -39249,7 +39303,7 @@
       </c>
       <c r="F672" s="4">
         <f t="shared" si="10"/>
-        <v>4.6885802469135802</v>
+        <v>468.85802469135803</v>
       </c>
       <c r="G672" t="s">
         <v>20</v>
@@ -39297,7 +39351,7 @@
       </c>
       <c r="F673" s="4">
         <f t="shared" si="10"/>
-        <v>1.220563524590164</v>
+        <v>122.05635245901641</v>
       </c>
       <c r="G673" t="s">
         <v>20</v>
@@ -39345,7 +39399,7 @@
       </c>
       <c r="F674" s="4">
         <f t="shared" si="10"/>
-        <v>0.55931783729156137</v>
+        <v>55.931783729156137</v>
       </c>
       <c r="G674" t="s">
         <v>14</v>
@@ -39393,7 +39447,7 @@
       </c>
       <c r="F675" s="4">
         <f t="shared" si="10"/>
-        <v>0.43660714285714286</v>
+        <v>43.660714285714285</v>
       </c>
       <c r="G675" t="s">
         <v>14</v>
@@ -39441,7 +39495,7 @@
       </c>
       <c r="F676" s="4">
         <f t="shared" si="10"/>
-        <v>0.33538371411833628</v>
+        <v>33.53837141183363</v>
       </c>
       <c r="G676" t="s">
         <v>74</v>
@@ -39489,7 +39543,7 @@
       </c>
       <c r="F677" s="4">
         <f t="shared" si="10"/>
-        <v>1.2297938144329896</v>
+        <v>122.97938144329896</v>
       </c>
       <c r="G677" t="s">
         <v>20</v>
@@ -39537,7 +39591,7 @@
       </c>
       <c r="F678" s="4">
         <f t="shared" si="10"/>
-        <v>1.8974959871589085</v>
+        <v>189.74959871589084</v>
       </c>
       <c r="G678" t="s">
         <v>20</v>
@@ -39585,7 +39639,7 @@
       </c>
       <c r="F679" s="4">
         <f t="shared" si="10"/>
-        <v>0.83622641509433959</v>
+        <v>83.622641509433961</v>
       </c>
       <c r="G679" t="s">
         <v>14</v>
@@ -39633,7 +39687,7 @@
       </c>
       <c r="F680" s="4">
         <f t="shared" si="10"/>
-        <v>0.17968844221105529</v>
+        <v>17.968844221105527</v>
       </c>
       <c r="G680" t="s">
         <v>74</v>
@@ -39681,7 +39735,7 @@
       </c>
       <c r="F681" s="4">
         <f t="shared" si="10"/>
-        <v>10.365</v>
+        <v>1036.5</v>
       </c>
       <c r="G681" t="s">
         <v>20</v>
@@ -39729,7 +39783,7 @@
       </c>
       <c r="F682" s="4">
         <f t="shared" si="10"/>
-        <v>0.97405219780219776</v>
+        <v>97.405219780219781</v>
       </c>
       <c r="G682" t="s">
         <v>14</v>
@@ -39777,7 +39831,7 @@
       </c>
       <c r="F683" s="4">
         <f t="shared" si="10"/>
-        <v>0.86386203150461705</v>
+        <v>86.386203150461711</v>
       </c>
       <c r="G683" t="s">
         <v>14</v>
@@ -39825,7 +39879,7 @@
       </c>
       <c r="F684" s="4">
         <f t="shared" si="10"/>
-        <v>1.5016666666666667</v>
+        <v>150.16666666666666</v>
       </c>
       <c r="G684" t="s">
         <v>20</v>
@@ -39873,7 +39927,7 @@
       </c>
       <c r="F685" s="4">
         <f t="shared" si="10"/>
-        <v>3.5843478260869563</v>
+        <v>358.43478260869563</v>
       </c>
       <c r="G685" t="s">
         <v>20</v>
@@ -39921,7 +39975,7 @@
       </c>
       <c r="F686" s="4">
         <f t="shared" si="10"/>
-        <v>5.4285714285714288</v>
+        <v>542.85714285714289</v>
       </c>
       <c r="G686" t="s">
         <v>20</v>
@@ -39969,7 +40023,7 @@
       </c>
       <c r="F687" s="4">
         <f t="shared" si="10"/>
-        <v>0.67500714285714281</v>
+        <v>67.500714285714281</v>
       </c>
       <c r="G687" t="s">
         <v>14</v>
@@ -40017,7 +40071,7 @@
       </c>
       <c r="F688" s="4">
         <f t="shared" si="10"/>
-        <v>1.9174666666666667</v>
+        <v>191.74666666666667</v>
       </c>
       <c r="G688" t="s">
         <v>20</v>
@@ -40065,7 +40119,7 @@
       </c>
       <c r="F689" s="4">
         <f t="shared" si="10"/>
-        <v>9.32</v>
+        <v>932</v>
       </c>
       <c r="G689" t="s">
         <v>20</v>
@@ -40113,7 +40167,7 @@
       </c>
       <c r="F690" s="4">
         <f t="shared" si="10"/>
-        <v>4.2927586206896553</v>
+        <v>429.27586206896552</v>
       </c>
       <c r="G690" t="s">
         <v>20</v>
@@ -40161,7 +40215,7 @@
       </c>
       <c r="F691" s="4">
         <f t="shared" si="10"/>
-        <v>1.0065753424657535</v>
+        <v>100.65753424657535</v>
       </c>
       <c r="G691" t="s">
         <v>20</v>
@@ -40209,7 +40263,7 @@
       </c>
       <c r="F692" s="4">
         <f t="shared" si="10"/>
-        <v>2.266111111111111</v>
+        <v>226.61111111111109</v>
       </c>
       <c r="G692" t="s">
         <v>20</v>
@@ -40257,7 +40311,7 @@
       </c>
       <c r="F693" s="4">
         <f t="shared" si="10"/>
-        <v>1.4238</v>
+        <v>142.38</v>
       </c>
       <c r="G693" t="s">
         <v>20</v>
@@ -40305,7 +40359,7 @@
       </c>
       <c r="F694" s="4">
         <f t="shared" si="10"/>
-        <v>0.90633333333333332</v>
+        <v>90.633333333333326</v>
       </c>
       <c r="G694" t="s">
         <v>14</v>
@@ -40353,7 +40407,7 @@
       </c>
       <c r="F695" s="4">
         <f t="shared" si="10"/>
-        <v>0.63966740576496672</v>
+        <v>63.966740576496676</v>
       </c>
       <c r="G695" t="s">
         <v>14</v>
@@ -40401,7 +40455,7 @@
       </c>
       <c r="F696" s="4">
         <f t="shared" si="10"/>
-        <v>0.84131868131868137</v>
+        <v>84.131868131868131</v>
       </c>
       <c r="G696" t="s">
         <v>14</v>
@@ -40449,7 +40503,7 @@
       </c>
       <c r="F697" s="4">
         <f t="shared" si="10"/>
-        <v>1.3393478260869565</v>
+        <v>133.93478260869566</v>
       </c>
       <c r="G697" t="s">
         <v>20</v>
@@ -40497,7 +40551,7 @@
       </c>
       <c r="F698" s="4">
         <f t="shared" si="10"/>
-        <v>0.59042047531992692</v>
+        <v>59.042047531992694</v>
       </c>
       <c r="G698" t="s">
         <v>14</v>
@@ -40545,7 +40599,7 @@
       </c>
       <c r="F699" s="4">
         <f t="shared" si="10"/>
-        <v>1.5280062063615205</v>
+        <v>152.80062063615205</v>
       </c>
       <c r="G699" t="s">
         <v>20</v>
@@ -40593,7 +40647,7 @@
       </c>
       <c r="F700" s="4">
         <f t="shared" si="10"/>
-        <v>4.466912114014252</v>
+        <v>446.69121140142522</v>
       </c>
       <c r="G700" t="s">
         <v>20</v>
@@ -40641,7 +40695,7 @@
       </c>
       <c r="F701" s="4">
         <f t="shared" si="10"/>
-        <v>0.8439189189189189</v>
+        <v>84.391891891891888</v>
       </c>
       <c r="G701" t="s">
         <v>14</v>
@@ -40689,7 +40743,7 @@
       </c>
       <c r="F702" s="4">
         <f t="shared" si="10"/>
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="G702" t="s">
         <v>14</v>
@@ -40737,7 +40791,7 @@
       </c>
       <c r="F703" s="4">
         <f t="shared" si="10"/>
-        <v>1.7502692307692307</v>
+        <v>175.02692307692308</v>
       </c>
       <c r="G703" t="s">
         <v>20</v>
@@ -40785,7 +40839,7 @@
       </c>
       <c r="F704" s="4">
         <f t="shared" si="10"/>
-        <v>0.54137931034482756</v>
+        <v>54.137931034482754</v>
       </c>
       <c r="G704" t="s">
         <v>14</v>
@@ -40833,7 +40887,7 @@
       </c>
       <c r="F705" s="4">
         <f t="shared" si="10"/>
-        <v>3.1187381703470032</v>
+        <v>311.87381703470032</v>
       </c>
       <c r="G705" t="s">
         <v>20</v>
@@ -40881,7 +40935,7 @@
       </c>
       <c r="F706" s="4">
         <f t="shared" si="10"/>
-        <v>1.2278160919540231</v>
+        <v>122.78160919540231</v>
       </c>
       <c r="G706" t="s">
         <v>20</v>
@@ -40928,8 +40982,8 @@
         <v>168048</v>
       </c>
       <c r="F707" s="4">
-        <f t="shared" ref="F707:F770" si="11">E707/D707</f>
-        <v>0.99026517383618151</v>
+        <f t="shared" ref="F707:F770" si="11">E707/D707*100</f>
+        <v>99.026517383618156</v>
       </c>
       <c r="G707" t="s">
         <v>14</v>
@@ -40977,7 +41031,7 @@
       </c>
       <c r="F708" s="4">
         <f t="shared" si="11"/>
-        <v>1.278468634686347</v>
+        <v>127.84686346863469</v>
       </c>
       <c r="G708" t="s">
         <v>20</v>
@@ -41025,7 +41079,7 @@
       </c>
       <c r="F709" s="4">
         <f t="shared" si="11"/>
-        <v>1.5861643835616439</v>
+        <v>158.61643835616439</v>
       </c>
       <c r="G709" t="s">
         <v>20</v>
@@ -41073,7 +41127,7 @@
       </c>
       <c r="F710" s="4">
         <f t="shared" si="11"/>
-        <v>7.0705882352941174</v>
+        <v>707.05882352941171</v>
       </c>
       <c r="G710" t="s">
         <v>20</v>
@@ -41121,7 +41175,7 @@
       </c>
       <c r="F711" s="4">
         <f t="shared" si="11"/>
-        <v>1.4238775510204082</v>
+        <v>142.38775510204081</v>
       </c>
       <c r="G711" t="s">
         <v>20</v>
@@ -41169,7 +41223,7 @@
       </c>
       <c r="F712" s="4">
         <f t="shared" si="11"/>
-        <v>1.4786046511627906</v>
+        <v>147.86046511627907</v>
       </c>
       <c r="G712" t="s">
         <v>20</v>
@@ -41217,7 +41271,7 @@
       </c>
       <c r="F713" s="4">
         <f t="shared" si="11"/>
-        <v>0.20322580645161289</v>
+        <v>20.322580645161288</v>
       </c>
       <c r="G713" t="s">
         <v>14</v>
@@ -41265,7 +41319,7 @@
       </c>
       <c r="F714" s="4">
         <f t="shared" si="11"/>
-        <v>18.40625</v>
+        <v>1840.625</v>
       </c>
       <c r="G714" t="s">
         <v>20</v>
@@ -41313,7 +41367,7 @@
       </c>
       <c r="F715" s="4">
         <f t="shared" si="11"/>
-        <v>1.6194202898550725</v>
+        <v>161.94202898550725</v>
       </c>
       <c r="G715" t="s">
         <v>20</v>
@@ -41361,7 +41415,7 @@
       </c>
       <c r="F716" s="4">
         <f t="shared" si="11"/>
-        <v>4.7282077922077921</v>
+        <v>472.82077922077923</v>
       </c>
       <c r="G716" t="s">
         <v>20</v>
@@ -41409,7 +41463,7 @@
       </c>
       <c r="F717" s="4">
         <f t="shared" si="11"/>
-        <v>0.24466101694915254</v>
+        <v>24.466101694915253</v>
       </c>
       <c r="G717" t="s">
         <v>14</v>
@@ -41457,7 +41511,7 @@
       </c>
       <c r="F718" s="4">
         <f t="shared" si="11"/>
-        <v>5.1764999999999999</v>
+        <v>517.65</v>
       </c>
       <c r="G718" t="s">
         <v>20</v>
@@ -41505,7 +41559,7 @@
       </c>
       <c r="F719" s="4">
         <f t="shared" si="11"/>
-        <v>2.4764285714285714</v>
+        <v>247.64285714285714</v>
       </c>
       <c r="G719" t="s">
         <v>20</v>
@@ -41553,7 +41607,7 @@
       </c>
       <c r="F720" s="4">
         <f t="shared" si="11"/>
-        <v>1.0020481927710843</v>
+        <v>100.20481927710843</v>
       </c>
       <c r="G720" t="s">
         <v>20</v>
@@ -41601,7 +41655,7 @@
       </c>
       <c r="F721" s="4">
         <f t="shared" si="11"/>
-        <v>1.53</v>
+        <v>153</v>
       </c>
       <c r="G721" t="s">
         <v>20</v>
@@ -41649,7 +41703,7 @@
       </c>
       <c r="F722" s="4">
         <f t="shared" si="11"/>
-        <v>0.37091954022988505</v>
+        <v>37.091954022988503</v>
       </c>
       <c r="G722" t="s">
         <v>74</v>
@@ -41697,7 +41751,7 @@
       </c>
       <c r="F723" s="4">
         <f t="shared" si="11"/>
-        <v>4.3923948220064728E-2</v>
+        <v>4.392394822006473</v>
       </c>
       <c r="G723" t="s">
         <v>74</v>
@@ -41745,7 +41799,7 @@
       </c>
       <c r="F724" s="4">
         <f t="shared" si="11"/>
-        <v>1.5650721649484536</v>
+        <v>156.50721649484535</v>
       </c>
       <c r="G724" t="s">
         <v>20</v>
@@ -41793,7 +41847,7 @@
       </c>
       <c r="F725" s="4">
         <f t="shared" si="11"/>
-        <v>2.704081632653061</v>
+        <v>270.40816326530609</v>
       </c>
       <c r="G725" t="s">
         <v>20</v>
@@ -41841,7 +41895,7 @@
       </c>
       <c r="F726" s="4">
         <f t="shared" si="11"/>
-        <v>1.3405952380952382</v>
+        <v>134.05952380952382</v>
       </c>
       <c r="G726" t="s">
         <v>20</v>
@@ -41889,7 +41943,7 @@
       </c>
       <c r="F727" s="4">
         <f t="shared" si="11"/>
-        <v>0.50398033126293995</v>
+        <v>50.398033126293996</v>
       </c>
       <c r="G727" t="s">
         <v>14</v>
@@ -41937,7 +41991,7 @@
       </c>
       <c r="F728" s="4">
         <f t="shared" si="11"/>
-        <v>0.88815837937384901</v>
+        <v>88.815837937384899</v>
       </c>
       <c r="G728" t="s">
         <v>74</v>
@@ -41985,7 +42039,7 @@
       </c>
       <c r="F729" s="4">
         <f t="shared" si="11"/>
-        <v>1.65</v>
+        <v>165</v>
       </c>
       <c r="G729" t="s">
         <v>20</v>
@@ -42033,7 +42087,7 @@
       </c>
       <c r="F730" s="4">
         <f t="shared" si="11"/>
-        <v>0.17499999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="G730" t="s">
         <v>14</v>
@@ -42081,7 +42135,7 @@
       </c>
       <c r="F731" s="4">
         <f t="shared" si="11"/>
-        <v>1.8566071428571429</v>
+        <v>185.66071428571428</v>
       </c>
       <c r="G731" t="s">
         <v>20</v>
@@ -42129,7 +42183,7 @@
       </c>
       <c r="F732" s="4">
         <f t="shared" si="11"/>
-        <v>4.1266319444444441</v>
+        <v>412.6631944444444</v>
       </c>
       <c r="G732" t="s">
         <v>20</v>
@@ -42177,7 +42231,7 @@
       </c>
       <c r="F733" s="4">
         <f t="shared" si="11"/>
-        <v>0.90249999999999997</v>
+        <v>90.25</v>
       </c>
       <c r="G733" t="s">
         <v>74</v>
@@ -42225,7 +42279,7 @@
       </c>
       <c r="F734" s="4">
         <f t="shared" si="11"/>
-        <v>0.91984615384615387</v>
+        <v>91.984615384615381</v>
       </c>
       <c r="G734" t="s">
         <v>14</v>
@@ -42273,7 +42327,7 @@
       </c>
       <c r="F735" s="4">
         <f t="shared" si="11"/>
-        <v>5.2700632911392402</v>
+        <v>527.00632911392404</v>
       </c>
       <c r="G735" t="s">
         <v>20</v>
@@ -42321,7 +42375,7 @@
       </c>
       <c r="F736" s="4">
         <f t="shared" si="11"/>
-        <v>3.1914285714285713</v>
+        <v>319.14285714285711</v>
       </c>
       <c r="G736" t="s">
         <v>20</v>
@@ -42369,7 +42423,7 @@
       </c>
       <c r="F737" s="4">
         <f t="shared" si="11"/>
-        <v>3.5418867924528303</v>
+        <v>354.18867924528303</v>
       </c>
       <c r="G737" t="s">
         <v>20</v>
@@ -42417,7 +42471,7 @@
       </c>
       <c r="F738" s="4">
         <f t="shared" si="11"/>
-        <v>0.32896103896103895</v>
+        <v>32.896103896103895</v>
       </c>
       <c r="G738" t="s">
         <v>74</v>
@@ -42465,7 +42519,7 @@
       </c>
       <c r="F739" s="4">
         <f t="shared" si="11"/>
-        <v>1.358918918918919</v>
+        <v>135.8918918918919</v>
       </c>
       <c r="G739" t="s">
         <v>20</v>
@@ -42513,7 +42567,7 @@
       </c>
       <c r="F740" s="4">
         <f t="shared" si="11"/>
-        <v>2.0843373493975904E-2</v>
+        <v>2.0843373493975905</v>
       </c>
       <c r="G740" t="s">
         <v>14</v>
@@ -42561,7 +42615,7 @@
       </c>
       <c r="F741" s="4">
         <f t="shared" si="11"/>
-        <v>0.61</v>
+        <v>61</v>
       </c>
       <c r="G741" t="s">
         <v>14</v>
@@ -42609,7 +42663,7 @@
       </c>
       <c r="F742" s="4">
         <f t="shared" si="11"/>
-        <v>0.30037735849056602</v>
+        <v>30.037735849056602</v>
       </c>
       <c r="G742" t="s">
         <v>14</v>
@@ -42657,7 +42711,7 @@
       </c>
       <c r="F743" s="4">
         <f t="shared" si="11"/>
-        <v>11.791666666666666</v>
+        <v>1179.1666666666665</v>
       </c>
       <c r="G743" t="s">
         <v>20</v>
@@ -42705,7 +42759,7 @@
       </c>
       <c r="F744" s="4">
         <f t="shared" si="11"/>
-        <v>11.260833333333334</v>
+        <v>1126.0833333333335</v>
       </c>
       <c r="G744" t="s">
         <v>20</v>
@@ -42753,7 +42807,7 @@
       </c>
       <c r="F745" s="4">
         <f t="shared" si="11"/>
-        <v>0.12923076923076923</v>
+        <v>12.923076923076923</v>
       </c>
       <c r="G745" t="s">
         <v>14</v>
@@ -42801,7 +42855,7 @@
       </c>
       <c r="F746" s="4">
         <f t="shared" si="11"/>
-        <v>7.12</v>
+        <v>712</v>
       </c>
       <c r="G746" t="s">
         <v>20</v>
@@ -42849,7 +42903,7 @@
       </c>
       <c r="F747" s="4">
         <f t="shared" si="11"/>
-        <v>0.30304347826086958</v>
+        <v>30.304347826086957</v>
       </c>
       <c r="G747" t="s">
         <v>14</v>
@@ -42897,7 +42951,7 @@
       </c>
       <c r="F748" s="4">
         <f t="shared" si="11"/>
-        <v>2.1250896057347672</v>
+        <v>212.50896057347671</v>
       </c>
       <c r="G748" t="s">
         <v>20</v>
@@ -42945,7 +42999,7 @@
       </c>
       <c r="F749" s="4">
         <f t="shared" si="11"/>
-        <v>2.2885714285714287</v>
+        <v>228.85714285714286</v>
       </c>
       <c r="G749" t="s">
         <v>20</v>
@@ -42993,7 +43047,7 @@
       </c>
       <c r="F750" s="4">
         <f t="shared" si="11"/>
-        <v>0.34959979476654696</v>
+        <v>34.959979476654695</v>
       </c>
       <c r="G750" t="s">
         <v>74</v>
@@ -43041,7 +43095,7 @@
       </c>
       <c r="F751" s="4">
         <f t="shared" si="11"/>
-        <v>1.5729069767441861</v>
+        <v>157.29069767441862</v>
       </c>
       <c r="G751" t="s">
         <v>20</v>
@@ -43089,7 +43143,7 @@
       </c>
       <c r="F752" s="4">
         <f t="shared" si="11"/>
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G752" t="s">
         <v>14</v>
@@ -43137,7 +43191,7 @@
       </c>
       <c r="F753" s="4">
         <f t="shared" si="11"/>
-        <v>2.3230555555555554</v>
+        <v>232.30555555555554</v>
       </c>
       <c r="G753" t="s">
         <v>20</v>
@@ -43185,7 +43239,7 @@
       </c>
       <c r="F754" s="4">
         <f t="shared" si="11"/>
-        <v>0.92448275862068963</v>
+        <v>92.448275862068968</v>
       </c>
       <c r="G754" t="s">
         <v>74</v>
@@ -43233,7 +43287,7 @@
       </c>
       <c r="F755" s="4">
         <f t="shared" si="11"/>
-        <v>2.5670212765957445</v>
+        <v>256.70212765957444</v>
       </c>
       <c r="G755" t="s">
         <v>20</v>
@@ -43281,7 +43335,7 @@
       </c>
       <c r="F756" s="4">
         <f t="shared" si="11"/>
-        <v>1.6847017045454546</v>
+        <v>168.47017045454547</v>
       </c>
       <c r="G756" t="s">
         <v>20</v>
@@ -43329,7 +43383,7 @@
       </c>
       <c r="F757" s="4">
         <f t="shared" si="11"/>
-        <v>1.6657777777777778</v>
+        <v>166.57777777777778</v>
       </c>
       <c r="G757" t="s">
         <v>20</v>
@@ -43377,7 +43431,7 @@
       </c>
       <c r="F758" s="4">
         <f t="shared" si="11"/>
-        <v>7.7207692307692311</v>
+        <v>772.07692307692309</v>
       </c>
       <c r="G758" t="s">
         <v>20</v>
@@ -43425,7 +43479,7 @@
       </c>
       <c r="F759" s="4">
         <f t="shared" si="11"/>
-        <v>4.0685714285714285</v>
+        <v>406.85714285714283</v>
       </c>
       <c r="G759" t="s">
         <v>20</v>
@@ -43473,7 +43527,7 @@
       </c>
       <c r="F760" s="4">
         <f t="shared" si="11"/>
-        <v>5.6420608108108112</v>
+        <v>564.20608108108115</v>
       </c>
       <c r="G760" t="s">
         <v>20</v>
@@ -43521,7 +43575,7 @@
       </c>
       <c r="F761" s="4">
         <f t="shared" si="11"/>
-        <v>0.6842686567164179</v>
+        <v>68.426865671641792</v>
       </c>
       <c r="G761" t="s">
         <v>14</v>
@@ -43569,7 +43623,7 @@
       </c>
       <c r="F762" s="4">
         <f t="shared" si="11"/>
-        <v>0.34351966873706002</v>
+        <v>34.351966873706004</v>
       </c>
       <c r="G762" t="s">
         <v>14</v>
@@ -43617,7 +43671,7 @@
       </c>
       <c r="F763" s="4">
         <f t="shared" si="11"/>
-        <v>6.5545454545454547</v>
+        <v>655.4545454545455</v>
       </c>
       <c r="G763" t="s">
         <v>20</v>
@@ -43665,7 +43719,7 @@
       </c>
       <c r="F764" s="4">
         <f t="shared" si="11"/>
-        <v>1.7725714285714285</v>
+        <v>177.25714285714284</v>
       </c>
       <c r="G764" t="s">
         <v>20</v>
@@ -43713,7 +43767,7 @@
       </c>
       <c r="F765" s="4">
         <f t="shared" si="11"/>
-        <v>1.1317857142857144</v>
+        <v>113.17857142857144</v>
       </c>
       <c r="G765" t="s">
         <v>20</v>
@@ -43761,7 +43815,7 @@
       </c>
       <c r="F766" s="4">
         <f t="shared" si="11"/>
-        <v>7.2818181818181822</v>
+        <v>728.18181818181824</v>
       </c>
       <c r="G766" t="s">
         <v>20</v>
@@ -43809,7 +43863,7 @@
       </c>
       <c r="F767" s="4">
         <f t="shared" si="11"/>
-        <v>2.0833333333333335</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="G767" t="s">
         <v>20</v>
@@ -43857,7 +43911,7 @@
       </c>
       <c r="F768" s="4">
         <f t="shared" si="11"/>
-        <v>0.31171232876712329</v>
+        <v>31.171232876712331</v>
       </c>
       <c r="G768" t="s">
         <v>14</v>
@@ -43905,7 +43959,7 @@
       </c>
       <c r="F769" s="4">
         <f t="shared" si="11"/>
-        <v>0.56967078189300413</v>
+        <v>56.967078189300416</v>
       </c>
       <c r="G769" t="s">
         <v>14</v>
@@ -43953,7 +44007,7 @@
       </c>
       <c r="F770" s="4">
         <f t="shared" si="11"/>
-        <v>2.31</v>
+        <v>231</v>
       </c>
       <c r="G770" t="s">
         <v>20</v>
@@ -44000,8 +44054,8 @@
         <v>109106</v>
       </c>
       <c r="F771" s="4">
-        <f t="shared" ref="F771:F834" si="12">E771/D771</f>
-        <v>0.86867834394904464</v>
+        <f t="shared" ref="F771:F834" si="12">E771/D771*100</f>
+        <v>86.867834394904463</v>
       </c>
       <c r="G771" t="s">
         <v>14</v>
@@ -44049,7 +44103,7 @@
       </c>
       <c r="F772" s="4">
         <f t="shared" si="12"/>
-        <v>2.7074418604651163</v>
+        <v>270.74418604651163</v>
       </c>
       <c r="G772" t="s">
         <v>20</v>
@@ -44097,7 +44151,7 @@
       </c>
       <c r="F773" s="4">
         <f t="shared" si="12"/>
-        <v>0.49446428571428569</v>
+        <v>49.446428571428569</v>
       </c>
       <c r="G773" t="s">
         <v>74</v>
@@ -44145,7 +44199,7 @@
       </c>
       <c r="F774" s="4">
         <f t="shared" si="12"/>
-        <v>1.1335962566844919</v>
+        <v>113.3596256684492</v>
       </c>
       <c r="G774" t="s">
         <v>20</v>
@@ -44193,7 +44247,7 @@
       </c>
       <c r="F775" s="4">
         <f t="shared" si="12"/>
-        <v>1.9055555555555554</v>
+        <v>190.55555555555554</v>
       </c>
       <c r="G775" t="s">
         <v>20</v>
@@ -44241,7 +44295,7 @@
       </c>
       <c r="F776" s="4">
         <f t="shared" si="12"/>
-        <v>1.355</v>
+        <v>135.5</v>
       </c>
       <c r="G776" t="s">
         <v>20</v>
@@ -44289,7 +44343,7 @@
       </c>
       <c r="F777" s="4">
         <f t="shared" si="12"/>
-        <v>0.10297872340425532</v>
+        <v>10.297872340425531</v>
       </c>
       <c r="G777" t="s">
         <v>14</v>
@@ -44337,7 +44391,7 @@
       </c>
       <c r="F778" s="4">
         <f t="shared" si="12"/>
-        <v>0.65544223826714798</v>
+        <v>65.544223826714799</v>
       </c>
       <c r="G778" t="s">
         <v>14</v>
@@ -44385,7 +44439,7 @@
       </c>
       <c r="F779" s="4">
         <f t="shared" si="12"/>
-        <v>0.49026652452025588</v>
+        <v>49.026652452025587</v>
       </c>
       <c r="G779" t="s">
         <v>14</v>
@@ -44433,7 +44487,7 @@
       </c>
       <c r="F780" s="4">
         <f t="shared" si="12"/>
-        <v>7.8792307692307695</v>
+        <v>787.92307692307691</v>
       </c>
       <c r="G780" t="s">
         <v>20</v>
@@ -44481,7 +44535,7 @@
       </c>
       <c r="F781" s="4">
         <f t="shared" si="12"/>
-        <v>0.80306347746090156</v>
+        <v>80.306347746090154</v>
       </c>
       <c r="G781" t="s">
         <v>14</v>
@@ -44529,7 +44583,7 @@
       </c>
       <c r="F782" s="4">
         <f t="shared" si="12"/>
-        <v>1.0629411764705883</v>
+        <v>106.29411764705883</v>
       </c>
       <c r="G782" t="s">
         <v>20</v>
@@ -44577,7 +44631,7 @@
       </c>
       <c r="F783" s="4">
         <f t="shared" si="12"/>
-        <v>0.50735632183908042</v>
+        <v>50.735632183908038</v>
       </c>
       <c r="G783" t="s">
         <v>74</v>
@@ -44625,7 +44679,7 @@
       </c>
       <c r="F784" s="4">
         <f t="shared" si="12"/>
-        <v>2.153137254901961</v>
+        <v>215.31372549019611</v>
       </c>
       <c r="G784" t="s">
         <v>20</v>
@@ -44673,7 +44727,7 @@
       </c>
       <c r="F785" s="4">
         <f t="shared" si="12"/>
-        <v>1.4122972972972974</v>
+        <v>141.22972972972974</v>
       </c>
       <c r="G785" t="s">
         <v>20</v>
@@ -44721,7 +44775,7 @@
       </c>
       <c r="F786" s="4">
         <f t="shared" si="12"/>
-        <v>1.1533745781777278</v>
+        <v>115.33745781777279</v>
       </c>
       <c r="G786" t="s">
         <v>20</v>
@@ -44769,7 +44823,7 @@
       </c>
       <c r="F787" s="4">
         <f t="shared" si="12"/>
-        <v>1.9311940298507462</v>
+        <v>193.11940298507463</v>
       </c>
       <c r="G787" t="s">
         <v>20</v>
@@ -44817,7 +44871,7 @@
       </c>
       <c r="F788" s="4">
         <f t="shared" si="12"/>
-        <v>7.2973333333333334</v>
+        <v>729.73333333333335</v>
       </c>
       <c r="G788" t="s">
         <v>20</v>
@@ -44865,7 +44919,7 @@
       </c>
       <c r="F789" s="4">
         <f t="shared" si="12"/>
-        <v>0.99663398692810456</v>
+        <v>99.66339869281046</v>
       </c>
       <c r="G789" t="s">
         <v>14</v>
@@ -44913,7 +44967,7 @@
       </c>
       <c r="F790" s="4">
         <f t="shared" si="12"/>
-        <v>0.88166666666666671</v>
+        <v>88.166666666666671</v>
       </c>
       <c r="G790" t="s">
         <v>47</v>
@@ -44961,7 +45015,7 @@
       </c>
       <c r="F791" s="4">
         <f t="shared" si="12"/>
-        <v>0.37233333333333335</v>
+        <v>37.233333333333334</v>
       </c>
       <c r="G791" t="s">
         <v>14</v>
@@ -45009,7 +45063,7 @@
       </c>
       <c r="F792" s="4">
         <f t="shared" si="12"/>
-        <v>0.30540075309306081</v>
+        <v>30.540075309306079</v>
       </c>
       <c r="G792" t="s">
         <v>74</v>
@@ -45057,7 +45111,7 @@
       </c>
       <c r="F793" s="4">
         <f t="shared" si="12"/>
-        <v>0.25714285714285712</v>
+        <v>25.714285714285712</v>
       </c>
       <c r="G793" t="s">
         <v>14</v>
@@ -45105,7 +45159,7 @@
       </c>
       <c r="F794" s="4">
         <f t="shared" si="12"/>
-        <v>0.34</v>
+        <v>34</v>
       </c>
       <c r="G794" t="s">
         <v>14</v>
@@ -45153,7 +45207,7 @@
       </c>
       <c r="F795" s="4">
         <f t="shared" si="12"/>
-        <v>11.859090909090909</v>
+        <v>1185.909090909091</v>
       </c>
       <c r="G795" t="s">
         <v>20</v>
@@ -45201,7 +45255,7 @@
       </c>
       <c r="F796" s="4">
         <f t="shared" si="12"/>
-        <v>1.2539393939393939</v>
+        <v>125.39393939393939</v>
       </c>
       <c r="G796" t="s">
         <v>20</v>
@@ -45249,7 +45303,7 @@
       </c>
       <c r="F797" s="4">
         <f t="shared" si="12"/>
-        <v>0.14394366197183098</v>
+        <v>14.394366197183098</v>
       </c>
       <c r="G797" t="s">
         <v>14</v>
@@ -45297,7 +45351,7 @@
       </c>
       <c r="F798" s="4">
         <f t="shared" si="12"/>
-        <v>0.54807692307692313</v>
+        <v>54.807692307692314</v>
       </c>
       <c r="G798" t="s">
         <v>14</v>
@@ -45345,7 +45399,7 @@
       </c>
       <c r="F799" s="4">
         <f t="shared" si="12"/>
-        <v>1.0963157894736841</v>
+        <v>109.63157894736841</v>
       </c>
       <c r="G799" t="s">
         <v>20</v>
@@ -45393,7 +45447,7 @@
       </c>
       <c r="F800" s="4">
         <f t="shared" si="12"/>
-        <v>1.8847058823529412</v>
+        <v>188.47058823529412</v>
       </c>
       <c r="G800" t="s">
         <v>20</v>
@@ -45441,7 +45495,7 @@
       </c>
       <c r="F801" s="4">
         <f t="shared" si="12"/>
-        <v>0.87008284023668636</v>
+        <v>87.008284023668637</v>
       </c>
       <c r="G801" t="s">
         <v>14</v>
@@ -45489,7 +45543,7 @@
       </c>
       <c r="F802" s="4">
         <f t="shared" si="12"/>
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G802" t="s">
         <v>14</v>
@@ -45537,7 +45591,7 @@
       </c>
       <c r="F803" s="4">
         <f t="shared" si="12"/>
-        <v>2.0291304347826089</v>
+        <v>202.9130434782609</v>
       </c>
       <c r="G803" t="s">
         <v>20</v>
@@ -45585,7 +45639,7 @@
       </c>
       <c r="F804" s="4">
         <f t="shared" si="12"/>
-        <v>1.9703225806451612</v>
+        <v>197.03225806451613</v>
       </c>
       <c r="G804" t="s">
         <v>20</v>
@@ -45633,7 +45687,7 @@
       </c>
       <c r="F805" s="4">
         <f t="shared" si="12"/>
-        <v>1.07</v>
+        <v>107</v>
       </c>
       <c r="G805" t="s">
         <v>20</v>
@@ -45681,7 +45735,7 @@
       </c>
       <c r="F806" s="4">
         <f t="shared" si="12"/>
-        <v>2.6873076923076922</v>
+        <v>268.73076923076923</v>
       </c>
       <c r="G806" t="s">
         <v>20</v>
@@ -45729,7 +45783,7 @@
       </c>
       <c r="F807" s="4">
         <f t="shared" si="12"/>
-        <v>0.50845360824742269</v>
+        <v>50.845360824742272</v>
       </c>
       <c r="G807" t="s">
         <v>14</v>
@@ -45777,7 +45831,7 @@
       </c>
       <c r="F808" s="4">
         <f t="shared" si="12"/>
-        <v>11.802857142857142</v>
+        <v>1180.2857142857142</v>
       </c>
       <c r="G808" t="s">
         <v>20</v>
@@ -45825,7 +45879,7 @@
       </c>
       <c r="F809" s="4">
         <f t="shared" si="12"/>
-        <v>2.64</v>
+        <v>264</v>
       </c>
       <c r="G809" t="s">
         <v>20</v>
@@ -45873,7 +45927,7 @@
       </c>
       <c r="F810" s="4">
         <f t="shared" si="12"/>
-        <v>0.30442307692307691</v>
+        <v>30.44230769230769</v>
       </c>
       <c r="G810" t="s">
         <v>14</v>
@@ -45921,7 +45975,7 @@
       </c>
       <c r="F811" s="4">
         <f t="shared" si="12"/>
-        <v>0.62880681818181816</v>
+        <v>62.880681818181813</v>
       </c>
       <c r="G811" t="s">
         <v>14</v>
@@ -45969,7 +46023,7 @@
       </c>
       <c r="F812" s="4">
         <f t="shared" si="12"/>
-        <v>1.9312499999999999</v>
+        <v>193.125</v>
       </c>
       <c r="G812" t="s">
         <v>20</v>
@@ -46017,7 +46071,7 @@
       </c>
       <c r="F813" s="4">
         <f t="shared" si="12"/>
-        <v>0.77102702702702708</v>
+        <v>77.102702702702715</v>
       </c>
       <c r="G813" t="s">
         <v>14</v>
@@ -46065,7 +46119,7 @@
       </c>
       <c r="F814" s="4">
         <f t="shared" si="12"/>
-        <v>2.2552763819095478</v>
+        <v>225.52763819095478</v>
       </c>
       <c r="G814" t="s">
         <v>20</v>
@@ -46113,7 +46167,7 @@
       </c>
       <c r="F815" s="4">
         <f t="shared" si="12"/>
-        <v>2.3940625</v>
+        <v>239.40625</v>
       </c>
       <c r="G815" t="s">
         <v>20</v>
@@ -46161,7 +46215,7 @@
       </c>
       <c r="F816" s="4">
         <f t="shared" si="12"/>
-        <v>0.921875</v>
+        <v>92.1875</v>
       </c>
       <c r="G816" t="s">
         <v>14</v>
@@ -46209,7 +46263,7 @@
       </c>
       <c r="F817" s="4">
         <f t="shared" si="12"/>
-        <v>1.3023333333333333</v>
+        <v>130.23333333333335</v>
       </c>
       <c r="G817" t="s">
         <v>20</v>
@@ -46257,7 +46311,7 @@
       </c>
       <c r="F818" s="4">
         <f t="shared" si="12"/>
-        <v>6.1521739130434785</v>
+        <v>615.21739130434787</v>
       </c>
       <c r="G818" t="s">
         <v>20</v>
@@ -46305,7 +46359,7 @@
       </c>
       <c r="F819" s="4">
         <f t="shared" si="12"/>
-        <v>3.687953216374269</v>
+        <v>368.79532163742692</v>
       </c>
       <c r="G819" t="s">
         <v>20</v>
@@ -46353,7 +46407,7 @@
       </c>
       <c r="F820" s="4">
         <f t="shared" si="12"/>
-        <v>10.948571428571428</v>
+        <v>1094.8571428571429</v>
       </c>
       <c r="G820" t="s">
         <v>20</v>
@@ -46401,7 +46455,7 @@
       </c>
       <c r="F821" s="4">
         <f t="shared" si="12"/>
-        <v>0.50662921348314605</v>
+        <v>50.662921348314605</v>
       </c>
       <c r="G821" t="s">
         <v>14</v>
@@ -46449,7 +46503,7 @@
       </c>
       <c r="F822" s="4">
         <f t="shared" si="12"/>
-        <v>8.0060000000000002</v>
+        <v>800.6</v>
       </c>
       <c r="G822" t="s">
         <v>20</v>
@@ -46497,7 +46551,7 @@
       </c>
       <c r="F823" s="4">
         <f t="shared" si="12"/>
-        <v>2.9128571428571428</v>
+        <v>291.28571428571428</v>
       </c>
       <c r="G823" t="s">
         <v>20</v>
@@ -46545,7 +46599,7 @@
       </c>
       <c r="F824" s="4">
         <f t="shared" si="12"/>
-        <v>3.4996666666666667</v>
+        <v>349.9666666666667</v>
       </c>
       <c r="G824" t="s">
         <v>20</v>
@@ -46593,7 +46647,7 @@
       </c>
       <c r="F825" s="4">
         <f t="shared" si="12"/>
-        <v>3.5707317073170732</v>
+        <v>357.07317073170731</v>
       </c>
       <c r="G825" t="s">
         <v>20</v>
@@ -46641,7 +46695,7 @@
       </c>
       <c r="F826" s="4">
         <f t="shared" si="12"/>
-        <v>1.2648941176470587</v>
+        <v>126.48941176470588</v>
       </c>
       <c r="G826" t="s">
         <v>20</v>
@@ -46689,7 +46743,7 @@
       </c>
       <c r="F827" s="4">
         <f t="shared" si="12"/>
-        <v>3.875</v>
+        <v>387.5</v>
       </c>
       <c r="G827" t="s">
         <v>20</v>
@@ -46737,7 +46791,7 @@
       </c>
       <c r="F828" s="4">
         <f t="shared" si="12"/>
-        <v>4.5703571428571426</v>
+        <v>457.03571428571428</v>
       </c>
       <c r="G828" t="s">
         <v>20</v>
@@ -46785,7 +46839,7 @@
       </c>
       <c r="F829" s="4">
         <f t="shared" si="12"/>
-        <v>2.6669565217391304</v>
+        <v>266.69565217391306</v>
       </c>
       <c r="G829" t="s">
         <v>20</v>
@@ -46833,7 +46887,7 @@
       </c>
       <c r="F830" s="4">
         <f t="shared" si="12"/>
-        <v>0.69</v>
+        <v>69</v>
       </c>
       <c r="G830" t="s">
         <v>14</v>
@@ -46881,7 +46935,7 @@
       </c>
       <c r="F831" s="4">
         <f t="shared" si="12"/>
-        <v>0.51343749999999999</v>
+        <v>51.34375</v>
       </c>
       <c r="G831" t="s">
         <v>14</v>
@@ -46929,7 +46983,7 @@
       </c>
       <c r="F832" s="4">
         <f t="shared" si="12"/>
-        <v>1.1710526315789473E-2</v>
+        <v>1.1710526315789473</v>
       </c>
       <c r="G832" t="s">
         <v>14</v>
@@ -46977,7 +47031,7 @@
       </c>
       <c r="F833" s="4">
         <f t="shared" si="12"/>
-        <v>1.089773429454171</v>
+        <v>108.97734294541709</v>
       </c>
       <c r="G833" t="s">
         <v>20</v>
@@ -47025,7 +47079,7 @@
       </c>
       <c r="F834" s="4">
         <f t="shared" si="12"/>
-        <v>3.1517592592592591</v>
+        <v>315.17592592592592</v>
       </c>
       <c r="G834" t="s">
         <v>20</v>
@@ -47072,8 +47126,8 @@
         <v>10723</v>
       </c>
       <c r="F835" s="4">
-        <f t="shared" ref="F835:F898" si="13">E835/D835</f>
-        <v>1.5769117647058823</v>
+        <f t="shared" ref="F835:F898" si="13">E835/D835*100</f>
+        <v>157.69117647058823</v>
       </c>
       <c r="G835" t="s">
         <v>20</v>
@@ -47121,7 +47175,7 @@
       </c>
       <c r="F836" s="4">
         <f t="shared" si="13"/>
-        <v>1.5380821917808218</v>
+        <v>153.8082191780822</v>
       </c>
       <c r="G836" t="s">
         <v>20</v>
@@ -47169,7 +47223,7 @@
       </c>
       <c r="F837" s="4">
         <f t="shared" si="13"/>
-        <v>0.89738979118329465</v>
+        <v>89.738979118329468</v>
       </c>
       <c r="G837" t="s">
         <v>14</v>
@@ -47217,7 +47271,7 @@
       </c>
       <c r="F838" s="4">
         <f t="shared" si="13"/>
-        <v>0.75135802469135804</v>
+        <v>75.135802469135797</v>
       </c>
       <c r="G838" t="s">
         <v>14</v>
@@ -47265,7 +47319,7 @@
       </c>
       <c r="F839" s="4">
         <f t="shared" si="13"/>
-        <v>8.5288135593220336</v>
+        <v>852.88135593220341</v>
       </c>
       <c r="G839" t="s">
         <v>20</v>
@@ -47313,7 +47367,7 @@
       </c>
       <c r="F840" s="4">
         <f t="shared" si="13"/>
-        <v>1.3890625000000001</v>
+        <v>138.90625</v>
       </c>
       <c r="G840" t="s">
         <v>20</v>
@@ -47361,7 +47415,7 @@
       </c>
       <c r="F841" s="4">
         <f t="shared" si="13"/>
-        <v>1.9018181818181819</v>
+        <v>190.18181818181819</v>
       </c>
       <c r="G841" t="s">
         <v>20</v>
@@ -47409,7 +47463,7 @@
       </c>
       <c r="F842" s="4">
         <f t="shared" si="13"/>
-        <v>1.0024333619948409</v>
+        <v>100.24333619948409</v>
       </c>
       <c r="G842" t="s">
         <v>20</v>
@@ -47457,7 +47511,7 @@
       </c>
       <c r="F843" s="4">
         <f t="shared" si="13"/>
-        <v>1.4275824175824177</v>
+        <v>142.75824175824175</v>
       </c>
       <c r="G843" t="s">
         <v>20</v>
@@ -47505,7 +47559,7 @@
       </c>
       <c r="F844" s="4">
         <f t="shared" si="13"/>
-        <v>5.6313333333333331</v>
+        <v>563.13333333333333</v>
       </c>
       <c r="G844" t="s">
         <v>20</v>
@@ -47553,7 +47607,7 @@
       </c>
       <c r="F845" s="4">
         <f t="shared" si="13"/>
-        <v>0.30715909090909088</v>
+        <v>30.715909090909086</v>
       </c>
       <c r="G845" t="s">
         <v>14</v>
@@ -47601,7 +47655,7 @@
       </c>
       <c r="F846" s="4">
         <f t="shared" si="13"/>
-        <v>0.99397727272727276</v>
+        <v>99.39772727272728</v>
       </c>
       <c r="G846" t="s">
         <v>74</v>
@@ -47649,7 +47703,7 @@
       </c>
       <c r="F847" s="4">
         <f t="shared" si="13"/>
-        <v>1.9754935622317598</v>
+        <v>197.54935622317598</v>
       </c>
       <c r="G847" t="s">
         <v>20</v>
@@ -47697,7 +47751,7 @@
       </c>
       <c r="F848" s="4">
         <f t="shared" si="13"/>
-        <v>5.085</v>
+        <v>508.5</v>
       </c>
       <c r="G848" t="s">
         <v>20</v>
@@ -47745,7 +47799,7 @@
       </c>
       <c r="F849" s="4">
         <f t="shared" si="13"/>
-        <v>2.3774468085106384</v>
+        <v>237.74468085106383</v>
       </c>
       <c r="G849" t="s">
         <v>20</v>
@@ -47793,7 +47847,7 @@
       </c>
       <c r="F850" s="4">
         <f t="shared" si="13"/>
-        <v>3.3846875000000001</v>
+        <v>338.46875</v>
       </c>
       <c r="G850" t="s">
         <v>20</v>
@@ -47841,7 +47895,7 @@
       </c>
       <c r="F851" s="4">
         <f t="shared" si="13"/>
-        <v>1.3308955223880596</v>
+        <v>133.08955223880596</v>
       </c>
       <c r="G851" t="s">
         <v>20</v>
@@ -47889,7 +47943,7 @@
       </c>
       <c r="F852" s="4">
         <f t="shared" si="13"/>
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="G852" t="s">
         <v>14</v>
@@ -47937,7 +47991,7 @@
       </c>
       <c r="F853" s="4">
         <f t="shared" si="13"/>
-        <v>2.0779999999999998</v>
+        <v>207.79999999999998</v>
       </c>
       <c r="G853" t="s">
         <v>20</v>
@@ -47985,7 +48039,7 @@
       </c>
       <c r="F854" s="4">
         <f t="shared" si="13"/>
-        <v>0.51122448979591839</v>
+        <v>51.122448979591837</v>
       </c>
       <c r="G854" t="s">
         <v>14</v>
@@ -48033,7 +48087,7 @@
       </c>
       <c r="F855" s="4">
         <f t="shared" si="13"/>
-        <v>6.5205847953216374</v>
+        <v>652.05847953216369</v>
       </c>
       <c r="G855" t="s">
         <v>20</v>
@@ -48081,7 +48135,7 @@
       </c>
       <c r="F856" s="4">
         <f t="shared" si="13"/>
-        <v>1.1363099415204678</v>
+        <v>113.63099415204678</v>
       </c>
       <c r="G856" t="s">
         <v>20</v>
@@ -48129,7 +48183,7 @@
       </c>
       <c r="F857" s="4">
         <f t="shared" si="13"/>
-        <v>1.0237606837606839</v>
+        <v>102.37606837606839</v>
       </c>
       <c r="G857" t="s">
         <v>20</v>
@@ -48177,7 +48231,7 @@
       </c>
       <c r="F858" s="4">
         <f t="shared" si="13"/>
-        <v>3.5658333333333334</v>
+        <v>356.58333333333331</v>
       </c>
       <c r="G858" t="s">
         <v>20</v>
@@ -48225,7 +48279,7 @@
       </c>
       <c r="F859" s="4">
         <f t="shared" si="13"/>
-        <v>1.3986792452830188</v>
+        <v>139.86792452830187</v>
       </c>
       <c r="G859" t="s">
         <v>20</v>
@@ -48273,7 +48327,7 @@
       </c>
       <c r="F860" s="4">
         <f t="shared" si="13"/>
-        <v>0.69450000000000001</v>
+        <v>69.45</v>
       </c>
       <c r="G860" t="s">
         <v>14</v>
@@ -48321,7 +48375,7 @@
       </c>
       <c r="F861" s="4">
         <f t="shared" si="13"/>
-        <v>0.35534246575342465</v>
+        <v>35.534246575342465</v>
       </c>
       <c r="G861" t="s">
         <v>14</v>
@@ -48369,7 +48423,7 @@
       </c>
       <c r="F862" s="4">
         <f t="shared" si="13"/>
-        <v>2.5165000000000002</v>
+        <v>251.65</v>
       </c>
       <c r="G862" t="s">
         <v>20</v>
@@ -48417,7 +48471,7 @@
       </c>
       <c r="F863" s="4">
         <f t="shared" si="13"/>
-        <v>1.0587500000000001</v>
+        <v>105.87500000000001</v>
       </c>
       <c r="G863" t="s">
         <v>20</v>
@@ -48465,7 +48519,7 @@
       </c>
       <c r="F864" s="4">
         <f t="shared" si="13"/>
-        <v>1.8742857142857143</v>
+        <v>187.42857142857144</v>
       </c>
       <c r="G864" t="s">
         <v>20</v>
@@ -48513,7 +48567,7 @@
       </c>
       <c r="F865" s="4">
         <f t="shared" si="13"/>
-        <v>3.8678571428571429</v>
+        <v>386.78571428571428</v>
       </c>
       <c r="G865" t="s">
         <v>20</v>
@@ -48561,7 +48615,7 @@
       </c>
       <c r="F866" s="4">
         <f t="shared" si="13"/>
-        <v>3.4707142857142856</v>
+        <v>347.07142857142856</v>
       </c>
       <c r="G866" t="s">
         <v>20</v>
@@ -48609,7 +48663,7 @@
       </c>
       <c r="F867" s="4">
         <f t="shared" si="13"/>
-        <v>1.8582098765432098</v>
+        <v>185.82098765432099</v>
       </c>
       <c r="G867" t="s">
         <v>20</v>
@@ -48657,7 +48711,7 @@
       </c>
       <c r="F868" s="4">
         <f t="shared" si="13"/>
-        <v>0.43241247264770238</v>
+        <v>43.241247264770237</v>
       </c>
       <c r="G868" t="s">
         <v>74</v>
@@ -48705,7 +48759,7 @@
       </c>
       <c r="F869" s="4">
         <f t="shared" si="13"/>
-        <v>1.6243749999999999</v>
+        <v>162.4375</v>
       </c>
       <c r="G869" t="s">
         <v>20</v>
@@ -48753,7 +48807,7 @@
       </c>
       <c r="F870" s="4">
         <f t="shared" si="13"/>
-        <v>1.8484285714285715</v>
+        <v>184.84285714285716</v>
       </c>
       <c r="G870" t="s">
         <v>20</v>
@@ -48801,7 +48855,7 @@
       </c>
       <c r="F871" s="4">
         <f t="shared" si="13"/>
-        <v>0.23703520691785052</v>
+        <v>23.703520691785052</v>
       </c>
       <c r="G871" t="s">
         <v>14</v>
@@ -48849,7 +48903,7 @@
       </c>
       <c r="F872" s="4">
         <f t="shared" si="13"/>
-        <v>0.89870129870129867</v>
+        <v>89.870129870129873</v>
       </c>
       <c r="G872" t="s">
         <v>14</v>
@@ -48897,7 +48951,7 @@
       </c>
       <c r="F873" s="4">
         <f t="shared" si="13"/>
-        <v>2.7260419580419581</v>
+        <v>272.6041958041958</v>
       </c>
       <c r="G873" t="s">
         <v>20</v>
@@ -48945,7 +48999,7 @@
       </c>
       <c r="F874" s="4">
         <f t="shared" si="13"/>
-        <v>1.7004255319148935</v>
+        <v>170.04255319148936</v>
       </c>
       <c r="G874" t="s">
         <v>20</v>
@@ -48993,7 +49047,7 @@
       </c>
       <c r="F875" s="4">
         <f t="shared" si="13"/>
-        <v>1.8828503562945369</v>
+        <v>188.28503562945369</v>
       </c>
       <c r="G875" t="s">
         <v>20</v>
@@ -49041,7 +49095,7 @@
       </c>
       <c r="F876" s="4">
         <f t="shared" si="13"/>
-        <v>3.4693532338308457</v>
+        <v>346.93532338308455</v>
       </c>
       <c r="G876" t="s">
         <v>20</v>
@@ -49089,7 +49143,7 @@
       </c>
       <c r="F877" s="4">
         <f t="shared" si="13"/>
-        <v>0.6917721518987342</v>
+        <v>69.177215189873422</v>
       </c>
       <c r="G877" t="s">
         <v>14</v>
@@ -49137,7 +49191,7 @@
       </c>
       <c r="F878" s="4">
         <f t="shared" si="13"/>
-        <v>0.25433734939759034</v>
+        <v>25.433734939759034</v>
       </c>
       <c r="G878" t="s">
         <v>14</v>
@@ -49185,7 +49239,7 @@
       </c>
       <c r="F879" s="4">
         <f t="shared" si="13"/>
-        <v>0.77400977995110021</v>
+        <v>77.400977995110026</v>
       </c>
       <c r="G879" t="s">
         <v>14</v>
@@ -49233,7 +49287,7 @@
       </c>
       <c r="F880" s="4">
         <f t="shared" si="13"/>
-        <v>0.37481481481481482</v>
+        <v>37.481481481481481</v>
       </c>
       <c r="G880" t="s">
         <v>14</v>
@@ -49281,7 +49335,7 @@
       </c>
       <c r="F881" s="4">
         <f t="shared" si="13"/>
-        <v>5.4379999999999997</v>
+        <v>543.79999999999995</v>
       </c>
       <c r="G881" t="s">
         <v>20</v>
@@ -49329,7 +49383,7 @@
       </c>
       <c r="F882" s="4">
         <f t="shared" si="13"/>
-        <v>2.2852189349112426</v>
+        <v>228.52189349112427</v>
       </c>
       <c r="G882" t="s">
         <v>20</v>
@@ -49377,7 +49431,7 @@
       </c>
       <c r="F883" s="4">
         <f t="shared" si="13"/>
-        <v>0.38948339483394834</v>
+        <v>38.948339483394832</v>
       </c>
       <c r="G883" t="s">
         <v>14</v>
@@ -49425,7 +49479,7 @@
       </c>
       <c r="F884" s="4">
         <f t="shared" si="13"/>
-        <v>3.7</v>
+        <v>370</v>
       </c>
       <c r="G884" t="s">
         <v>20</v>
@@ -49473,7 +49527,7 @@
       </c>
       <c r="F885" s="4">
         <f t="shared" si="13"/>
-        <v>2.3791176470588233</v>
+        <v>237.91176470588232</v>
       </c>
       <c r="G885" t="s">
         <v>20</v>
@@ -49521,7 +49575,7 @@
       </c>
       <c r="F886" s="4">
         <f t="shared" si="13"/>
-        <v>0.64036299765807958</v>
+        <v>64.036299765807954</v>
       </c>
       <c r="G886" t="s">
         <v>14</v>
@@ -49569,7 +49623,7 @@
       </c>
       <c r="F887" s="4">
         <f t="shared" si="13"/>
-        <v>1.1827777777777777</v>
+        <v>118.27777777777777</v>
       </c>
       <c r="G887" t="s">
         <v>20</v>
@@ -49617,7 +49671,7 @@
       </c>
       <c r="F888" s="4">
         <f t="shared" si="13"/>
-        <v>0.84824037184594958</v>
+        <v>84.824037184594957</v>
       </c>
       <c r="G888" t="s">
         <v>14</v>
@@ -49665,7 +49719,7 @@
       </c>
       <c r="F889" s="4">
         <f t="shared" si="13"/>
-        <v>0.29346153846153844</v>
+        <v>29.346153846153843</v>
       </c>
       <c r="G889" t="s">
         <v>14</v>
@@ -49713,7 +49767,7 @@
       </c>
       <c r="F890" s="4">
         <f t="shared" si="13"/>
-        <v>2.0989655172413793</v>
+        <v>209.89655172413794</v>
       </c>
       <c r="G890" t="s">
         <v>20</v>
@@ -49761,7 +49815,7 @@
       </c>
       <c r="F891" s="4">
         <f t="shared" si="13"/>
-        <v>1.697857142857143</v>
+        <v>169.78571428571431</v>
       </c>
       <c r="G891" t="s">
         <v>20</v>
@@ -49809,7 +49863,7 @@
       </c>
       <c r="F892" s="4">
         <f t="shared" si="13"/>
-        <v>1.1595907738095239</v>
+        <v>115.95907738095239</v>
       </c>
       <c r="G892" t="s">
         <v>20</v>
@@ -49857,7 +49911,7 @@
       </c>
       <c r="F893" s="4">
         <f t="shared" si="13"/>
-        <v>2.5859999999999999</v>
+        <v>258.59999999999997</v>
       </c>
       <c r="G893" t="s">
         <v>20</v>
@@ -49905,7 +49959,7 @@
       </c>
       <c r="F894" s="4">
         <f t="shared" si="13"/>
-        <v>2.3058333333333332</v>
+        <v>230.58333333333331</v>
       </c>
       <c r="G894" t="s">
         <v>20</v>
@@ -49953,7 +50007,7 @@
       </c>
       <c r="F895" s="4">
         <f t="shared" si="13"/>
-        <v>1.2821428571428573</v>
+        <v>128.21428571428572</v>
       </c>
       <c r="G895" t="s">
         <v>20</v>
@@ -50001,7 +50055,7 @@
       </c>
       <c r="F896" s="4">
         <f t="shared" si="13"/>
-        <v>1.8870588235294117</v>
+        <v>188.70588235294116</v>
       </c>
       <c r="G896" t="s">
         <v>20</v>
@@ -50049,7 +50103,7 @@
       </c>
       <c r="F897" s="4">
         <f t="shared" si="13"/>
-        <v>6.9511889862327911E-2</v>
+        <v>6.9511889862327907</v>
       </c>
       <c r="G897" t="s">
         <v>14</v>
@@ -50097,7 +50151,7 @@
       </c>
       <c r="F898" s="4">
         <f t="shared" si="13"/>
-        <v>7.7443434343434348</v>
+        <v>774.43434343434342</v>
       </c>
       <c r="G898" t="s">
         <v>20</v>
@@ -50144,8 +50198,8 @@
         <v>2437</v>
       </c>
       <c r="F899" s="4">
-        <f t="shared" ref="F899:F962" si="14">E899/D899</f>
-        <v>0.27693181818181817</v>
+        <f t="shared" ref="F899:F962" si="14">E899/D899*100</f>
+        <v>27.693181818181817</v>
       </c>
       <c r="G899" t="s">
         <v>14</v>
@@ -50193,7 +50247,7 @@
       </c>
       <c r="F900" s="4">
         <f t="shared" si="14"/>
-        <v>0.52479620323841425</v>
+        <v>52.479620323841424</v>
       </c>
       <c r="G900" t="s">
         <v>14</v>
@@ -50241,7 +50295,7 @@
       </c>
       <c r="F901" s="4">
         <f t="shared" si="14"/>
-        <v>4.0709677419354842</v>
+        <v>407.09677419354841</v>
       </c>
       <c r="G901" t="s">
         <v>20</v>
@@ -50289,7 +50343,7 @@
       </c>
       <c r="F902" s="4">
         <f t="shared" si="14"/>
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="G902" t="s">
         <v>14</v>
@@ -50337,7 +50391,7 @@
       </c>
       <c r="F903" s="4">
         <f t="shared" si="14"/>
-        <v>1.5617857142857143</v>
+        <v>156.17857142857144</v>
       </c>
       <c r="G903" t="s">
         <v>20</v>
@@ -50385,7 +50439,7 @@
       </c>
       <c r="F904" s="4">
         <f t="shared" si="14"/>
-        <v>2.5242857142857145</v>
+        <v>252.42857142857144</v>
       </c>
       <c r="G904" t="s">
         <v>20</v>
@@ -50433,7 +50487,7 @@
       </c>
       <c r="F905" s="4">
         <f t="shared" si="14"/>
-        <v>1.729268292682927E-2</v>
+        <v>1.729268292682927</v>
       </c>
       <c r="G905" t="s">
         <v>47</v>
@@ -50481,7 +50535,7 @@
       </c>
       <c r="F906" s="4">
         <f t="shared" si="14"/>
-        <v>0.12230769230769231</v>
+        <v>12.230769230769232</v>
       </c>
       <c r="G906" t="s">
         <v>14</v>
@@ -50529,7 +50583,7 @@
       </c>
       <c r="F907" s="4">
         <f t="shared" si="14"/>
-        <v>1.6398734177215191</v>
+        <v>163.98734177215189</v>
       </c>
       <c r="G907" t="s">
         <v>20</v>
@@ -50577,7 +50631,7 @@
       </c>
       <c r="F908" s="4">
         <f t="shared" si="14"/>
-        <v>1.6298181818181818</v>
+        <v>162.98181818181817</v>
       </c>
       <c r="G908" t="s">
         <v>20</v>
@@ -50625,7 +50679,7 @@
       </c>
       <c r="F909" s="4">
         <f t="shared" si="14"/>
-        <v>0.20252747252747252</v>
+        <v>20.252747252747252</v>
       </c>
       <c r="G909" t="s">
         <v>14</v>
@@ -50673,7 +50727,7 @@
       </c>
       <c r="F910" s="4">
         <f t="shared" si="14"/>
-        <v>3.1924083769633507</v>
+        <v>319.24083769633506</v>
       </c>
       <c r="G910" t="s">
         <v>20</v>
@@ -50721,7 +50775,7 @@
       </c>
       <c r="F911" s="4">
         <f t="shared" si="14"/>
-        <v>4.7894444444444444</v>
+        <v>478.94444444444446</v>
       </c>
       <c r="G911" t="s">
         <v>20</v>
@@ -50769,7 +50823,7 @@
       </c>
       <c r="F912" s="4">
         <f t="shared" si="14"/>
-        <v>0.19556634304207121</v>
+        <v>19.556634304207122</v>
       </c>
       <c r="G912" t="s">
         <v>74</v>
@@ -50817,7 +50871,7 @@
       </c>
       <c r="F913" s="4">
         <f t="shared" si="14"/>
-        <v>1.9894827586206896</v>
+        <v>198.94827586206895</v>
       </c>
       <c r="G913" t="s">
         <v>20</v>
@@ -50865,7 +50919,7 @@
       </c>
       <c r="F914" s="4">
         <f t="shared" si="14"/>
-        <v>7.95</v>
+        <v>795</v>
       </c>
       <c r="G914" t="s">
         <v>20</v>
@@ -50913,7 +50967,7 @@
       </c>
       <c r="F915" s="4">
         <f t="shared" si="14"/>
-        <v>0.50621082621082625</v>
+        <v>50.621082621082621</v>
       </c>
       <c r="G915" t="s">
         <v>14</v>
@@ -50961,7 +51015,7 @@
       </c>
       <c r="F916" s="4">
         <f t="shared" si="14"/>
-        <v>0.57437499999999997</v>
+        <v>57.4375</v>
       </c>
       <c r="G916" t="s">
         <v>14</v>
@@ -51009,7 +51063,7 @@
       </c>
       <c r="F917" s="4">
         <f t="shared" si="14"/>
-        <v>1.5562827640984909</v>
+        <v>155.62827640984909</v>
       </c>
       <c r="G917" t="s">
         <v>20</v>
@@ -51057,7 +51111,7 @@
       </c>
       <c r="F918" s="4">
         <f t="shared" si="14"/>
-        <v>0.36297297297297298</v>
+        <v>36.297297297297298</v>
       </c>
       <c r="G918" t="s">
         <v>14</v>
@@ -51105,7 +51159,7 @@
       </c>
       <c r="F919" s="4">
         <f t="shared" si="14"/>
-        <v>0.58250000000000002</v>
+        <v>58.25</v>
       </c>
       <c r="G919" t="s">
         <v>47</v>
@@ -51153,7 +51207,7 @@
       </c>
       <c r="F920" s="4">
         <f t="shared" si="14"/>
-        <v>2.3739473684210526</v>
+        <v>237.39473684210526</v>
       </c>
       <c r="G920" t="s">
         <v>20</v>
@@ -51201,7 +51255,7 @@
       </c>
       <c r="F921" s="4">
         <f t="shared" si="14"/>
-        <v>0.58750000000000002</v>
+        <v>58.75</v>
       </c>
       <c r="G921" t="s">
         <v>14</v>
@@ -51249,7 +51303,7 @@
       </c>
       <c r="F922" s="4">
         <f t="shared" si="14"/>
-        <v>1.8256603773584905</v>
+        <v>182.56603773584905</v>
       </c>
       <c r="G922" t="s">
         <v>20</v>
@@ -51297,7 +51351,7 @@
       </c>
       <c r="F923" s="4">
         <f t="shared" si="14"/>
-        <v>7.5436408977556111E-3</v>
+        <v>0.75436408977556113</v>
       </c>
       <c r="G923" t="s">
         <v>14</v>
@@ -51345,7 +51399,7 @@
       </c>
       <c r="F924" s="4">
         <f t="shared" si="14"/>
-        <v>1.7595330739299611</v>
+        <v>175.95330739299609</v>
       </c>
       <c r="G924" t="s">
         <v>20</v>
@@ -51393,7 +51447,7 @@
       </c>
       <c r="F925" s="4">
         <f t="shared" si="14"/>
-        <v>2.3788235294117648</v>
+        <v>237.88235294117646</v>
       </c>
       <c r="G925" t="s">
         <v>20</v>
@@ -51441,7 +51495,7 @@
       </c>
       <c r="F926" s="4">
         <f t="shared" si="14"/>
-        <v>4.8805076142131982</v>
+        <v>488.05076142131981</v>
       </c>
       <c r="G926" t="s">
         <v>20</v>
@@ -51489,7 +51543,7 @@
       </c>
       <c r="F927" s="4">
         <f t="shared" si="14"/>
-        <v>2.2406666666666668</v>
+        <v>224.06666666666669</v>
       </c>
       <c r="G927" t="s">
         <v>20</v>
@@ -51537,7 +51591,7 @@
       </c>
       <c r="F928" s="4">
         <f t="shared" si="14"/>
-        <v>0.18126436781609195</v>
+        <v>18.126436781609197</v>
       </c>
       <c r="G928" t="s">
         <v>14</v>
@@ -51585,7 +51639,7 @@
       </c>
       <c r="F929" s="4">
         <f t="shared" si="14"/>
-        <v>0.45847222222222223</v>
+        <v>45.847222222222221</v>
       </c>
       <c r="G929" t="s">
         <v>14</v>
@@ -51633,7 +51687,7 @@
       </c>
       <c r="F930" s="4">
         <f t="shared" si="14"/>
-        <v>1.1731541218637993</v>
+        <v>117.31541218637993</v>
       </c>
       <c r="G930" t="s">
         <v>20</v>
@@ -51681,7 +51735,7 @@
       </c>
       <c r="F931" s="4">
         <f t="shared" si="14"/>
-        <v>2.173090909090909</v>
+        <v>217.30909090909088</v>
       </c>
       <c r="G931" t="s">
         <v>20</v>
@@ -51729,7 +51783,7 @@
       </c>
       <c r="F932" s="4">
         <f t="shared" si="14"/>
-        <v>1.1228571428571428</v>
+        <v>112.28571428571428</v>
       </c>
       <c r="G932" t="s">
         <v>20</v>
@@ -51777,7 +51831,7 @@
       </c>
       <c r="F933" s="4">
         <f t="shared" si="14"/>
-        <v>0.72518987341772156</v>
+        <v>72.51898734177216</v>
       </c>
       <c r="G933" t="s">
         <v>14</v>
@@ -51825,7 +51879,7 @@
       </c>
       <c r="F934" s="4">
         <f t="shared" si="14"/>
-        <v>2.1230434782608696</v>
+        <v>212.30434782608697</v>
       </c>
       <c r="G934" t="s">
         <v>20</v>
@@ -51873,7 +51927,7 @@
       </c>
       <c r="F935" s="4">
         <f t="shared" si="14"/>
-        <v>2.3974657534246577</v>
+        <v>239.74657534246577</v>
       </c>
       <c r="G935" t="s">
         <v>20</v>
@@ -51921,7 +51975,7 @@
       </c>
       <c r="F936" s="4">
         <f t="shared" si="14"/>
-        <v>1.8193548387096774</v>
+        <v>181.93548387096774</v>
       </c>
       <c r="G936" t="s">
         <v>20</v>
@@ -51969,7 +52023,7 @@
       </c>
       <c r="F937" s="4">
         <f t="shared" si="14"/>
-        <v>1.6413114754098361</v>
+        <v>164.13114754098362</v>
       </c>
       <c r="G937" t="s">
         <v>20</v>
@@ -52017,7 +52071,7 @@
       </c>
       <c r="F938" s="4">
         <f t="shared" si="14"/>
-        <v>1.6375968992248063E-2</v>
+        <v>1.6375968992248062</v>
       </c>
       <c r="G938" t="s">
         <v>14</v>
@@ -52065,7 +52119,7 @@
       </c>
       <c r="F939" s="4">
         <f t="shared" si="14"/>
-        <v>0.49643859649122807</v>
+        <v>49.64385964912281</v>
       </c>
       <c r="G939" t="s">
         <v>74</v>
@@ -52113,7 +52167,7 @@
       </c>
       <c r="F940" s="4">
         <f t="shared" si="14"/>
-        <v>1.0970652173913042</v>
+        <v>109.70652173913042</v>
       </c>
       <c r="G940" t="s">
         <v>20</v>
@@ -52161,7 +52215,7 @@
       </c>
       <c r="F941" s="4">
         <f t="shared" si="14"/>
-        <v>0.49217948717948717</v>
+        <v>49.217948717948715</v>
       </c>
       <c r="G941" t="s">
         <v>14</v>
@@ -52209,7 +52263,7 @@
       </c>
       <c r="F942" s="4">
         <f t="shared" si="14"/>
-        <v>0.62232323232323228</v>
+        <v>62.232323232323225</v>
       </c>
       <c r="G942" t="s">
         <v>47</v>
@@ -52257,7 +52311,7 @@
       </c>
       <c r="F943" s="4">
         <f t="shared" si="14"/>
-        <v>0.1305813953488372</v>
+        <v>13.05813953488372</v>
       </c>
       <c r="G943" t="s">
         <v>14</v>
@@ -52305,7 +52359,7 @@
       </c>
       <c r="F944" s="4">
         <f t="shared" si="14"/>
-        <v>0.64635416666666667</v>
+        <v>64.635416666666671</v>
       </c>
       <c r="G944" t="s">
         <v>14</v>
@@ -52353,7 +52407,7 @@
       </c>
       <c r="F945" s="4">
         <f t="shared" si="14"/>
-        <v>1.5958666666666668</v>
+        <v>159.58666666666667</v>
       </c>
       <c r="G945" t="s">
         <v>20</v>
@@ -52401,7 +52455,7 @@
       </c>
       <c r="F946" s="4">
         <f t="shared" si="14"/>
-        <v>0.81420000000000003</v>
+        <v>81.42</v>
       </c>
       <c r="G946" t="s">
         <v>14</v>
@@ -52449,7 +52503,7 @@
       </c>
       <c r="F947" s="4">
         <f t="shared" si="14"/>
-        <v>0.32444767441860467</v>
+        <v>32.444767441860463</v>
       </c>
       <c r="G947" t="s">
         <v>14</v>
@@ -52497,7 +52551,7 @@
       </c>
       <c r="F948" s="4">
         <f t="shared" si="14"/>
-        <v>9.9141184124918666E-2</v>
+        <v>9.9141184124918666</v>
       </c>
       <c r="G948" t="s">
         <v>14</v>
@@ -52545,7 +52599,7 @@
       </c>
       <c r="F949" s="4">
         <f t="shared" si="14"/>
-        <v>0.26694444444444443</v>
+        <v>26.694444444444443</v>
       </c>
       <c r="G949" t="s">
         <v>14</v>
@@ -52593,7 +52647,7 @@
       </c>
       <c r="F950" s="4">
         <f t="shared" si="14"/>
-        <v>0.62957446808510642</v>
+        <v>62.957446808510639</v>
       </c>
       <c r="G950" t="s">
         <v>74</v>
@@ -52641,7 +52695,7 @@
       </c>
       <c r="F951" s="4">
         <f t="shared" si="14"/>
-        <v>1.6135593220338984</v>
+        <v>161.35593220338984</v>
       </c>
       <c r="G951" t="s">
         <v>20</v>
@@ -52689,7 +52743,7 @@
       </c>
       <c r="F952" s="4">
         <f t="shared" si="14"/>
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="G952" t="s">
         <v>14</v>
@@ -52737,7 +52791,7 @@
       </c>
       <c r="F953" s="4">
         <f t="shared" si="14"/>
-        <v>10.969379310344827</v>
+        <v>1096.9379310344827</v>
       </c>
       <c r="G953" t="s">
         <v>20</v>
@@ -52785,7 +52839,7 @@
       </c>
       <c r="F954" s="4">
         <f t="shared" si="14"/>
-        <v>0.70094158075601376</v>
+        <v>70.094158075601371</v>
       </c>
       <c r="G954" t="s">
         <v>74</v>
@@ -52833,7 +52887,7 @@
       </c>
       <c r="F955" s="4">
         <f t="shared" si="14"/>
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="G955" t="s">
         <v>14</v>
@@ -52881,7 +52935,7 @@
       </c>
       <c r="F956" s="4">
         <f t="shared" si="14"/>
-        <v>3.6709859154929578</v>
+        <v>367.0985915492958</v>
       </c>
       <c r="G956" t="s">
         <v>20</v>
@@ -52929,7 +52983,7 @@
       </c>
       <c r="F957" s="4">
         <f t="shared" si="14"/>
-        <v>11.09</v>
+        <v>1109</v>
       </c>
       <c r="G957" t="s">
         <v>20</v>
@@ -52977,7 +53031,7 @@
       </c>
       <c r="F958" s="4">
         <f t="shared" si="14"/>
-        <v>0.19028784648187633</v>
+        <v>19.028784648187631</v>
       </c>
       <c r="G958" t="s">
         <v>14</v>
@@ -53025,7 +53079,7 @@
       </c>
       <c r="F959" s="4">
         <f t="shared" si="14"/>
-        <v>1.2687755102040816</v>
+        <v>126.87755102040816</v>
       </c>
       <c r="G959" t="s">
         <v>20</v>
@@ -53073,7 +53127,7 @@
       </c>
       <c r="F960" s="4">
         <f t="shared" si="14"/>
-        <v>7.3463636363636367</v>
+        <v>734.63636363636363</v>
       </c>
       <c r="G960" t="s">
         <v>20</v>
@@ -53121,7 +53175,7 @@
       </c>
       <c r="F961" s="4">
         <f t="shared" si="14"/>
-        <v>4.5731034482758622E-2</v>
+        <v>4.5731034482758623</v>
       </c>
       <c r="G961" t="s">
         <v>14</v>
@@ -53169,7 +53223,7 @@
       </c>
       <c r="F962" s="4">
         <f t="shared" si="14"/>
-        <v>0.85054545454545449</v>
+        <v>85.054545454545448</v>
       </c>
       <c r="G962" t="s">
         <v>14</v>
@@ -53216,8 +53270,8 @@
         <v>6800</v>
       </c>
       <c r="F963" s="4">
-        <f t="shared" ref="F963:F1001" si="15">E963/D963</f>
-        <v>1.1929824561403508</v>
+        <f t="shared" ref="F963:F1001" si="15">E963/D963*100</f>
+        <v>119.29824561403508</v>
       </c>
       <c r="G963" t="s">
         <v>20</v>
@@ -53265,7 +53319,7 @@
       </c>
       <c r="F964" s="4">
         <f t="shared" si="15"/>
-        <v>2.9602777777777778</v>
+        <v>296.02777777777777</v>
       </c>
       <c r="G964" t="s">
         <v>20</v>
@@ -53313,7 +53367,7 @@
       </c>
       <c r="F965" s="4">
         <f t="shared" si="15"/>
-        <v>0.84694915254237291</v>
+        <v>84.694915254237287</v>
       </c>
       <c r="G965" t="s">
         <v>14</v>
@@ -53361,7 +53415,7 @@
       </c>
       <c r="F966" s="4">
         <f t="shared" si="15"/>
-        <v>3.5578378378378379</v>
+        <v>355.7837837837838</v>
       </c>
       <c r="G966" t="s">
         <v>20</v>
@@ -53409,7 +53463,7 @@
       </c>
       <c r="F967" s="4">
         <f t="shared" si="15"/>
-        <v>3.8640909090909092</v>
+        <v>386.40909090909093</v>
       </c>
       <c r="G967" t="s">
         <v>20</v>
@@ -53457,7 +53511,7 @@
       </c>
       <c r="F968" s="4">
         <f t="shared" si="15"/>
-        <v>7.9223529411764702</v>
+        <v>792.23529411764707</v>
       </c>
       <c r="G968" t="s">
         <v>20</v>
@@ -53505,7 +53559,7 @@
       </c>
       <c r="F969" s="4">
         <f t="shared" si="15"/>
-        <v>1.3703393665158372</v>
+        <v>137.03393665158373</v>
       </c>
       <c r="G969" t="s">
         <v>20</v>
@@ -53553,7 +53607,7 @@
       </c>
       <c r="F970" s="4">
         <f t="shared" si="15"/>
-        <v>3.3820833333333336</v>
+        <v>338.20833333333337</v>
       </c>
       <c r="G970" t="s">
         <v>20</v>
@@ -53601,7 +53655,7 @@
       </c>
       <c r="F971" s="4">
         <f t="shared" si="15"/>
-        <v>1.0822784810126582</v>
+        <v>108.22784810126582</v>
       </c>
       <c r="G971" t="s">
         <v>20</v>
@@ -53649,7 +53703,7 @@
       </c>
       <c r="F972" s="4">
         <f t="shared" si="15"/>
-        <v>0.60757639620653314</v>
+        <v>60.757639620653315</v>
       </c>
       <c r="G972" t="s">
         <v>14</v>
@@ -53697,7 +53751,7 @@
       </c>
       <c r="F973" s="4">
         <f t="shared" si="15"/>
-        <v>0.27725490196078434</v>
+        <v>27.725490196078432</v>
       </c>
       <c r="G973" t="s">
         <v>14</v>
@@ -53745,7 +53799,7 @@
       </c>
       <c r="F974" s="4">
         <f t="shared" si="15"/>
-        <v>2.283934426229508</v>
+        <v>228.3934426229508</v>
       </c>
       <c r="G974" t="s">
         <v>20</v>
@@ -53793,7 +53847,7 @@
       </c>
       <c r="F975" s="4">
         <f t="shared" si="15"/>
-        <v>0.21615194054500414</v>
+        <v>21.615194054500414</v>
       </c>
       <c r="G975" t="s">
         <v>14</v>
@@ -53841,7 +53895,7 @@
       </c>
       <c r="F976" s="4">
         <f t="shared" si="15"/>
-        <v>3.73875</v>
+        <v>373.875</v>
       </c>
       <c r="G976" t="s">
         <v>20</v>
@@ -53889,7 +53943,7 @@
       </c>
       <c r="F977" s="4">
         <f t="shared" si="15"/>
-        <v>1.5492592592592593</v>
+        <v>154.92592592592592</v>
       </c>
       <c r="G977" t="s">
         <v>20</v>
@@ -53937,7 +53991,7 @@
       </c>
       <c r="F978" s="4">
         <f t="shared" si="15"/>
-        <v>3.2214999999999998</v>
+        <v>322.14999999999998</v>
       </c>
       <c r="G978" t="s">
         <v>20</v>
@@ -53985,7 +54039,7 @@
       </c>
       <c r="F979" s="4">
         <f t="shared" si="15"/>
-        <v>0.73957142857142855</v>
+        <v>73.957142857142856</v>
       </c>
       <c r="G979" t="s">
         <v>14</v>
@@ -54033,7 +54087,7 @@
       </c>
       <c r="F980" s="4">
         <f t="shared" si="15"/>
-        <v>8.641</v>
+        <v>864.1</v>
       </c>
       <c r="G980" t="s">
         <v>20</v>
@@ -54081,7 +54135,7 @@
       </c>
       <c r="F981" s="4">
         <f t="shared" si="15"/>
-        <v>1.432624584717608</v>
+        <v>143.26245847176079</v>
       </c>
       <c r="G981" t="s">
         <v>20</v>
@@ -54129,7 +54183,7 @@
       </c>
       <c r="F982" s="4">
         <f t="shared" si="15"/>
-        <v>0.40281762295081969</v>
+        <v>40.281762295081968</v>
       </c>
       <c r="G982" t="s">
         <v>14</v>
@@ -54177,7 +54231,7 @@
       </c>
       <c r="F983" s="4">
         <f t="shared" si="15"/>
-        <v>1.7822388059701493</v>
+        <v>178.22388059701493</v>
       </c>
       <c r="G983" t="s">
         <v>20</v>
@@ -54225,7 +54279,7 @@
       </c>
       <c r="F984" s="4">
         <f t="shared" si="15"/>
-        <v>0.84930555555555554</v>
+        <v>84.930555555555557</v>
       </c>
       <c r="G984" t="s">
         <v>14</v>
@@ -54273,7 +54327,7 @@
       </c>
       <c r="F985" s="4">
         <f t="shared" si="15"/>
-        <v>1.4593648334624323</v>
+        <v>145.93648334624322</v>
       </c>
       <c r="G985" t="s">
         <v>20</v>
@@ -54321,7 +54375,7 @@
       </c>
       <c r="F986" s="4">
         <f t="shared" si="15"/>
-        <v>1.5246153846153847</v>
+        <v>152.46153846153848</v>
       </c>
       <c r="G986" t="s">
         <v>20</v>
@@ -54369,7 +54423,7 @@
       </c>
       <c r="F987" s="4">
         <f t="shared" si="15"/>
-        <v>0.67129542790152408</v>
+        <v>67.129542790152414</v>
       </c>
       <c r="G987" t="s">
         <v>14</v>
@@ -54417,7 +54471,7 @@
       </c>
       <c r="F988" s="4">
         <f t="shared" si="15"/>
-        <v>0.40307692307692305</v>
+        <v>40.307692307692307</v>
       </c>
       <c r="G988" t="s">
         <v>14</v>
@@ -54465,7 +54519,7 @@
       </c>
       <c r="F989" s="4">
         <f t="shared" si="15"/>
-        <v>2.1679032258064517</v>
+        <v>216.79032258064518</v>
       </c>
       <c r="G989" t="s">
         <v>20</v>
@@ -54513,7 +54567,7 @@
       </c>
       <c r="F990" s="4">
         <f t="shared" si="15"/>
-        <v>0.52117021276595743</v>
+        <v>52.117021276595743</v>
       </c>
       <c r="G990" t="s">
         <v>14</v>
@@ -54561,7 +54615,7 @@
       </c>
       <c r="F991" s="4">
         <f t="shared" si="15"/>
-        <v>4.9958333333333336</v>
+        <v>499.58333333333337</v>
       </c>
       <c r="G991" t="s">
         <v>20</v>
@@ -54609,7 +54663,7 @@
       </c>
       <c r="F992" s="4">
         <f t="shared" si="15"/>
-        <v>0.87679487179487181</v>
+        <v>87.679487179487182</v>
       </c>
       <c r="G992" t="s">
         <v>14</v>
@@ -54657,7 +54711,7 @@
       </c>
       <c r="F993" s="4">
         <f t="shared" si="15"/>
-        <v>1.131734693877551</v>
+        <v>113.17346938775511</v>
       </c>
       <c r="G993" t="s">
         <v>20</v>
@@ -54705,7 +54759,7 @@
       </c>
       <c r="F994" s="4">
         <f t="shared" si="15"/>
-        <v>4.2654838709677421</v>
+        <v>426.54838709677421</v>
       </c>
       <c r="G994" t="s">
         <v>20</v>
@@ -54753,7 +54807,7 @@
       </c>
       <c r="F995" s="4">
         <f t="shared" si="15"/>
-        <v>0.77632653061224488</v>
+        <v>77.632653061224488</v>
       </c>
       <c r="G995" t="s">
         <v>74</v>
@@ -54801,7 +54855,7 @@
       </c>
       <c r="F996" s="4">
         <f t="shared" si="15"/>
-        <v>0.52496810772501767</v>
+        <v>52.496810772501767</v>
       </c>
       <c r="G996" t="s">
         <v>14</v>
@@ -54849,7 +54903,7 @@
       </c>
       <c r="F997" s="4">
         <f t="shared" si="15"/>
-        <v>1.5746762589928058</v>
+        <v>157.46762589928059</v>
       </c>
       <c r="G997" t="s">
         <v>20</v>
@@ -54897,7 +54951,7 @@
       </c>
       <c r="F998" s="4">
         <f t="shared" si="15"/>
-        <v>0.72939393939393937</v>
+        <v>72.939393939393938</v>
       </c>
       <c r="G998" t="s">
         <v>14</v>
@@ -54945,7 +54999,7 @@
       </c>
       <c r="F999" s="4">
         <f t="shared" si="15"/>
-        <v>0.60565789473684206</v>
+        <v>60.565789473684205</v>
       </c>
       <c r="G999" t="s">
         <v>74</v>
@@ -54993,7 +55047,7 @@
       </c>
       <c r="F1000" s="4">
         <f t="shared" si="15"/>
-        <v>0.5679129129129129</v>
+        <v>56.791291291291287</v>
       </c>
       <c r="G1000" t="s">
         <v>14</v>
@@ -55041,7 +55095,7 @@
       </c>
       <c r="F1001" s="4">
         <f t="shared" si="15"/>
-        <v>0.56542754275427543</v>
+        <v>56.542754275427541</v>
       </c>
       <c r="G1001" t="s">
         <v>74</v>
@@ -55073,17 +55127,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="live">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="live">
       <formula>NOT(ISERROR(SEARCH("live",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="canceled">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="canceled">
       <formula>NOT(ISERROR(SEARCH("canceled",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="successful">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="successful">
       <formula>NOT(ISERROR(SEARCH("successful",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="200"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF0070C0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
